--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -2012,8 +2012,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
@@ -2027,8 +2027,8 @@
     <col min="18" max="18" width="24.1538461538462" style="1" customWidth="1"/>
     <col min="19" max="23" width="11.4615384615385" style="1" customWidth="1"/>
     <col min="24" max="24" width="24.1538461538462" style="1" customWidth="1"/>
-    <col min="25" max="16374" width="19.25" style="1" customWidth="1"/>
-    <col min="16375" max="16384" width="19.25" style="1"/>
+    <col min="25" max="16369" width="19.25" style="1" customWidth="1"/>
+    <col min="16370" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.8" spans="1:24">

--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -126,10 +126,277 @@
     <t>测试测试</t>
   </si>
   <si>
-    <t>测试武器强化属性</t>
+    <t>单手剑1</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>单手剑2</t>
+  </si>
+  <si>
+    <t>单手剑3</t>
+  </si>
+  <si>
+    <t>单手剑4</t>
+  </si>
+  <si>
+    <t>单手剑5</t>
+  </si>
+  <si>
+    <t>单手剑6</t>
+  </si>
+  <si>
+    <t>单手剑7</t>
+  </si>
+  <si>
+    <t>单手剑8</t>
+  </si>
+  <si>
+    <t>单手剑9</t>
+  </si>
+  <si>
+    <t>单手剑10</t>
+  </si>
+  <si>
+    <t>双手剑1</t>
+  </si>
+  <si>
+    <t>双手剑2</t>
+  </si>
+  <si>
+    <t>双手剑3</t>
+  </si>
+  <si>
+    <t>双手剑4</t>
+  </si>
+  <si>
+    <t>双手剑5</t>
+  </si>
+  <si>
+    <t>双手剑6</t>
+  </si>
+  <si>
+    <t>双手剑7</t>
+  </si>
+  <si>
+    <t>双手剑8</t>
+  </si>
+  <si>
+    <t>双手剑9</t>
+  </si>
+  <si>
+    <t>双手剑10</t>
+  </si>
+  <si>
+    <t>长柄1</t>
+  </si>
+  <si>
+    <t>长柄2</t>
+  </si>
+  <si>
+    <t>长柄3</t>
+  </si>
+  <si>
+    <t>长柄4</t>
+  </si>
+  <si>
+    <t>长柄5</t>
+  </si>
+  <si>
+    <t>长柄6</t>
+  </si>
+  <si>
+    <t>长柄7</t>
+  </si>
+  <si>
+    <t>长柄8</t>
+  </si>
+  <si>
+    <t>长柄9</t>
+  </si>
+  <si>
+    <t>长柄10</t>
+  </si>
+  <si>
+    <t>手枪1</t>
+  </si>
+  <si>
+    <t>手枪2</t>
+  </si>
+  <si>
+    <t>手枪3</t>
+  </si>
+  <si>
+    <t>手枪4</t>
+  </si>
+  <si>
+    <t>手枪5</t>
+  </si>
+  <si>
+    <t>手枪6</t>
+  </si>
+  <si>
+    <t>手枪7</t>
+  </si>
+  <si>
+    <t>手枪8</t>
+  </si>
+  <si>
+    <t>手枪9</t>
+  </si>
+  <si>
+    <t>手枪10</t>
+  </si>
+  <si>
+    <t>法杖1</t>
+  </si>
+  <si>
+    <t>法杖2</t>
+  </si>
+  <si>
+    <t>法杖3</t>
+  </si>
+  <si>
+    <t>法杖4</t>
+  </si>
+  <si>
+    <t>法杖5</t>
+  </si>
+  <si>
+    <t>法杖6</t>
+  </si>
+  <si>
+    <t>法杖7</t>
+  </si>
+  <si>
+    <t>法杖8</t>
+  </si>
+  <si>
+    <t>法杖9</t>
+  </si>
+  <si>
+    <t>法杖10</t>
+  </si>
+  <si>
+    <t>召唤物1</t>
+  </si>
+  <si>
+    <t>召唤物2</t>
+  </si>
+  <si>
+    <t>召唤物3</t>
+  </si>
+  <si>
+    <t>召唤物4</t>
+  </si>
+  <si>
+    <t>召唤物5</t>
+  </si>
+  <si>
+    <t>召唤物6</t>
+  </si>
+  <si>
+    <t>召唤物7</t>
+  </si>
+  <si>
+    <t>召唤物8</t>
+  </si>
+  <si>
+    <t>召唤物9</t>
+  </si>
+  <si>
+    <t>召唤物10</t>
+  </si>
+  <si>
+    <t>衣服1</t>
+  </si>
+  <si>
+    <t>衣服2</t>
+  </si>
+  <si>
+    <t>衣服3</t>
+  </si>
+  <si>
+    <t>衣服4</t>
+  </si>
+  <si>
+    <t>衣服5</t>
+  </si>
+  <si>
+    <t>衣服6</t>
+  </si>
+  <si>
+    <t>衣服7</t>
+  </si>
+  <si>
+    <t>衣服8</t>
+  </si>
+  <si>
+    <t>衣服9</t>
+  </si>
+  <si>
+    <t>衣服10</t>
+  </si>
+  <si>
+    <t>裤子1</t>
+  </si>
+  <si>
+    <t>裤子2</t>
+  </si>
+  <si>
+    <t>裤子3</t>
+  </si>
+  <si>
+    <t>裤子4</t>
+  </si>
+  <si>
+    <t>裤子5</t>
+  </si>
+  <si>
+    <t>裤子6</t>
+  </si>
+  <si>
+    <t>裤子7</t>
+  </si>
+  <si>
+    <t>裤子8</t>
+  </si>
+  <si>
+    <t>裤子9</t>
+  </si>
+  <si>
+    <t>裤子10</t>
+  </si>
+  <si>
+    <t>饰品1</t>
+  </si>
+  <si>
+    <t>饰品2</t>
+  </si>
+  <si>
+    <t>饰品3</t>
+  </si>
+  <si>
+    <t>饰品4</t>
+  </si>
+  <si>
+    <t>饰品5</t>
+  </si>
+  <si>
+    <t>饰品6</t>
+  </si>
+  <si>
+    <t>饰品7</t>
+  </si>
+  <si>
+    <t>饰品8</t>
+  </si>
+  <si>
+    <t>饰品9</t>
+  </si>
+  <si>
+    <t>饰品10</t>
   </si>
 </sst>
 </file>
@@ -137,9 +404,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -163,7 +430,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,37 +458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +474,68 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +551,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -246,68 +574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,157 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +625,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,7 +709,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,11 +816,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,17 +888,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,192 +913,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -799,12 +1066,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,54 +1080,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2008,30 +2275,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C65" sqref="C65:C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
     <col min="2" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.2307692307692" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.53846153846154" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="13" max="17" width="15.3846153846154" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.1538461538462" style="1" customWidth="1"/>
-    <col min="19" max="23" width="11.4615384615385" style="1" customWidth="1"/>
-    <col min="24" max="24" width="24.1538461538462" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.2333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="7" max="12" width="12.925" style="1" customWidth="1"/>
+    <col min="13" max="17" width="15.3833333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.15" style="1" customWidth="1"/>
+    <col min="19" max="23" width="11.4583333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.15" style="1" customWidth="1"/>
     <col min="25" max="16369" width="19.25" style="1" customWidth="1"/>
     <col min="16370" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:24">
+    <row r="1" ht="13.5" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2059,7 +2326,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" ht="68" spans="1:24">
+    <row r="2" ht="57" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -2067,32 +2334,32 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
       <c r="X2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2102,40 +2369,40 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2144,70 +2411,70 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2216,70 +2483,70 @@
       <c r="B5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:24">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4" t="s">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2288,7 +2555,7 @@
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2297,65 +2564,1044 @@
       <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>-1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>-1</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>-1</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L7" s="6" t="str">
         <f>G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
         <v>2,3,-1,-1,-1</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>1100011</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>1100012</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>-1</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>-1</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>-1</v>
       </c>
-      <c r="R7" s="5" t="str">
+      <c r="R7" s="6" t="str">
         <f>M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7&amp;","&amp;Q7</f>
         <v>1100011,1100012,-1,-1,-1</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>1</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>2</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="6">
         <v>-1</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="6">
         <v>-1</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="6">
         <v>-1</v>
       </c>
-      <c r="X7" s="5" t="str">
+      <c r="X7" s="6" t="str">
         <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
         <v>1,2,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:6">
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:6">
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:6">
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:6">
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:6">
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:6">
+      <c r="C13" s="6">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:6">
+      <c r="C14" s="6">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:6">
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:6">
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:6">
+      <c r="C17" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:6">
+      <c r="C18" s="6">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:6">
+      <c r="C19" s="6">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:6">
+      <c r="C20" s="6">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:6">
+      <c r="C21" s="6">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:6">
+      <c r="C22" s="6">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:6">
+      <c r="C23" s="6">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:6">
+      <c r="C24" s="6">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:6">
+      <c r="C25" s="6">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:6">
+      <c r="C26" s="6">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:6">
+      <c r="C27" s="6">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:6">
+      <c r="C28" s="6">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:6">
+      <c r="C29" s="6">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:6">
+      <c r="C30" s="6">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:6">
+      <c r="C31" s="6">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:6">
+      <c r="C32" s="6">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:6">
+      <c r="C33" s="6">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:6">
+      <c r="C34" s="6">
+        <v>28</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:6">
+      <c r="C35" s="6">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:6">
+      <c r="C36" s="6">
+        <v>30</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:6">
+      <c r="C37" s="6">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:6">
+      <c r="C38" s="6">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:6">
+      <c r="C39" s="6">
+        <v>33</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:6">
+      <c r="C40" s="6">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:6">
+      <c r="C41" s="6">
+        <v>35</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:6">
+      <c r="C42" s="6">
+        <v>36</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:6">
+      <c r="C43" s="6">
+        <v>37</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:6">
+      <c r="C44" s="6">
+        <v>38</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:6">
+      <c r="C45" s="6">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:6">
+      <c r="C46" s="6">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:6">
+      <c r="C47" s="6">
+        <v>41</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:6">
+      <c r="C48" s="6">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:6">
+      <c r="C49" s="6">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:6">
+      <c r="C50" s="6">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:6">
+      <c r="C51" s="6">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:6">
+      <c r="C52" s="6">
+        <v>46</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:6">
+      <c r="C53" s="6">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:6">
+      <c r="C54" s="6">
+        <v>48</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:6">
+      <c r="C55" s="6">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:6">
+      <c r="C56" s="6">
+        <v>50</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:6">
+      <c r="C57" s="6">
+        <v>51</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:6">
+      <c r="C58" s="6">
+        <v>52</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:6">
+      <c r="C59" s="6">
+        <v>53</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:6">
+      <c r="C60" s="6">
+        <v>54</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:6">
+      <c r="C61" s="6">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:6">
+      <c r="C62" s="6">
+        <v>56</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:6">
+      <c r="C63" s="6">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:6">
+      <c r="C64" s="6">
+        <v>58</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:6">
+      <c r="C65" s="6">
+        <v>59</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:6">
+      <c r="C66" s="6">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:6">
+      <c r="C67" s="6">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:6">
+      <c r="C68" s="6">
+        <v>62</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:6">
+      <c r="C69" s="6">
+        <v>63</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:6">
+      <c r="C70" s="6">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:6">
+      <c r="C71" s="6">
+        <v>65</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:6">
+      <c r="C72" s="6">
+        <v>66</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:6">
+      <c r="C73" s="6">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:6">
+      <c r="C74" s="6">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:6">
+      <c r="C75" s="6">
+        <v>69</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:6">
+      <c r="C76" s="6">
+        <v>70</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:6">
+      <c r="C77" s="6">
+        <v>71</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:6">
+      <c r="C78" s="6">
+        <v>72</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:6">
+      <c r="C79" s="6">
+        <v>73</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:6">
+      <c r="C80" s="6">
+        <v>74</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:6">
+      <c r="C81" s="6">
+        <v>75</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:6">
+      <c r="C82" s="6">
+        <v>76</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:6">
+      <c r="C83" s="6">
+        <v>77</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:6">
+      <c r="C84" s="6">
+        <v>78</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:6">
+      <c r="C85" s="6">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:6">
+      <c r="C86" s="6">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:6">
+      <c r="C87" s="6">
+        <v>81</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F87" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:6">
+      <c r="C88" s="6">
+        <v>82</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:6">
+      <c r="C89" s="6">
+        <v>83</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:6">
+      <c r="C90" s="6">
+        <v>84</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:6">
+      <c r="C91" s="6">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:6">
+      <c r="C92" s="6">
+        <v>86</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:6">
+      <c r="C93" s="6">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:6">
+      <c r="C94" s="6">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:6">
+      <c r="C95" s="6">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:6">
+      <c r="C96" s="6">
+        <v>90</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -14,12 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
     <t>装备id</t>
+  </si>
+  <si>
+    <t>固定值。
+成长率填在AttRatio表里</t>
   </si>
   <si>
     <t>0: 武器 @@ -129,25 +133,43 @@
     <t>单手剑1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>12</t>
   </si>
   <si>
     <t>单手剑2</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>单手剑3</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>单手剑4</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>单手剑5</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>单手剑6</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>单手剑7</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>单手剑8</t>
@@ -404,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -429,6 +451,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -436,8 +466,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,30 +520,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,15 +548,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,37 +559,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,30 +574,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +635,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,49 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,109 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,6 +838,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -827,6 +867,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,48 +918,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -899,165 +927,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2277,17 +2299,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65:C96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
     <col min="2" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.2333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.54166666666667" style="1" customWidth="1"/>
     <col min="7" max="12" width="12.925" style="1" customWidth="1"/>
     <col min="13" max="17" width="15.3833333333333" style="1" customWidth="1"/>
@@ -2333,19 +2355,21 @@
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2353,7 +2377,7 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -2361,25 +2385,25 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:24">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2387,7 +2411,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2395,7 +2419,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -2403,89 +2427,89 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:24">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="M4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:24">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2511,19 +2535,19 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:24">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -2531,7 +2555,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2539,7 +2563,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -2547,22 +2571,22 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:24">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
@@ -2630,7 +2654,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
@@ -2641,7 +2668,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -2652,7 +2682,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
@@ -2663,7 +2696,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -2674,7 +2710,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
@@ -2685,7 +2724,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -2696,6 +2738,9 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="6">
@@ -2707,7 +2752,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
@@ -2718,7 +2766,10 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -2729,7 +2780,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -2740,7 +2794,10 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
@@ -2751,7 +2808,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -2762,7 +2822,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -2773,7 +2836,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -2784,7 +2850,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -2795,7 +2864,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -2806,7 +2878,10 @@
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
@@ -2817,7 +2892,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
@@ -2828,7 +2906,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -2839,7 +2920,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -2850,7 +2934,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -2861,7 +2948,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -2872,7 +2962,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -2883,7 +2976,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
@@ -2894,7 +2990,10 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
@@ -2905,7 +3004,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
@@ -2916,7 +3018,10 @@
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
@@ -2927,7 +3032,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
@@ -2938,7 +3046,10 @@
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F36" s="6">
         <v>0</v>
@@ -2949,7 +3060,10 @@
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
@@ -2960,7 +3074,10 @@
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -2971,7 +3088,10 @@
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
@@ -2982,7 +3102,10 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="6">
         <v>0</v>
@@ -2993,7 +3116,10 @@
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F41" s="6">
         <v>0</v>
@@ -3004,7 +3130,10 @@
         <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -3015,7 +3144,10 @@
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -3026,7 +3158,10 @@
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -3037,7 +3172,10 @@
         <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F45" s="6">
         <v>0</v>
@@ -3048,7 +3186,10 @@
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F46" s="6">
         <v>0</v>
@@ -3059,7 +3200,10 @@
         <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
@@ -3070,7 +3214,10 @@
         <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
@@ -3081,7 +3228,10 @@
         <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
@@ -3092,7 +3242,10 @@
         <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F50" s="6">
         <v>0</v>
@@ -3103,7 +3256,10 @@
         <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
@@ -3114,7 +3270,10 @@
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F52" s="6">
         <v>0</v>
@@ -3125,7 +3284,10 @@
         <v>47</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F53" s="6">
         <v>0</v>
@@ -3136,7 +3298,10 @@
         <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F54" s="6">
         <v>0</v>
@@ -3147,7 +3312,10 @@
         <v>49</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
@@ -3158,7 +3326,10 @@
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
@@ -3169,7 +3340,10 @@
         <v>51</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
@@ -3180,7 +3354,10 @@
         <v>52</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
@@ -3191,7 +3368,10 @@
         <v>53</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
@@ -3202,7 +3382,10 @@
         <v>54</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F60" s="6">
         <v>0</v>
@@ -3213,7 +3396,10 @@
         <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
@@ -3224,7 +3410,10 @@
         <v>56</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F62" s="6">
         <v>0</v>
@@ -3235,7 +3424,10 @@
         <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F63" s="6">
         <v>0</v>
@@ -3246,7 +3438,10 @@
         <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F64" s="6">
         <v>0</v>
@@ -3257,7 +3452,10 @@
         <v>59</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F65" s="6">
         <v>0</v>
@@ -3268,7 +3466,10 @@
         <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F66" s="6">
         <v>0</v>
@@ -3279,7 +3480,10 @@
         <v>61</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F67" s="6">
         <v>1</v>
@@ -3290,7 +3494,10 @@
         <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F68" s="6">
         <v>1</v>
@@ -3301,7 +3508,10 @@
         <v>63</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
@@ -3312,7 +3522,10 @@
         <v>64</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F70" s="6">
         <v>1</v>
@@ -3323,7 +3536,10 @@
         <v>65</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F71" s="6">
         <v>1</v>
@@ -3334,7 +3550,10 @@
         <v>66</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F72" s="6">
         <v>1</v>
@@ -3345,7 +3564,10 @@
         <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F73" s="6">
         <v>1</v>
@@ -3356,7 +3578,10 @@
         <v>68</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F74" s="6">
         <v>1</v>
@@ -3367,7 +3592,10 @@
         <v>69</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F75" s="6">
         <v>1</v>
@@ -3378,7 +3606,10 @@
         <v>70</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F76" s="6">
         <v>1</v>
@@ -3389,7 +3620,10 @@
         <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F77" s="1">
         <v>2</v>
@@ -3400,7 +3634,10 @@
         <v>72</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F78" s="1">
         <v>2</v>
@@ -3411,7 +3648,10 @@
         <v>73</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F79" s="1">
         <v>2</v>
@@ -3422,7 +3662,10 @@
         <v>74</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
@@ -3433,7 +3676,10 @@
         <v>75</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F81" s="1">
         <v>2</v>
@@ -3444,7 +3690,10 @@
         <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F82" s="1">
         <v>2</v>
@@ -3455,7 +3704,10 @@
         <v>77</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
@@ -3466,7 +3718,10 @@
         <v>78</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="F84" s="1">
         <v>2</v>
@@ -3477,7 +3732,10 @@
         <v>79</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="F85" s="1">
         <v>2</v>
@@ -3488,7 +3746,10 @@
         <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F86" s="1">
         <v>2</v>
@@ -3499,7 +3760,10 @@
         <v>81</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F87" s="1">
         <v>3</v>
@@ -3510,7 +3774,10 @@
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F88" s="1">
         <v>3</v>
@@ -3521,7 +3788,10 @@
         <v>83</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F89" s="1">
         <v>3</v>
@@ -3532,7 +3802,10 @@
         <v>84</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F90" s="1">
         <v>3</v>
@@ -3543,7 +3816,10 @@
         <v>85</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F91" s="1">
         <v>3</v>
@@ -3554,7 +3830,10 @@
         <v>86</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F92" s="1">
         <v>3</v>
@@ -3565,7 +3844,10 @@
         <v>87</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="F93" s="1">
         <v>3</v>
@@ -3576,7 +3858,10 @@
         <v>88</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F94" s="1">
         <v>3</v>
@@ -3587,7 +3872,10 @@
         <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F95" s="1">
         <v>3</v>
@@ -3598,11 +3886,29 @@
         <v>90</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F96" s="1">
         <v>3</v>
       </c>
+    </row>
+    <row r="97" customHeight="1" spans="5:5">
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" customHeight="1" spans="5:5">
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" customHeight="1" spans="5:5">
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" customHeight="1" spans="5:5">
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" customHeight="1" spans="5:5">
+      <c r="E101" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="130">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,7 +22,7 @@
     <t>装备id</t>
   </si>
   <si>
-    <t>固定值。
+    <t>对应att表id，填固定值。
 成长率填在AttRatio表里</t>
   </si>
   <si>
@@ -34,7 +34,7 @@
 3: 饰品</t>
   </si>
   <si>
-    <t>-1代表无法突破到此等级</t>
+    <t>对应att表id</t>
   </si>
   <si>
     <t>此列由前5列自动生成，不用填写</t>
@@ -70,7 +70,7 @@
     <t>物品描述</t>
   </si>
   <si>
-    <t>基础属性id</t>
+    <t>升级属性id</t>
   </si>
   <si>
     <t>装备位置</t>
@@ -133,265 +133,256 @@
     <t>单手剑1</t>
   </si>
   <si>
-    <t>12</t>
+    <t>8</t>
   </si>
   <si>
     <t>单手剑2</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>单手剑3</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>单手剑4</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>单手剑5</t>
   </si>
   <si>
+    <t>单手剑6</t>
+  </si>
+  <si>
+    <t>单手剑7</t>
+  </si>
+  <si>
+    <t>单手剑8</t>
+  </si>
+  <si>
+    <t>单手剑9</t>
+  </si>
+  <si>
+    <t>单手剑10</t>
+  </si>
+  <si>
+    <t>双手剑1</t>
+  </si>
+  <si>
+    <t>双手剑2</t>
+  </si>
+  <si>
+    <t>双手剑3</t>
+  </si>
+  <si>
+    <t>双手剑4</t>
+  </si>
+  <si>
+    <t>双手剑5</t>
+  </si>
+  <si>
+    <t>双手剑6</t>
+  </si>
+  <si>
+    <t>双手剑7</t>
+  </si>
+  <si>
+    <t>双手剑8</t>
+  </si>
+  <si>
+    <t>双手剑9</t>
+  </si>
+  <si>
+    <t>双手剑10</t>
+  </si>
+  <si>
+    <t>长柄1</t>
+  </si>
+  <si>
+    <t>长柄2</t>
+  </si>
+  <si>
+    <t>长柄3</t>
+  </si>
+  <si>
+    <t>长柄4</t>
+  </si>
+  <si>
+    <t>长柄5</t>
+  </si>
+  <si>
+    <t>长柄6</t>
+  </si>
+  <si>
+    <t>长柄7</t>
+  </si>
+  <si>
+    <t>长柄8</t>
+  </si>
+  <si>
+    <t>长柄9</t>
+  </si>
+  <si>
+    <t>长柄10</t>
+  </si>
+  <si>
+    <t>手枪1</t>
+  </si>
+  <si>
+    <t>手枪2</t>
+  </si>
+  <si>
+    <t>手枪3</t>
+  </si>
+  <si>
+    <t>手枪4</t>
+  </si>
+  <si>
+    <t>手枪5</t>
+  </si>
+  <si>
+    <t>手枪6</t>
+  </si>
+  <si>
+    <t>手枪7</t>
+  </si>
+  <si>
+    <t>手枪8</t>
+  </si>
+  <si>
+    <t>手枪9</t>
+  </si>
+  <si>
+    <t>手枪10</t>
+  </si>
+  <si>
+    <t>法杖1</t>
+  </si>
+  <si>
+    <t>法杖2</t>
+  </si>
+  <si>
+    <t>法杖3</t>
+  </si>
+  <si>
+    <t>法杖4</t>
+  </si>
+  <si>
+    <t>法杖5</t>
+  </si>
+  <si>
+    <t>法杖6</t>
+  </si>
+  <si>
+    <t>法杖7</t>
+  </si>
+  <si>
+    <t>法杖8</t>
+  </si>
+  <si>
+    <t>法杖9</t>
+  </si>
+  <si>
+    <t>法杖10</t>
+  </si>
+  <si>
+    <t>召唤物1</t>
+  </si>
+  <si>
+    <t>召唤物2</t>
+  </si>
+  <si>
+    <t>召唤物3</t>
+  </si>
+  <si>
+    <t>召唤物4</t>
+  </si>
+  <si>
+    <t>召唤物5</t>
+  </si>
+  <si>
+    <t>召唤物6</t>
+  </si>
+  <si>
+    <t>召唤物7</t>
+  </si>
+  <si>
+    <t>召唤物8</t>
+  </si>
+  <si>
+    <t>召唤物9</t>
+  </si>
+  <si>
+    <t>召唤物10</t>
+  </si>
+  <si>
+    <t>衣服1</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>单手剑6</t>
+    <t>衣服2</t>
+  </si>
+  <si>
+    <t>衣服3</t>
+  </si>
+  <si>
+    <t>衣服4</t>
+  </si>
+  <si>
+    <t>衣服5</t>
+  </si>
+  <si>
+    <t>衣服6</t>
+  </si>
+  <si>
+    <t>衣服7</t>
+  </si>
+  <si>
+    <t>衣服8</t>
+  </si>
+  <si>
+    <t>衣服9</t>
+  </si>
+  <si>
+    <t>衣服10</t>
+  </si>
+  <si>
+    <t>裤子1</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>单手剑7</t>
+    <t>裤子2</t>
+  </si>
+  <si>
+    <t>裤子3</t>
+  </si>
+  <si>
+    <t>裤子4</t>
+  </si>
+  <si>
+    <t>裤子5</t>
+  </si>
+  <si>
+    <t>裤子6</t>
+  </si>
+  <si>
+    <t>裤子7</t>
+  </si>
+  <si>
+    <t>裤子8</t>
+  </si>
+  <si>
+    <t>裤子9</t>
+  </si>
+  <si>
+    <t>裤子10</t>
+  </si>
+  <si>
+    <t>饰品1</t>
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>单手剑8</t>
-  </si>
-  <si>
-    <t>单手剑9</t>
-  </si>
-  <si>
-    <t>单手剑10</t>
-  </si>
-  <si>
-    <t>双手剑1</t>
-  </si>
-  <si>
-    <t>双手剑2</t>
-  </si>
-  <si>
-    <t>双手剑3</t>
-  </si>
-  <si>
-    <t>双手剑4</t>
-  </si>
-  <si>
-    <t>双手剑5</t>
-  </si>
-  <si>
-    <t>双手剑6</t>
-  </si>
-  <si>
-    <t>双手剑7</t>
-  </si>
-  <si>
-    <t>双手剑8</t>
-  </si>
-  <si>
-    <t>双手剑9</t>
-  </si>
-  <si>
-    <t>双手剑10</t>
-  </si>
-  <si>
-    <t>长柄1</t>
-  </si>
-  <si>
-    <t>长柄2</t>
-  </si>
-  <si>
-    <t>长柄3</t>
-  </si>
-  <si>
-    <t>长柄4</t>
-  </si>
-  <si>
-    <t>长柄5</t>
-  </si>
-  <si>
-    <t>长柄6</t>
-  </si>
-  <si>
-    <t>长柄7</t>
-  </si>
-  <si>
-    <t>长柄8</t>
-  </si>
-  <si>
-    <t>长柄9</t>
-  </si>
-  <si>
-    <t>长柄10</t>
-  </si>
-  <si>
-    <t>手枪1</t>
-  </si>
-  <si>
-    <t>手枪2</t>
-  </si>
-  <si>
-    <t>手枪3</t>
-  </si>
-  <si>
-    <t>手枪4</t>
-  </si>
-  <si>
-    <t>手枪5</t>
-  </si>
-  <si>
-    <t>手枪6</t>
-  </si>
-  <si>
-    <t>手枪7</t>
-  </si>
-  <si>
-    <t>手枪8</t>
-  </si>
-  <si>
-    <t>手枪9</t>
-  </si>
-  <si>
-    <t>手枪10</t>
-  </si>
-  <si>
-    <t>法杖1</t>
-  </si>
-  <si>
-    <t>法杖2</t>
-  </si>
-  <si>
-    <t>法杖3</t>
-  </si>
-  <si>
-    <t>法杖4</t>
-  </si>
-  <si>
-    <t>法杖5</t>
-  </si>
-  <si>
-    <t>法杖6</t>
-  </si>
-  <si>
-    <t>法杖7</t>
-  </si>
-  <si>
-    <t>法杖8</t>
-  </si>
-  <si>
-    <t>法杖9</t>
-  </si>
-  <si>
-    <t>法杖10</t>
-  </si>
-  <si>
-    <t>召唤物1</t>
-  </si>
-  <si>
-    <t>召唤物2</t>
-  </si>
-  <si>
-    <t>召唤物3</t>
-  </si>
-  <si>
-    <t>召唤物4</t>
-  </si>
-  <si>
-    <t>召唤物5</t>
-  </si>
-  <si>
-    <t>召唤物6</t>
-  </si>
-  <si>
-    <t>召唤物7</t>
-  </si>
-  <si>
-    <t>召唤物8</t>
-  </si>
-  <si>
-    <t>召唤物9</t>
-  </si>
-  <si>
-    <t>召唤物10</t>
-  </si>
-  <si>
-    <t>衣服1</t>
-  </si>
-  <si>
-    <t>衣服2</t>
-  </si>
-  <si>
-    <t>衣服3</t>
-  </si>
-  <si>
-    <t>衣服4</t>
-  </si>
-  <si>
-    <t>衣服5</t>
-  </si>
-  <si>
-    <t>衣服6</t>
-  </si>
-  <si>
-    <t>衣服7</t>
-  </si>
-  <si>
-    <t>衣服8</t>
-  </si>
-  <si>
-    <t>衣服9</t>
-  </si>
-  <si>
-    <t>衣服10</t>
-  </si>
-  <si>
-    <t>裤子1</t>
-  </si>
-  <si>
-    <t>裤子2</t>
-  </si>
-  <si>
-    <t>裤子3</t>
-  </si>
-  <si>
-    <t>裤子4</t>
-  </si>
-  <si>
-    <t>裤子5</t>
-  </si>
-  <si>
-    <t>裤子6</t>
-  </si>
-  <si>
-    <t>裤子7</t>
-  </si>
-  <si>
-    <t>裤子8</t>
-  </si>
-  <si>
-    <t>裤子9</t>
-  </si>
-  <si>
-    <t>裤子10</t>
-  </si>
-  <si>
-    <t>饰品1</t>
   </si>
   <si>
     <t>饰品2</t>
@@ -427,8 +418,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -451,11 +442,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,6 +483,36 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,14 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
@@ -497,8 +539,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,52 +556,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,18 +571,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,8 +585,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,7 +620,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,13 +680,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,37 +752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,13 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,91 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,69 +829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,6 +858,69 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -938,148 +929,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2301,8 +2292,8 @@
   <sheetPr/>
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97:E101"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7:L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2592,23 +2583,23 @@
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H7" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I7" s="6">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="J7" s="6">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="K7" s="6">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="L7" s="6" t="str">
         <f>G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
-        <v>2,3,-1,-1,-1</v>
+        <v>12,13,14,15,16</v>
       </c>
       <c r="M7" s="6">
         <v>1100011</v>
@@ -2649,7 +2640,7 @@
         <v>1,2,-1,-1,-1</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:6">
+    <row r="8" customHeight="1" spans="3:12">
       <c r="C8" s="6">
         <v>2</v>
       </c>
@@ -2657,256 +2648,598 @@
         <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:6">
+      <c r="G8" s="1">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>21</v>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f t="shared" ref="L8:L39" si="0">G8&amp;","&amp;H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8</f>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:12">
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:6">
+      <c r="G9" s="6">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6">
+        <v>15</v>
+      </c>
+      <c r="K9" s="6">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:12">
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:6">
+      <c r="G10" s="1">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1">
+        <v>21</v>
+      </c>
+      <c r="L10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:12">
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:6">
+      <c r="G11" s="6">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6">
+        <v>14</v>
+      </c>
+      <c r="J11" s="6">
+        <v>15</v>
+      </c>
+      <c r="K11" s="6">
+        <v>16</v>
+      </c>
+      <c r="L11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:12">
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:6">
+      <c r="G12" s="1">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>19</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1">
+        <v>21</v>
+      </c>
+      <c r="L12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:12">
       <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:6">
+      <c r="G13" s="6">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6">
+        <v>14</v>
+      </c>
+      <c r="J13" s="6">
+        <v>15</v>
+      </c>
+      <c r="K13" s="6">
+        <v>16</v>
+      </c>
+      <c r="L13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="6">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:6">
+      <c r="G14" s="1">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1">
+        <v>20</v>
+      </c>
+      <c r="K14" s="1">
+        <v>21</v>
+      </c>
+      <c r="L14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:12">
       <c r="C15" s="6">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:6">
+      <c r="G15" s="6">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6">
+        <v>13</v>
+      </c>
+      <c r="I15" s="6">
+        <v>14</v>
+      </c>
+      <c r="J15" s="6">
+        <v>15</v>
+      </c>
+      <c r="K15" s="6">
+        <v>16</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:12">
       <c r="C16" s="6">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:6">
+      <c r="G16" s="1">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>19</v>
+      </c>
+      <c r="J16" s="1">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1">
+        <v>21</v>
+      </c>
+      <c r="L16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:12">
       <c r="C17" s="6">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:6">
+      <c r="G17" s="6">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>14</v>
+      </c>
+      <c r="J17" s="6">
+        <v>15</v>
+      </c>
+      <c r="K17" s="6">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:12">
       <c r="C18" s="6">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:6">
+      <c r="G18" s="1">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1">
+        <v>21</v>
+      </c>
+      <c r="L18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:12">
       <c r="C19" s="6">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:6">
+      <c r="G19" s="6">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6">
+        <v>13</v>
+      </c>
+      <c r="I19" s="6">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6">
+        <v>15</v>
+      </c>
+      <c r="K19" s="6">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:12">
       <c r="C20" s="6">
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:6">
+      <c r="G20" s="1">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1">
+        <v>18</v>
+      </c>
+      <c r="I20" s="1">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1">
+        <v>21</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:12">
       <c r="C21" s="6">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:6">
+      <c r="G21" s="6">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6">
+        <v>13</v>
+      </c>
+      <c r="I21" s="6">
+        <v>14</v>
+      </c>
+      <c r="J21" s="6">
+        <v>15</v>
+      </c>
+      <c r="K21" s="6">
+        <v>16</v>
+      </c>
+      <c r="L21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:12">
       <c r="C22" s="6">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:6">
+      <c r="G22" s="1">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1">
+        <v>18</v>
+      </c>
+      <c r="I22" s="1">
+        <v>19</v>
+      </c>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:12">
       <c r="C23" s="6">
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:6">
+      <c r="G23" s="6">
+        <v>12</v>
+      </c>
+      <c r="H23" s="6">
+        <v>13</v>
+      </c>
+      <c r="I23" s="6">
+        <v>14</v>
+      </c>
+      <c r="J23" s="6">
+        <v>15</v>
+      </c>
+      <c r="K23" s="6">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:12">
       <c r="C24" s="6">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:6">
+      <c r="G24" s="1">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1">
+        <v>18</v>
+      </c>
+      <c r="I24" s="1">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1">
+        <v>20</v>
+      </c>
+      <c r="K24" s="1">
+        <v>21</v>
+      </c>
+      <c r="L24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:12">
       <c r="C25" s="6">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:6">
+      <c r="G25" s="6">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6">
+        <v>13</v>
+      </c>
+      <c r="I25" s="6">
+        <v>14</v>
+      </c>
+      <c r="J25" s="6">
+        <v>15</v>
+      </c>
+      <c r="K25" s="6">
+        <v>16</v>
+      </c>
+      <c r="L25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:12">
       <c r="C26" s="6">
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -2914,265 +3247,626 @@
       <c r="F26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:6">
+      <c r="G26" s="1">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1">
+        <v>19</v>
+      </c>
+      <c r="J26" s="1">
+        <v>20</v>
+      </c>
+      <c r="K26" s="1">
+        <v>21</v>
+      </c>
+      <c r="L26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:12">
       <c r="C27" s="6">
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:6">
+      <c r="G27" s="6">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6">
+        <v>13</v>
+      </c>
+      <c r="I27" s="6">
+        <v>14</v>
+      </c>
+      <c r="J27" s="6">
+        <v>15</v>
+      </c>
+      <c r="K27" s="6">
+        <v>16</v>
+      </c>
+      <c r="L27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:12">
       <c r="C28" s="6">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:6">
+      <c r="G28" s="1">
+        <v>17</v>
+      </c>
+      <c r="H28" s="1">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1">
+        <v>20</v>
+      </c>
+      <c r="K28" s="1">
+        <v>21</v>
+      </c>
+      <c r="L28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:12">
       <c r="C29" s="6">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:6">
+      <c r="G29" s="6">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6">
+        <v>13</v>
+      </c>
+      <c r="I29" s="6">
+        <v>14</v>
+      </c>
+      <c r="J29" s="6">
+        <v>15</v>
+      </c>
+      <c r="K29" s="6">
+        <v>16</v>
+      </c>
+      <c r="L29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:12">
       <c r="C30" s="6">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:6">
+      <c r="G30" s="1">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1">
+        <v>18</v>
+      </c>
+      <c r="I30" s="1">
+        <v>19</v>
+      </c>
+      <c r="J30" s="1">
+        <v>20</v>
+      </c>
+      <c r="K30" s="1">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:12">
       <c r="C31" s="6">
         <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:6">
+      <c r="G31" s="6">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6">
+        <v>13</v>
+      </c>
+      <c r="I31" s="6">
+        <v>14</v>
+      </c>
+      <c r="J31" s="6">
+        <v>15</v>
+      </c>
+      <c r="K31" s="6">
+        <v>16</v>
+      </c>
+      <c r="L31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:12">
       <c r="C32" s="6">
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:6">
+      <c r="G32" s="1">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1">
+        <v>19</v>
+      </c>
+      <c r="J32" s="1">
+        <v>20</v>
+      </c>
+      <c r="K32" s="1">
+        <v>21</v>
+      </c>
+      <c r="L32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:12">
       <c r="C33" s="6">
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:6">
+      <c r="G33" s="6">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6">
+        <v>13</v>
+      </c>
+      <c r="I33" s="6">
+        <v>14</v>
+      </c>
+      <c r="J33" s="6">
+        <v>15</v>
+      </c>
+      <c r="K33" s="6">
+        <v>16</v>
+      </c>
+      <c r="L33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:12">
       <c r="C34" s="6">
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:6">
+      <c r="G34" s="1">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1">
+        <v>18</v>
+      </c>
+      <c r="I34" s="1">
+        <v>19</v>
+      </c>
+      <c r="J34" s="1">
+        <v>20</v>
+      </c>
+      <c r="K34" s="1">
+        <v>21</v>
+      </c>
+      <c r="L34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:12">
       <c r="C35" s="6">
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:6">
+      <c r="G35" s="6">
+        <v>12</v>
+      </c>
+      <c r="H35" s="6">
+        <v>13</v>
+      </c>
+      <c r="I35" s="6">
+        <v>14</v>
+      </c>
+      <c r="J35" s="6">
+        <v>15</v>
+      </c>
+      <c r="K35" s="6">
+        <v>16</v>
+      </c>
+      <c r="L35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:12">
       <c r="C36" s="6">
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:6">
+      <c r="G36" s="1">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1">
+        <v>18</v>
+      </c>
+      <c r="I36" s="1">
+        <v>19</v>
+      </c>
+      <c r="J36" s="1">
+        <v>20</v>
+      </c>
+      <c r="K36" s="1">
+        <v>21</v>
+      </c>
+      <c r="L36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:12">
       <c r="C37" s="6">
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:6">
+      <c r="G37" s="6">
+        <v>12</v>
+      </c>
+      <c r="H37" s="6">
+        <v>13</v>
+      </c>
+      <c r="I37" s="6">
+        <v>14</v>
+      </c>
+      <c r="J37" s="6">
+        <v>15</v>
+      </c>
+      <c r="K37" s="6">
+        <v>16</v>
+      </c>
+      <c r="L37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:12">
       <c r="C38" s="6">
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:6">
+      <c r="G38" s="1">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1">
+        <v>18</v>
+      </c>
+      <c r="I38" s="1">
+        <v>19</v>
+      </c>
+      <c r="J38" s="1">
+        <v>20</v>
+      </c>
+      <c r="K38" s="1">
+        <v>21</v>
+      </c>
+      <c r="L38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:12">
       <c r="C39" s="6">
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:6">
+      <c r="G39" s="6">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6">
+        <v>13</v>
+      </c>
+      <c r="I39" s="6">
+        <v>14</v>
+      </c>
+      <c r="J39" s="6">
+        <v>15</v>
+      </c>
+      <c r="K39" s="6">
+        <v>16</v>
+      </c>
+      <c r="L39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:12">
       <c r="C40" s="6">
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F40" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:6">
+      <c r="G40" s="1">
+        <v>17</v>
+      </c>
+      <c r="H40" s="1">
+        <v>18</v>
+      </c>
+      <c r="I40" s="1">
+        <v>19</v>
+      </c>
+      <c r="J40" s="1">
+        <v>20</v>
+      </c>
+      <c r="K40" s="1">
+        <v>21</v>
+      </c>
+      <c r="L40" s="6" t="str">
+        <f t="shared" ref="L40:L71" si="1">G40&amp;","&amp;H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40</f>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:12">
       <c r="C41" s="6">
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F41" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:6">
+      <c r="G41" s="6">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6">
+        <v>13</v>
+      </c>
+      <c r="I41" s="6">
+        <v>14</v>
+      </c>
+      <c r="J41" s="6">
+        <v>15</v>
+      </c>
+      <c r="K41" s="6">
+        <v>16</v>
+      </c>
+      <c r="L41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:12">
       <c r="C42" s="6">
         <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:6">
+      <c r="G42" s="1">
+        <v>17</v>
+      </c>
+      <c r="H42" s="1">
+        <v>18</v>
+      </c>
+      <c r="I42" s="1">
+        <v>19</v>
+      </c>
+      <c r="J42" s="1">
+        <v>20</v>
+      </c>
+      <c r="K42" s="1">
+        <v>21</v>
+      </c>
+      <c r="L42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:12">
       <c r="C43" s="6">
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:6">
+      <c r="G43" s="6">
+        <v>12</v>
+      </c>
+      <c r="H43" s="6">
+        <v>13</v>
+      </c>
+      <c r="I43" s="6">
+        <v>14</v>
+      </c>
+      <c r="J43" s="6">
+        <v>15</v>
+      </c>
+      <c r="K43" s="6">
+        <v>16</v>
+      </c>
+      <c r="L43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:12">
       <c r="C44" s="6">
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:6">
+      <c r="G44" s="1">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1">
+        <v>18</v>
+      </c>
+      <c r="I44" s="1">
+        <v>19</v>
+      </c>
+      <c r="J44" s="1">
+        <v>20</v>
+      </c>
+      <c r="K44" s="1">
+        <v>21</v>
+      </c>
+      <c r="L44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:12">
       <c r="C45" s="6">
         <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>37</v>
@@ -3180,265 +3874,626 @@
       <c r="F45" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:6">
+      <c r="G45" s="6">
+        <v>12</v>
+      </c>
+      <c r="H45" s="6">
+        <v>13</v>
+      </c>
+      <c r="I45" s="6">
+        <v>14</v>
+      </c>
+      <c r="J45" s="6">
+        <v>15</v>
+      </c>
+      <c r="K45" s="6">
+        <v>16</v>
+      </c>
+      <c r="L45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:12">
       <c r="C46" s="6">
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F46" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:6">
+      <c r="G46" s="1">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1">
+        <v>19</v>
+      </c>
+      <c r="J46" s="1">
+        <v>20</v>
+      </c>
+      <c r="K46" s="1">
+        <v>21</v>
+      </c>
+      <c r="L46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:12">
       <c r="C47" s="6">
         <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:6">
+      <c r="G47" s="6">
+        <v>12</v>
+      </c>
+      <c r="H47" s="6">
+        <v>13</v>
+      </c>
+      <c r="I47" s="6">
+        <v>14</v>
+      </c>
+      <c r="J47" s="6">
+        <v>15</v>
+      </c>
+      <c r="K47" s="6">
+        <v>16</v>
+      </c>
+      <c r="L47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:12">
       <c r="C48" s="6">
         <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:6">
+      <c r="G48" s="1">
+        <v>17</v>
+      </c>
+      <c r="H48" s="1">
+        <v>18</v>
+      </c>
+      <c r="I48" s="1">
+        <v>19</v>
+      </c>
+      <c r="J48" s="1">
+        <v>20</v>
+      </c>
+      <c r="K48" s="1">
+        <v>21</v>
+      </c>
+      <c r="L48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:12">
       <c r="C49" s="6">
         <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:6">
+      <c r="G49" s="6">
+        <v>12</v>
+      </c>
+      <c r="H49" s="6">
+        <v>13</v>
+      </c>
+      <c r="I49" s="6">
+        <v>14</v>
+      </c>
+      <c r="J49" s="6">
+        <v>15</v>
+      </c>
+      <c r="K49" s="6">
+        <v>16</v>
+      </c>
+      <c r="L49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:12">
       <c r="C50" s="6">
         <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F50" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:6">
+      <c r="G50" s="1">
+        <v>17</v>
+      </c>
+      <c r="H50" s="1">
+        <v>18</v>
+      </c>
+      <c r="I50" s="1">
+        <v>19</v>
+      </c>
+      <c r="J50" s="1">
+        <v>20</v>
+      </c>
+      <c r="K50" s="1">
+        <v>21</v>
+      </c>
+      <c r="L50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:12">
       <c r="C51" s="6">
         <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:6">
+      <c r="G51" s="6">
+        <v>12</v>
+      </c>
+      <c r="H51" s="6">
+        <v>13</v>
+      </c>
+      <c r="I51" s="6">
+        <v>14</v>
+      </c>
+      <c r="J51" s="6">
+        <v>15</v>
+      </c>
+      <c r="K51" s="6">
+        <v>16</v>
+      </c>
+      <c r="L51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:12">
       <c r="C52" s="6">
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F52" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:6">
+      <c r="G52" s="1">
+        <v>17</v>
+      </c>
+      <c r="H52" s="1">
+        <v>18</v>
+      </c>
+      <c r="I52" s="1">
+        <v>19</v>
+      </c>
+      <c r="J52" s="1">
+        <v>20</v>
+      </c>
+      <c r="K52" s="1">
+        <v>21</v>
+      </c>
+      <c r="L52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:12">
       <c r="C53" s="6">
         <v>47</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F53" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:6">
+      <c r="G53" s="6">
+        <v>12</v>
+      </c>
+      <c r="H53" s="6">
+        <v>13</v>
+      </c>
+      <c r="I53" s="6">
+        <v>14</v>
+      </c>
+      <c r="J53" s="6">
+        <v>15</v>
+      </c>
+      <c r="K53" s="6">
+        <v>16</v>
+      </c>
+      <c r="L53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:12">
       <c r="C54" s="6">
         <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F54" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:6">
+      <c r="G54" s="1">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1">
+        <v>18</v>
+      </c>
+      <c r="I54" s="1">
+        <v>19</v>
+      </c>
+      <c r="J54" s="1">
+        <v>20</v>
+      </c>
+      <c r="K54" s="1">
+        <v>21</v>
+      </c>
+      <c r="L54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:12">
       <c r="C55" s="6">
         <v>49</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:6">
+      <c r="G55" s="6">
+        <v>12</v>
+      </c>
+      <c r="H55" s="6">
+        <v>13</v>
+      </c>
+      <c r="I55" s="6">
+        <v>14</v>
+      </c>
+      <c r="J55" s="6">
+        <v>15</v>
+      </c>
+      <c r="K55" s="6">
+        <v>16</v>
+      </c>
+      <c r="L55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:12">
       <c r="C56" s="6">
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:6">
+      <c r="G56" s="1">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1">
+        <v>18</v>
+      </c>
+      <c r="I56" s="1">
+        <v>19</v>
+      </c>
+      <c r="J56" s="1">
+        <v>20</v>
+      </c>
+      <c r="K56" s="1">
+        <v>21</v>
+      </c>
+      <c r="L56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:12">
       <c r="C57" s="6">
         <v>51</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:6">
+      <c r="G57" s="6">
+        <v>12</v>
+      </c>
+      <c r="H57" s="6">
+        <v>13</v>
+      </c>
+      <c r="I57" s="6">
+        <v>14</v>
+      </c>
+      <c r="J57" s="6">
+        <v>15</v>
+      </c>
+      <c r="K57" s="6">
+        <v>16</v>
+      </c>
+      <c r="L57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:12">
       <c r="C58" s="6">
         <v>52</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:6">
+      <c r="G58" s="1">
+        <v>17</v>
+      </c>
+      <c r="H58" s="1">
+        <v>18</v>
+      </c>
+      <c r="I58" s="1">
+        <v>19</v>
+      </c>
+      <c r="J58" s="1">
+        <v>20</v>
+      </c>
+      <c r="K58" s="1">
+        <v>21</v>
+      </c>
+      <c r="L58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:12">
       <c r="C59" s="6">
         <v>53</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:6">
+      <c r="G59" s="6">
+        <v>12</v>
+      </c>
+      <c r="H59" s="6">
+        <v>13</v>
+      </c>
+      <c r="I59" s="6">
+        <v>14</v>
+      </c>
+      <c r="J59" s="6">
+        <v>15</v>
+      </c>
+      <c r="K59" s="6">
+        <v>16</v>
+      </c>
+      <c r="L59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:12">
       <c r="C60" s="6">
         <v>54</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F60" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:6">
+      <c r="G60" s="1">
+        <v>17</v>
+      </c>
+      <c r="H60" s="1">
+        <v>18</v>
+      </c>
+      <c r="I60" s="1">
+        <v>19</v>
+      </c>
+      <c r="J60" s="1">
+        <v>20</v>
+      </c>
+      <c r="K60" s="1">
+        <v>21</v>
+      </c>
+      <c r="L60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:12">
       <c r="C61" s="6">
         <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:6">
+      <c r="G61" s="6">
+        <v>12</v>
+      </c>
+      <c r="H61" s="6">
+        <v>13</v>
+      </c>
+      <c r="I61" s="6">
+        <v>14</v>
+      </c>
+      <c r="J61" s="6">
+        <v>15</v>
+      </c>
+      <c r="K61" s="6">
+        <v>16</v>
+      </c>
+      <c r="L61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:12">
       <c r="C62" s="6">
         <v>56</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F62" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:6">
+      <c r="G62" s="1">
+        <v>17</v>
+      </c>
+      <c r="H62" s="1">
+        <v>18</v>
+      </c>
+      <c r="I62" s="1">
+        <v>19</v>
+      </c>
+      <c r="J62" s="1">
+        <v>20</v>
+      </c>
+      <c r="K62" s="1">
+        <v>21</v>
+      </c>
+      <c r="L62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:12">
       <c r="C63" s="6">
         <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F63" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:6">
+      <c r="G63" s="6">
+        <v>12</v>
+      </c>
+      <c r="H63" s="6">
+        <v>13</v>
+      </c>
+      <c r="I63" s="6">
+        <v>14</v>
+      </c>
+      <c r="J63" s="6">
+        <v>15</v>
+      </c>
+      <c r="K63" s="6">
+        <v>16</v>
+      </c>
+      <c r="L63" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:12">
       <c r="C64" s="6">
         <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>37</v>
@@ -3446,453 +4501,1080 @@
       <c r="F64" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:6">
+      <c r="G64" s="1">
+        <v>17</v>
+      </c>
+      <c r="H64" s="1">
+        <v>18</v>
+      </c>
+      <c r="I64" s="1">
+        <v>19</v>
+      </c>
+      <c r="J64" s="1">
+        <v>20</v>
+      </c>
+      <c r="K64" s="1">
+        <v>21</v>
+      </c>
+      <c r="L64" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:12">
       <c r="C65" s="6">
         <v>59</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F65" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:6">
+      <c r="G65" s="6">
+        <v>12</v>
+      </c>
+      <c r="H65" s="6">
+        <v>13</v>
+      </c>
+      <c r="I65" s="6">
+        <v>14</v>
+      </c>
+      <c r="J65" s="6">
+        <v>15</v>
+      </c>
+      <c r="K65" s="6">
+        <v>16</v>
+      </c>
+      <c r="L65" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:12">
       <c r="C66" s="6">
         <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F66" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:6">
+      <c r="G66" s="1">
+        <v>17</v>
+      </c>
+      <c r="H66" s="1">
+        <v>18</v>
+      </c>
+      <c r="I66" s="1">
+        <v>19</v>
+      </c>
+      <c r="J66" s="1">
+        <v>20</v>
+      </c>
+      <c r="K66" s="1">
+        <v>21</v>
+      </c>
+      <c r="L66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:12">
       <c r="C67" s="6">
         <v>61</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F67" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:6">
+      <c r="G67" s="6">
+        <v>12</v>
+      </c>
+      <c r="H67" s="6">
+        <v>13</v>
+      </c>
+      <c r="I67" s="6">
+        <v>14</v>
+      </c>
+      <c r="J67" s="6">
+        <v>15</v>
+      </c>
+      <c r="K67" s="6">
+        <v>16</v>
+      </c>
+      <c r="L67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:12">
       <c r="C68" s="6">
         <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="F68" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:6">
+      <c r="G68" s="1">
+        <v>17</v>
+      </c>
+      <c r="H68" s="1">
+        <v>18</v>
+      </c>
+      <c r="I68" s="1">
+        <v>19</v>
+      </c>
+      <c r="J68" s="1">
+        <v>20</v>
+      </c>
+      <c r="K68" s="1">
+        <v>21</v>
+      </c>
+      <c r="L68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:12">
       <c r="C69" s="6">
         <v>63</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:6">
+      <c r="G69" s="6">
+        <v>12</v>
+      </c>
+      <c r="H69" s="6">
+        <v>13</v>
+      </c>
+      <c r="I69" s="6">
+        <v>14</v>
+      </c>
+      <c r="J69" s="6">
+        <v>15</v>
+      </c>
+      <c r="K69" s="6">
+        <v>16</v>
+      </c>
+      <c r="L69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:12">
       <c r="C70" s="6">
         <v>64</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F70" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:6">
+      <c r="G70" s="1">
+        <v>17</v>
+      </c>
+      <c r="H70" s="1">
+        <v>18</v>
+      </c>
+      <c r="I70" s="1">
+        <v>19</v>
+      </c>
+      <c r="J70" s="1">
+        <v>20</v>
+      </c>
+      <c r="K70" s="1">
+        <v>21</v>
+      </c>
+      <c r="L70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:12">
       <c r="C71" s="6">
         <v>65</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F71" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:6">
+      <c r="G71" s="6">
+        <v>12</v>
+      </c>
+      <c r="H71" s="6">
+        <v>13</v>
+      </c>
+      <c r="I71" s="6">
+        <v>14</v>
+      </c>
+      <c r="J71" s="6">
+        <v>15</v>
+      </c>
+      <c r="K71" s="6">
+        <v>16</v>
+      </c>
+      <c r="L71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:12">
       <c r="C72" s="6">
         <v>66</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="F72" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:6">
+      <c r="G72" s="1">
+        <v>17</v>
+      </c>
+      <c r="H72" s="1">
+        <v>18</v>
+      </c>
+      <c r="I72" s="1">
+        <v>19</v>
+      </c>
+      <c r="J72" s="1">
+        <v>20</v>
+      </c>
+      <c r="K72" s="1">
+        <v>21</v>
+      </c>
+      <c r="L72" s="6" t="str">
+        <f t="shared" ref="L72:L96" si="2">G72&amp;","&amp;H72&amp;","&amp;I72&amp;","&amp;J72&amp;","&amp;K72</f>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:12">
       <c r="C73" s="6">
         <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F73" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:6">
+      <c r="G73" s="6">
+        <v>12</v>
+      </c>
+      <c r="H73" s="6">
+        <v>13</v>
+      </c>
+      <c r="I73" s="6">
+        <v>14</v>
+      </c>
+      <c r="J73" s="6">
+        <v>15</v>
+      </c>
+      <c r="K73" s="6">
+        <v>16</v>
+      </c>
+      <c r="L73" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:12">
       <c r="C74" s="6">
         <v>68</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F74" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:6">
+      <c r="G74" s="1">
+        <v>17</v>
+      </c>
+      <c r="H74" s="1">
+        <v>18</v>
+      </c>
+      <c r="I74" s="1">
+        <v>19</v>
+      </c>
+      <c r="J74" s="1">
+        <v>20</v>
+      </c>
+      <c r="K74" s="1">
+        <v>21</v>
+      </c>
+      <c r="L74" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:12">
       <c r="C75" s="6">
         <v>69</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F75" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:6">
+      <c r="G75" s="6">
+        <v>12</v>
+      </c>
+      <c r="H75" s="6">
+        <v>13</v>
+      </c>
+      <c r="I75" s="6">
+        <v>14</v>
+      </c>
+      <c r="J75" s="6">
+        <v>15</v>
+      </c>
+      <c r="K75" s="6">
+        <v>16</v>
+      </c>
+      <c r="L75" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:12">
       <c r="C76" s="6">
         <v>70</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="F76" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:6">
+      <c r="G76" s="1">
+        <v>17</v>
+      </c>
+      <c r="H76" s="1">
+        <v>18</v>
+      </c>
+      <c r="I76" s="1">
+        <v>19</v>
+      </c>
+      <c r="J76" s="1">
+        <v>20</v>
+      </c>
+      <c r="K76" s="1">
+        <v>21</v>
+      </c>
+      <c r="L76" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:12">
       <c r="C77" s="6">
         <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F77" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:6">
+      <c r="G77" s="6">
+        <v>12</v>
+      </c>
+      <c r="H77" s="6">
+        <v>13</v>
+      </c>
+      <c r="I77" s="6">
+        <v>14</v>
+      </c>
+      <c r="J77" s="6">
+        <v>15</v>
+      </c>
+      <c r="K77" s="6">
+        <v>16</v>
+      </c>
+      <c r="L77" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:12">
       <c r="C78" s="6">
         <v>72</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F78" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:6">
+      <c r="G78" s="1">
+        <v>17</v>
+      </c>
+      <c r="H78" s="1">
+        <v>18</v>
+      </c>
+      <c r="I78" s="1">
+        <v>19</v>
+      </c>
+      <c r="J78" s="1">
+        <v>20</v>
+      </c>
+      <c r="K78" s="1">
+        <v>21</v>
+      </c>
+      <c r="L78" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:12">
       <c r="C79" s="6">
         <v>73</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F79" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:6">
+      <c r="G79" s="6">
+        <v>12</v>
+      </c>
+      <c r="H79" s="6">
+        <v>13</v>
+      </c>
+      <c r="I79" s="6">
+        <v>14</v>
+      </c>
+      <c r="J79" s="6">
+        <v>15</v>
+      </c>
+      <c r="K79" s="6">
+        <v>16</v>
+      </c>
+      <c r="L79" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:12">
       <c r="C80" s="6">
         <v>74</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:6">
+      <c r="G80" s="1">
+        <v>17</v>
+      </c>
+      <c r="H80" s="1">
+        <v>18</v>
+      </c>
+      <c r="I80" s="1">
+        <v>19</v>
+      </c>
+      <c r="J80" s="1">
+        <v>20</v>
+      </c>
+      <c r="K80" s="1">
+        <v>21</v>
+      </c>
+      <c r="L80" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:12">
       <c r="C81" s="6">
         <v>75</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F81" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:6">
+      <c r="G81" s="6">
+        <v>12</v>
+      </c>
+      <c r="H81" s="6">
+        <v>13</v>
+      </c>
+      <c r="I81" s="6">
+        <v>14</v>
+      </c>
+      <c r="J81" s="6">
+        <v>15</v>
+      </c>
+      <c r="K81" s="6">
+        <v>16</v>
+      </c>
+      <c r="L81" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:12">
       <c r="C82" s="6">
         <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F82" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:6">
+      <c r="G82" s="1">
+        <v>17</v>
+      </c>
+      <c r="H82" s="1">
+        <v>18</v>
+      </c>
+      <c r="I82" s="1">
+        <v>19</v>
+      </c>
+      <c r="J82" s="1">
+        <v>20</v>
+      </c>
+      <c r="K82" s="1">
+        <v>21</v>
+      </c>
+      <c r="L82" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:12">
       <c r="C83" s="6">
         <v>77</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:6">
+      <c r="G83" s="6">
+        <v>12</v>
+      </c>
+      <c r="H83" s="6">
+        <v>13</v>
+      </c>
+      <c r="I83" s="6">
+        <v>14</v>
+      </c>
+      <c r="J83" s="6">
+        <v>15</v>
+      </c>
+      <c r="K83" s="6">
+        <v>16</v>
+      </c>
+      <c r="L83" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:12">
       <c r="C84" s="6">
         <v>78</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="F84" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:6">
+      <c r="G84" s="1">
+        <v>17</v>
+      </c>
+      <c r="H84" s="1">
+        <v>18</v>
+      </c>
+      <c r="I84" s="1">
+        <v>19</v>
+      </c>
+      <c r="J84" s="1">
+        <v>20</v>
+      </c>
+      <c r="K84" s="1">
+        <v>21</v>
+      </c>
+      <c r="L84" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:12">
       <c r="C85" s="6">
         <v>79</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F85" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" customHeight="1" spans="3:6">
+      <c r="G85" s="6">
+        <v>12</v>
+      </c>
+      <c r="H85" s="6">
+        <v>13</v>
+      </c>
+      <c r="I85" s="6">
+        <v>14</v>
+      </c>
+      <c r="J85" s="6">
+        <v>15</v>
+      </c>
+      <c r="K85" s="6">
+        <v>16</v>
+      </c>
+      <c r="L85" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:12">
       <c r="C86" s="6">
         <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F86" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" customHeight="1" spans="3:6">
+      <c r="G86" s="1">
+        <v>17</v>
+      </c>
+      <c r="H86" s="1">
+        <v>18</v>
+      </c>
+      <c r="I86" s="1">
+        <v>19</v>
+      </c>
+      <c r="J86" s="1">
+        <v>20</v>
+      </c>
+      <c r="K86" s="1">
+        <v>21</v>
+      </c>
+      <c r="L86" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:12">
       <c r="C87" s="6">
         <v>81</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F87" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" customHeight="1" spans="3:6">
+      <c r="G87" s="6">
+        <v>12</v>
+      </c>
+      <c r="H87" s="6">
+        <v>13</v>
+      </c>
+      <c r="I87" s="6">
+        <v>14</v>
+      </c>
+      <c r="J87" s="6">
+        <v>15</v>
+      </c>
+      <c r="K87" s="6">
+        <v>16</v>
+      </c>
+      <c r="L87" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:12">
       <c r="C88" s="6">
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F88" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" customHeight="1" spans="3:6">
+      <c r="G88" s="1">
+        <v>17</v>
+      </c>
+      <c r="H88" s="1">
+        <v>18</v>
+      </c>
+      <c r="I88" s="1">
+        <v>19</v>
+      </c>
+      <c r="J88" s="1">
+        <v>20</v>
+      </c>
+      <c r="K88" s="1">
+        <v>21</v>
+      </c>
+      <c r="L88" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:12">
       <c r="C89" s="6">
         <v>83</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="F89" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" customHeight="1" spans="3:6">
+      <c r="G89" s="6">
+        <v>12</v>
+      </c>
+      <c r="H89" s="6">
+        <v>13</v>
+      </c>
+      <c r="I89" s="6">
+        <v>14</v>
+      </c>
+      <c r="J89" s="6">
+        <v>15</v>
+      </c>
+      <c r="K89" s="6">
+        <v>16</v>
+      </c>
+      <c r="L89" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:12">
       <c r="C90" s="6">
         <v>84</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="F90" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" customHeight="1" spans="3:6">
+      <c r="G90" s="1">
+        <v>17</v>
+      </c>
+      <c r="H90" s="1">
+        <v>18</v>
+      </c>
+      <c r="I90" s="1">
+        <v>19</v>
+      </c>
+      <c r="J90" s="1">
+        <v>20</v>
+      </c>
+      <c r="K90" s="1">
+        <v>21</v>
+      </c>
+      <c r="L90" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:12">
       <c r="C91" s="6">
         <v>85</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F91" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" customHeight="1" spans="3:6">
+      <c r="G91" s="6">
+        <v>12</v>
+      </c>
+      <c r="H91" s="6">
+        <v>13</v>
+      </c>
+      <c r="I91" s="6">
+        <v>14</v>
+      </c>
+      <c r="J91" s="6">
+        <v>15</v>
+      </c>
+      <c r="K91" s="6">
+        <v>16</v>
+      </c>
+      <c r="L91" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:12">
       <c r="C92" s="6">
         <v>86</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F92" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" customHeight="1" spans="3:6">
+      <c r="G92" s="1">
+        <v>17</v>
+      </c>
+      <c r="H92" s="1">
+        <v>18</v>
+      </c>
+      <c r="I92" s="1">
+        <v>19</v>
+      </c>
+      <c r="J92" s="1">
+        <v>20</v>
+      </c>
+      <c r="K92" s="1">
+        <v>21</v>
+      </c>
+      <c r="L92" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:12">
       <c r="C93" s="6">
         <v>87</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="F93" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" customHeight="1" spans="3:6">
+      <c r="G93" s="6">
+        <v>12</v>
+      </c>
+      <c r="H93" s="6">
+        <v>13</v>
+      </c>
+      <c r="I93" s="6">
+        <v>14</v>
+      </c>
+      <c r="J93" s="6">
+        <v>15</v>
+      </c>
+      <c r="K93" s="6">
+        <v>16</v>
+      </c>
+      <c r="L93" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:12">
       <c r="C94" s="6">
         <v>88</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="F94" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" customHeight="1" spans="3:6">
+      <c r="G94" s="1">
+        <v>17</v>
+      </c>
+      <c r="H94" s="1">
+        <v>18</v>
+      </c>
+      <c r="I94" s="1">
+        <v>19</v>
+      </c>
+      <c r="J94" s="1">
+        <v>20</v>
+      </c>
+      <c r="K94" s="1">
+        <v>21</v>
+      </c>
+      <c r="L94" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:12">
       <c r="C95" s="6">
         <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F95" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:6">
+      <c r="G95" s="6">
+        <v>12</v>
+      </c>
+      <c r="H95" s="6">
+        <v>13</v>
+      </c>
+      <c r="I95" s="6">
+        <v>14</v>
+      </c>
+      <c r="J95" s="6">
+        <v>15</v>
+      </c>
+      <c r="K95" s="6">
+        <v>16</v>
+      </c>
+      <c r="L95" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>12,13,14,15,16</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:12">
       <c r="C96" s="6">
         <v>90</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="F96" s="1">
         <v>3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1">
+        <v>18</v>
+      </c>
+      <c r="I96" s="1">
+        <v>19</v>
+      </c>
+      <c r="J96" s="1">
+        <v>20</v>
+      </c>
+      <c r="K96" s="1">
+        <v>21</v>
+      </c>
+      <c r="L96" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="5:5">

--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,8 +22,7 @@
     <t>装备id</t>
   </si>
   <si>
-    <t>对应att表id，填固定值。
-成长率填在AttRatio表里</t>
+    <t>对应att表id</t>
   </si>
   <si>
     <t>0: 武器 @@ -34,9 +33,6 @@
 3: 饰品</t>
   </si>
   <si>
-    <t>对应att表id</t>
-  </si>
-  <si>
     <t>此列由前5列自动生成，不用填写</t>
   </si>
   <si>
@@ -70,7 +66,7 @@
     <t>物品描述</t>
   </si>
   <si>
-    <t>升级属性id</t>
+    <t>基础属性id</t>
   </si>
   <si>
     <t>装备位置</t>
@@ -91,6 +87,9 @@
     <t>突破5属性id</t>
   </si>
   <si>
+    <t>装备突破属性</t>
+  </si>
+  <si>
     <t>突破1被动技能id</t>
   </si>
   <si>
@@ -106,7 +105,13 @@
     <t>突破5被动技能id</t>
   </si>
   <si>
+    <t>装备突破被动技能</t>
+  </si>
+  <si>
     <t>突破1消耗id</t>
+  </si>
+  <si>
+    <t>装备突破消耗</t>
   </si>
   <si>
     <t>字段控制</t>
@@ -417,10 +422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -443,37 +448,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,13 +456,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,7 +470,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,14 +522,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -532,31 +529,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,15 +546,37 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,6 +587,14 @@
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -620,19 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +643,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,121 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +709,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,7 +745,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,28 +834,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +869,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -889,16 +888,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,159 +917,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,11 +1084,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1093,54 +1098,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2288,30 +2293,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:X101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7:L96"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
     <col min="2" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54166666666667" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.925" style="1" customWidth="1"/>
-    <col min="13" max="17" width="15.3833333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.15" style="1" customWidth="1"/>
-    <col min="19" max="23" width="11.4583333333333" style="1" customWidth="1"/>
-    <col min="24" max="24" width="24.15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.53846153846154" style="1" customWidth="1"/>
+    <col min="7" max="12" width="12.9230769230769" style="1" customWidth="1"/>
+    <col min="13" max="17" width="15.3846153846154" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1538461538462" style="1" customWidth="1"/>
+    <col min="19" max="23" width="11.4615384615385" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.1538461538462" style="1" customWidth="1"/>
     <col min="25" max="16369" width="19.25" style="1" customWidth="1"/>
     <col min="16370" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:24">
+    <row r="1" ht="16.8" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2339,318 +2344,318 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" ht="57" spans="1:24">
+    <row r="2" ht="68" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
       <c r="X2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:24">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:24">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>17</v>
+      <c r="S4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:24">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:24">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:24">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>12</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>13</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>14</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>15</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>16</v>
       </c>
-      <c r="L7" s="6" t="str">
+      <c r="L7" s="5" t="str">
         <f>G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
         <v>12,13,14,15,16</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>1100011</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <v>1100012</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>-1</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>-1</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <v>-1</v>
       </c>
-      <c r="R7" s="6" t="str">
+      <c r="R7" s="5" t="str">
         <f>M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7&amp;","&amp;Q7</f>
         <v>1100011,1100012,-1,-1,-1</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>1</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>2</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>-1</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>-1</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>-1</v>
       </c>
-      <c r="X7" s="6" t="str">
+      <c r="X7" s="5" t="str">
         <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
         <v>1,2,-1,-1,-1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:12">
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="6">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="1">
@@ -2668,55 +2673,55 @@
       <c r="K8" s="1">
         <v>21</v>
       </c>
-      <c r="L8" s="6" t="str">
+      <c r="L8" s="5" t="str">
         <f t="shared" ref="L8:L39" si="0">G8&amp;","&amp;H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8</f>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>12</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>13</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>14</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>15</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>16</v>
       </c>
-      <c r="L9" s="6" t="str">
+      <c r="L9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:12">
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="6">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5">
         <v>0</v>
       </c>
       <c r="G10" s="1">
@@ -2734,55 +2739,55 @@
       <c r="K10" s="1">
         <v>21</v>
       </c>
-      <c r="L10" s="6" t="str">
+      <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:12">
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
+        <v>39</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>12</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>13</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>14</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>15</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>16</v>
       </c>
-      <c r="L11" s="6" t="str">
+      <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:12">
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="6">
+        <v>39</v>
+      </c>
+      <c r="F12" s="5">
         <v>0</v>
       </c>
       <c r="G12" s="1">
@@ -2800,55 +2805,55 @@
       <c r="K12" s="1">
         <v>21</v>
       </c>
-      <c r="L12" s="6" t="str">
+      <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:12">
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>12</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>13</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>14</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>15</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>16</v>
       </c>
-      <c r="L13" s="6" t="str">
+      <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:12">
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="6">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5">
         <v>0</v>
       </c>
       <c r="G14" s="1">
@@ -2866,55 +2871,55 @@
       <c r="K14" s="1">
         <v>21</v>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="L14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:12">
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>12</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>13</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>14</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>15</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>16</v>
       </c>
-      <c r="L15" s="6" t="str">
+      <c r="L15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:12">
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="6">
+        <v>39</v>
+      </c>
+      <c r="F16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="1">
@@ -2932,55 +2937,55 @@
       <c r="K16" s="1">
         <v>21</v>
       </c>
-      <c r="L16" s="6" t="str">
+      <c r="L16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:12">
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <v>12</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>13</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>14</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>15</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>16</v>
       </c>
-      <c r="L17" s="6" t="str">
+      <c r="L17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:12">
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="6">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="1">
@@ -2998,55 +3003,55 @@
       <c r="K18" s="1">
         <v>21</v>
       </c>
-      <c r="L18" s="6" t="str">
+      <c r="L18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:12">
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
         <v>12</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>13</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>14</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>15</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>16</v>
       </c>
-      <c r="L19" s="6" t="str">
+      <c r="L19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:12">
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="6">
+        <v>39</v>
+      </c>
+      <c r="F20" s="5">
         <v>0</v>
       </c>
       <c r="G20" s="1">
@@ -3064,55 +3069,55 @@
       <c r="K20" s="1">
         <v>21</v>
       </c>
-      <c r="L20" s="6" t="str">
+      <c r="L20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:12">
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
+        <v>39</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <v>12</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>13</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>14</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>15</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>16</v>
       </c>
-      <c r="L21" s="6" t="str">
+      <c r="L21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:12">
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="6">
+        <v>39</v>
+      </c>
+      <c r="F22" s="5">
         <v>0</v>
       </c>
       <c r="G22" s="1">
@@ -3130,55 +3135,55 @@
       <c r="K22" s="1">
         <v>21</v>
       </c>
-      <c r="L22" s="6" t="str">
+      <c r="L22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:12">
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
+        <v>39</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <v>12</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>13</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>14</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>15</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>16</v>
       </c>
-      <c r="L23" s="6" t="str">
+      <c r="L23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:12">
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="6">
+        <v>39</v>
+      </c>
+      <c r="F24" s="5">
         <v>0</v>
       </c>
       <c r="G24" s="1">
@@ -3196,55 +3201,55 @@
       <c r="K24" s="1">
         <v>21</v>
       </c>
-      <c r="L24" s="6" t="str">
+      <c r="L24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:12">
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
+        <v>39</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <v>12</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>13</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>14</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>15</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>16</v>
       </c>
-      <c r="L25" s="6" t="str">
+      <c r="L25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:12">
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="6">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5">
         <v>0</v>
       </c>
       <c r="G26" s="1">
@@ -3262,55 +3267,55 @@
       <c r="K26" s="1">
         <v>21</v>
       </c>
-      <c r="L26" s="6" t="str">
+      <c r="L26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:12">
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
+        <v>39</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
         <v>12</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>13</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>14</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>15</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>16</v>
       </c>
-      <c r="L27" s="6" t="str">
+      <c r="L27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:12">
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="6">
+        <v>39</v>
+      </c>
+      <c r="F28" s="5">
         <v>0</v>
       </c>
       <c r="G28" s="1">
@@ -3328,55 +3333,55 @@
       <c r="K28" s="1">
         <v>21</v>
       </c>
-      <c r="L28" s="6" t="str">
+      <c r="L28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:12">
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
+        <v>39</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <v>12</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>13</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>14</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>15</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>16</v>
       </c>
-      <c r="L29" s="6" t="str">
+      <c r="L29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:12">
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="6">
+        <v>39</v>
+      </c>
+      <c r="F30" s="5">
         <v>0</v>
       </c>
       <c r="G30" s="1">
@@ -3394,55 +3399,55 @@
       <c r="K30" s="1">
         <v>21</v>
       </c>
-      <c r="L30" s="6" t="str">
+      <c r="L30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:12">
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
+        <v>39</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
         <v>12</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>13</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>14</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>15</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>16</v>
       </c>
-      <c r="L31" s="6" t="str">
+      <c r="L31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:12">
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="6">
+        <v>39</v>
+      </c>
+      <c r="F32" s="5">
         <v>0</v>
       </c>
       <c r="G32" s="1">
@@ -3460,55 +3465,55 @@
       <c r="K32" s="1">
         <v>21</v>
       </c>
-      <c r="L32" s="6" t="str">
+      <c r="L32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:12">
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
+        <v>39</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
         <v>12</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>13</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>14</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>15</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>16</v>
       </c>
-      <c r="L33" s="6" t="str">
+      <c r="L33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:12">
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="6">
+        <v>39</v>
+      </c>
+      <c r="F34" s="5">
         <v>0</v>
       </c>
       <c r="G34" s="1">
@@ -3526,55 +3531,55 @@
       <c r="K34" s="1">
         <v>21</v>
       </c>
-      <c r="L34" s="6" t="str">
+      <c r="L34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:12">
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
+        <v>39</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
         <v>12</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="5">
         <v>13</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>14</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>15</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>16</v>
       </c>
-      <c r="L35" s="6" t="str">
+      <c r="L35" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:12">
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="6">
+        <v>39</v>
+      </c>
+      <c r="F36" s="5">
         <v>0</v>
       </c>
       <c r="G36" s="1">
@@ -3592,55 +3597,55 @@
       <c r="K36" s="1">
         <v>21</v>
       </c>
-      <c r="L36" s="6" t="str">
+      <c r="L36" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:12">
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
+        <v>39</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
         <v>12</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="5">
         <v>13</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>14</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <v>15</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>16</v>
       </c>
-      <c r="L37" s="6" t="str">
+      <c r="L37" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:12">
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="6">
+        <v>39</v>
+      </c>
+      <c r="F38" s="5">
         <v>0</v>
       </c>
       <c r="G38" s="1">
@@ -3658,55 +3663,55 @@
       <c r="K38" s="1">
         <v>21</v>
       </c>
-      <c r="L38" s="6" t="str">
+      <c r="L38" s="5" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:12">
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
+        <v>39</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
         <v>12</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="5">
         <v>13</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>14</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <v>15</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>16</v>
       </c>
-      <c r="L39" s="6" t="str">
+      <c r="L39" s="5" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:12">
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="6">
+        <v>39</v>
+      </c>
+      <c r="F40" s="5">
         <v>0</v>
       </c>
       <c r="G40" s="1">
@@ -3724,55 +3729,55 @@
       <c r="K40" s="1">
         <v>21</v>
       </c>
-      <c r="L40" s="6" t="str">
+      <c r="L40" s="5" t="str">
         <f t="shared" ref="L40:L71" si="1">G40&amp;","&amp;H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40</f>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:12">
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
+        <v>39</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
         <v>12</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="5">
         <v>13</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>14</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <v>15</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>16</v>
       </c>
-      <c r="L41" s="6" t="str">
+      <c r="L41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:12">
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="6">
+        <v>39</v>
+      </c>
+      <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="1">
@@ -3790,55 +3795,55 @@
       <c r="K42" s="1">
         <v>21</v>
       </c>
-      <c r="L42" s="6" t="str">
+      <c r="L42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:12">
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
+        <v>39</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
         <v>12</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="5">
         <v>13</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="5">
         <v>14</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <v>15</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>16</v>
       </c>
-      <c r="L43" s="6" t="str">
+      <c r="L43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:12">
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="6">
+        <v>39</v>
+      </c>
+      <c r="F44" s="5">
         <v>0</v>
       </c>
       <c r="G44" s="1">
@@ -3856,55 +3861,55 @@
       <c r="K44" s="1">
         <v>21</v>
       </c>
-      <c r="L44" s="6" t="str">
+      <c r="L44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:12">
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
+        <v>39</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
         <v>12</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="5">
         <v>13</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="5">
         <v>14</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <v>15</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>16</v>
       </c>
-      <c r="L45" s="6" t="str">
+      <c r="L45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:12">
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" s="6">
+        <v>39</v>
+      </c>
+      <c r="F46" s="5">
         <v>0</v>
       </c>
       <c r="G46" s="1">
@@ -3922,55 +3927,55 @@
       <c r="K46" s="1">
         <v>21</v>
       </c>
-      <c r="L46" s="6" t="str">
+      <c r="L46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:12">
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
+        <v>39</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
         <v>12</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>13</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>14</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <v>15</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>16</v>
       </c>
-      <c r="L47" s="6" t="str">
+      <c r="L47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:12">
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="6">
+        <v>39</v>
+      </c>
+      <c r="F48" s="5">
         <v>0</v>
       </c>
       <c r="G48" s="1">
@@ -3988,55 +3993,55 @@
       <c r="K48" s="1">
         <v>21</v>
       </c>
-      <c r="L48" s="6" t="str">
+      <c r="L48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:12">
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6">
+        <v>39</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
         <v>12</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>13</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>14</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <v>15</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>16</v>
       </c>
-      <c r="L49" s="6" t="str">
+      <c r="L49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:12">
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="6">
+        <v>39</v>
+      </c>
+      <c r="F50" s="5">
         <v>0</v>
       </c>
       <c r="G50" s="1">
@@ -4054,55 +4059,55 @@
       <c r="K50" s="1">
         <v>21</v>
       </c>
-      <c r="L50" s="6" t="str">
+      <c r="L50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:12">
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="6">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
+        <v>39</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
         <v>12</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>13</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>14</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <v>15</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>16</v>
       </c>
-      <c r="L51" s="6" t="str">
+      <c r="L51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:12">
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="6">
+        <v>39</v>
+      </c>
+      <c r="F52" s="5">
         <v>0</v>
       </c>
       <c r="G52" s="1">
@@ -4120,55 +4125,55 @@
       <c r="K52" s="1">
         <v>21</v>
       </c>
-      <c r="L52" s="6" t="str">
+      <c r="L52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:12">
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>47</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="6">
-        <v>0</v>
-      </c>
-      <c r="G53" s="6">
+        <v>39</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
         <v>12</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>13</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>14</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <v>15</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>16</v>
       </c>
-      <c r="L53" s="6" t="str">
+      <c r="L53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:12">
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F54" s="6">
+        <v>39</v>
+      </c>
+      <c r="F54" s="5">
         <v>0</v>
       </c>
       <c r="G54" s="1">
@@ -4186,55 +4191,55 @@
       <c r="K54" s="1">
         <v>21</v>
       </c>
-      <c r="L54" s="6" t="str">
+      <c r="L54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:12">
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>49</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0</v>
-      </c>
-      <c r="G55" s="6">
+        <v>39</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
         <v>12</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>13</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>14</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <v>15</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>16</v>
       </c>
-      <c r="L55" s="6" t="str">
+      <c r="L55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:12">
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="6">
+        <v>39</v>
+      </c>
+      <c r="F56" s="5">
         <v>0</v>
       </c>
       <c r="G56" s="1">
@@ -4252,55 +4257,55 @@
       <c r="K56" s="1">
         <v>21</v>
       </c>
-      <c r="L56" s="6" t="str">
+      <c r="L56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:12">
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>51</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0</v>
-      </c>
-      <c r="G57" s="6">
+        <v>39</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
         <v>12</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>13</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="5">
         <v>14</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="5">
         <v>15</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>16</v>
       </c>
-      <c r="L57" s="6" t="str">
+      <c r="L57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:12">
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>52</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F58" s="6">
+        <v>39</v>
+      </c>
+      <c r="F58" s="5">
         <v>0</v>
       </c>
       <c r="G58" s="1">
@@ -4318,55 +4323,55 @@
       <c r="K58" s="1">
         <v>21</v>
       </c>
-      <c r="L58" s="6" t="str">
+      <c r="L58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:12">
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>53</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F59" s="6">
-        <v>0</v>
-      </c>
-      <c r="G59" s="6">
+        <v>39</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
         <v>12</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>13</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="5">
         <v>14</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="5">
         <v>15</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>16</v>
       </c>
-      <c r="L59" s="6" t="str">
+      <c r="L59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:12">
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>54</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="6">
+        <v>39</v>
+      </c>
+      <c r="F60" s="5">
         <v>0</v>
       </c>
       <c r="G60" s="1">
@@ -4384,55 +4389,55 @@
       <c r="K60" s="1">
         <v>21</v>
       </c>
-      <c r="L60" s="6" t="str">
+      <c r="L60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:12">
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="6">
-        <v>0</v>
-      </c>
-      <c r="G61" s="6">
+        <v>39</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
         <v>12</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>13</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>14</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <v>15</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>16</v>
       </c>
-      <c r="L61" s="6" t="str">
+      <c r="L61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:12">
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>56</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62" s="6">
+        <v>39</v>
+      </c>
+      <c r="F62" s="5">
         <v>0</v>
       </c>
       <c r="G62" s="1">
@@ -4450,55 +4455,55 @@
       <c r="K62" s="1">
         <v>21</v>
       </c>
-      <c r="L62" s="6" t="str">
+      <c r="L62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:12">
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="6">
-        <v>0</v>
-      </c>
-      <c r="G63" s="6">
+        <v>39</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
         <v>12</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>13</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>14</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="5">
         <v>15</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>16</v>
       </c>
-      <c r="L63" s="6" t="str">
+      <c r="L63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:12">
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="6">
+        <v>39</v>
+      </c>
+      <c r="F64" s="5">
         <v>0</v>
       </c>
       <c r="G64" s="1">
@@ -4516,55 +4521,55 @@
       <c r="K64" s="1">
         <v>21</v>
       </c>
-      <c r="L64" s="6" t="str">
+      <c r="L64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:12">
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>59</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="6">
-        <v>0</v>
-      </c>
-      <c r="G65" s="6">
+        <v>39</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
         <v>12</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="5">
         <v>13</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="5">
         <v>14</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="5">
         <v>15</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
         <v>16</v>
       </c>
-      <c r="L65" s="6" t="str">
+      <c r="L65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:12">
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="6">
+        <v>39</v>
+      </c>
+      <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66" s="1">
@@ -4582,55 +4587,55 @@
       <c r="K66" s="1">
         <v>21</v>
       </c>
-      <c r="L66" s="6" t="str">
+      <c r="L66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:12">
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>61</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="6">
+        <v>100</v>
+      </c>
+      <c r="F67" s="5">
         <v>1</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <v>12</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="5">
         <v>13</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="5">
         <v>14</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="5">
         <v>15</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <v>16</v>
       </c>
-      <c r="L67" s="6" t="str">
+      <c r="L67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="3:12">
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="6">
+        <v>100</v>
+      </c>
+      <c r="F68" s="5">
         <v>1</v>
       </c>
       <c r="G68" s="1">
@@ -4648,55 +4653,55 @@
       <c r="K68" s="1">
         <v>21</v>
       </c>
-      <c r="L68" s="6" t="str">
+      <c r="L68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:12">
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>63</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" s="6">
+      <c r="F69" s="5">
         <v>1</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="5">
         <v>12</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="5">
         <v>13</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="5">
         <v>14</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="5">
         <v>15</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <v>16</v>
       </c>
-      <c r="L69" s="6" t="str">
+      <c r="L69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:12">
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>64</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F70" s="6">
+        <v>100</v>
+      </c>
+      <c r="F70" s="5">
         <v>1</v>
       </c>
       <c r="G70" s="1">
@@ -4714,55 +4719,55 @@
       <c r="K70" s="1">
         <v>21</v>
       </c>
-      <c r="L70" s="6" t="str">
+      <c r="L70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:12">
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>65</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="6">
+        <v>100</v>
+      </c>
+      <c r="F71" s="5">
         <v>1</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="5">
         <v>12</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="5">
         <v>13</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="5">
         <v>14</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="5">
         <v>15</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <v>16</v>
       </c>
-      <c r="L71" s="6" t="str">
+      <c r="L71" s="5" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="3:12">
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>66</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" s="6">
+        <v>100</v>
+      </c>
+      <c r="F72" s="5">
         <v>1</v>
       </c>
       <c r="G72" s="1">
@@ -4780,55 +4785,55 @@
       <c r="K72" s="1">
         <v>21</v>
       </c>
-      <c r="L72" s="6" t="str">
+      <c r="L72" s="5" t="str">
         <f t="shared" ref="L72:L96" si="2">G72&amp;","&amp;H72&amp;","&amp;I72&amp;","&amp;J72&amp;","&amp;K72</f>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:12">
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="6">
+        <v>100</v>
+      </c>
+      <c r="F73" s="5">
         <v>1</v>
       </c>
-      <c r="G73" s="6">
+      <c r="G73" s="5">
         <v>12</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73" s="5">
         <v>13</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="5">
         <v>14</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="5">
         <v>15</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="5">
         <v>16</v>
       </c>
-      <c r="L73" s="6" t="str">
+      <c r="L73" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:12">
-      <c r="C74" s="6">
+      <c r="C74" s="5">
         <v>68</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F74" s="6">
+        <v>100</v>
+      </c>
+      <c r="F74" s="5">
         <v>1</v>
       </c>
       <c r="G74" s="1">
@@ -4846,55 +4851,55 @@
       <c r="K74" s="1">
         <v>21</v>
       </c>
-      <c r="L74" s="6" t="str">
+      <c r="L74" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="3:12">
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <v>69</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75" s="6">
+        <v>100</v>
+      </c>
+      <c r="F75" s="5">
         <v>1</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <v>12</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75" s="5">
         <v>13</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="5">
         <v>14</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="5">
         <v>15</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="5">
         <v>16</v>
       </c>
-      <c r="L75" s="6" t="str">
+      <c r="L75" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:12">
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <v>70</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" s="6">
+        <v>100</v>
+      </c>
+      <c r="F76" s="5">
         <v>1</v>
       </c>
       <c r="G76" s="1">
@@ -4912,53 +4917,53 @@
       <c r="K76" s="1">
         <v>21</v>
       </c>
-      <c r="L76" s="6" t="str">
+      <c r="L76" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:12">
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F77" s="1">
         <v>2</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G77" s="5">
         <v>12</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="5">
         <v>13</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="5">
         <v>14</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="5">
         <v>15</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="5">
         <v>16</v>
       </c>
-      <c r="L77" s="6" t="str">
+      <c r="L77" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:12">
-      <c r="C78" s="6">
+      <c r="C78" s="5">
         <v>72</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F78" s="1">
         <v>2</v>
@@ -4978,53 +4983,53 @@
       <c r="K78" s="1">
         <v>21</v>
       </c>
-      <c r="L78" s="6" t="str">
+      <c r="L78" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:12">
-      <c r="C79" s="6">
+      <c r="C79" s="5">
         <v>73</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="F79" s="1">
         <v>2</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="5">
         <v>12</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="5">
         <v>13</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="5">
         <v>14</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="5">
         <v>15</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>16</v>
       </c>
-      <c r="L79" s="6" t="str">
+      <c r="L79" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:12">
-      <c r="C80" s="6">
+      <c r="C80" s="5">
         <v>74</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
@@ -5044,53 +5049,53 @@
       <c r="K80" s="1">
         <v>21</v>
       </c>
-      <c r="L80" s="6" t="str">
+      <c r="L80" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:12">
-      <c r="C81" s="6">
+      <c r="C81" s="5">
         <v>75</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F81" s="1">
         <v>2</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G81" s="5">
         <v>12</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81" s="5">
         <v>13</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="5">
         <v>14</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="5">
         <v>15</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="5">
         <v>16</v>
       </c>
-      <c r="L81" s="6" t="str">
+      <c r="L81" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:12">
-      <c r="C82" s="6">
+      <c r="C82" s="5">
         <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F82" s="1">
         <v>2</v>
@@ -5110,53 +5115,53 @@
       <c r="K82" s="1">
         <v>21</v>
       </c>
-      <c r="L82" s="6" t="str">
+      <c r="L82" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:12">
-      <c r="C83" s="6">
+      <c r="C83" s="5">
         <v>77</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G83" s="5">
         <v>12</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H83" s="5">
         <v>13</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="5">
         <v>14</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="5">
         <v>15</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="5">
         <v>16</v>
       </c>
-      <c r="L83" s="6" t="str">
+      <c r="L83" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:12">
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <v>78</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F84" s="1">
         <v>2</v>
@@ -5176,53 +5181,53 @@
       <c r="K84" s="1">
         <v>21</v>
       </c>
-      <c r="L84" s="6" t="str">
+      <c r="L84" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:12">
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <v>79</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F85" s="1">
         <v>2</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="5">
         <v>12</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="5">
         <v>13</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="5">
         <v>14</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="5">
         <v>15</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="5">
         <v>16</v>
       </c>
-      <c r="L85" s="6" t="str">
+      <c r="L85" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:12">
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F86" s="1">
         <v>2</v>
@@ -5242,53 +5247,53 @@
       <c r="K86" s="1">
         <v>21</v>
       </c>
-      <c r="L86" s="6" t="str">
+      <c r="L86" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:12">
-      <c r="C87" s="6">
+      <c r="C87" s="5">
         <v>81</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F87" s="1">
         <v>3</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G87" s="5">
         <v>12</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87" s="5">
         <v>13</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="5">
         <v>14</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="5">
         <v>15</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="5">
         <v>16</v>
       </c>
-      <c r="L87" s="6" t="str">
+      <c r="L87" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:12">
-      <c r="C88" s="6">
+      <c r="C88" s="5">
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F88" s="1">
         <v>3</v>
@@ -5308,53 +5313,53 @@
       <c r="K88" s="1">
         <v>21</v>
       </c>
-      <c r="L88" s="6" t="str">
+      <c r="L88" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:12">
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <v>83</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F89" s="1">
         <v>3</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G89" s="5">
         <v>12</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H89" s="5">
         <v>13</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I89" s="5">
         <v>14</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="5">
         <v>15</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K89" s="5">
         <v>16</v>
       </c>
-      <c r="L89" s="6" t="str">
+      <c r="L89" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:12">
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <v>84</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F90" s="1">
         <v>3</v>
@@ -5374,53 +5379,53 @@
       <c r="K90" s="1">
         <v>21</v>
       </c>
-      <c r="L90" s="6" t="str">
+      <c r="L90" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:12">
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <v>85</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F91" s="1">
         <v>3</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
         <v>12</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="5">
         <v>13</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="5">
         <v>14</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="5">
         <v>15</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="5">
         <v>16</v>
       </c>
-      <c r="L91" s="6" t="str">
+      <c r="L91" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:12">
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <v>86</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F92" s="1">
         <v>3</v>
@@ -5440,53 +5445,53 @@
       <c r="K92" s="1">
         <v>21</v>
       </c>
-      <c r="L92" s="6" t="str">
+      <c r="L92" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="3:12">
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <v>87</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F93" s="1">
         <v>3</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G93" s="5">
         <v>12</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H93" s="5">
         <v>13</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I93" s="5">
         <v>14</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="5">
         <v>15</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="5">
         <v>16</v>
       </c>
-      <c r="L93" s="6" t="str">
+      <c r="L93" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="3:12">
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <v>88</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F94" s="1">
         <v>3</v>
@@ -5506,53 +5511,53 @@
       <c r="K94" s="1">
         <v>21</v>
       </c>
-      <c r="L94" s="6" t="str">
+      <c r="L94" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="3:12">
-      <c r="C95" s="6">
+      <c r="C95" s="5">
         <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F95" s="1">
         <v>3</v>
       </c>
-      <c r="G95" s="6">
+      <c r="G95" s="5">
         <v>12</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="5">
         <v>13</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="5">
         <v>14</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="5">
         <v>15</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="5">
         <v>16</v>
       </c>
-      <c r="L95" s="6" t="str">
+      <c r="L95" s="5" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:12">
-      <c r="C96" s="6">
+      <c r="C96" s="5">
         <v>90</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F96" s="1">
         <v>3</v>
@@ -5572,7 +5577,7 @@
       <c r="K96" s="1">
         <v>21</v>
       </c>
-      <c r="L96" s="6" t="str">
+      <c r="L96" s="5" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>

--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -423,9 +423,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -447,8 +447,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,9 +508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,13 +517,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,23 +530,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,22 +561,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -555,7 +571,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,29 +595,6 @@
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -625,19 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,25 +643,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,19 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,43 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,31 +745,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,19 +781,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,17 +837,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,41 +854,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,151 +887,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,11 +1084,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1098,54 +1098,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2293,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X101"/>
   <sheetViews>
@@ -2303,20 +2303,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.8461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
     <col min="2" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.53846153846154" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.9230769230769" style="1" customWidth="1"/>
-    <col min="13" max="17" width="15.3846153846154" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.1538461538462" style="1" customWidth="1"/>
-    <col min="19" max="23" width="11.4615384615385" style="1" customWidth="1"/>
-    <col min="24" max="24" width="24.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54166666666667" style="1" customWidth="1"/>
+    <col min="7" max="12" width="12.925" style="1" customWidth="1"/>
+    <col min="13" max="17" width="15.3833333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.15" style="1" customWidth="1"/>
+    <col min="19" max="23" width="11.4583333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.15" style="1" customWidth="1"/>
     <col min="25" max="16369" width="19.25" style="1" customWidth="1"/>
     <col min="16370" max="16384" width="19.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.8" spans="1:24">
+    <row r="1" ht="13.5" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2344,42 +2344,42 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" ht="68" spans="1:24">
+    <row r="2" ht="57" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
       <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
       <c r="X2" s="8" t="s">
         <v>4</v>
       </c>
@@ -2389,40 +2389,40 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2431,70 +2431,70 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2503,70 +2503,70 @@
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" ht="16.15" customHeight="1" spans="1:24">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4" t="s">
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2584,69 +2584,69 @@
       <c r="E7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>12</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>13</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>14</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>15</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>16</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L7" s="6" t="str">
         <f>G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
         <v>12,13,14,15,16</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>1100011</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="6">
         <v>1100012</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>-1</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>-1</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>-1</v>
       </c>
-      <c r="R7" s="5" t="str">
+      <c r="R7" s="6" t="str">
         <f>M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7&amp;","&amp;Q7</f>
         <v>1100011,1100012,-1,-1,-1</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>1</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>2</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="6">
         <v>-1</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="6">
         <v>-1</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="6">
         <v>-1</v>
       </c>
-      <c r="X7" s="5" t="str">
+      <c r="X7" s="6" t="str">
         <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
         <v>1,2,-1,-1,-1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:12">
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2655,7 +2655,7 @@
       <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8" s="1">
@@ -2673,13 +2673,13 @@
       <c r="K8" s="1">
         <v>21</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" s="6" t="str">
         <f t="shared" ref="L8:L39" si="0">G8&amp;","&amp;H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8</f>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:12">
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -2688,31 +2688,31 @@
       <c r="E9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>12</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>13</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>14</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>15</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>16</v>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="L9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:12">
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2721,7 +2721,7 @@
       <c r="E10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>0</v>
       </c>
       <c r="G10" s="1">
@@ -2739,13 +2739,13 @@
       <c r="K10" s="1">
         <v>21</v>
       </c>
-      <c r="L10" s="5" t="str">
+      <c r="L10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:12">
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2754,31 +2754,31 @@
       <c r="E11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
         <v>12</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>13</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>14</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>15</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>16</v>
       </c>
-      <c r="L11" s="5" t="str">
+      <c r="L11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:12">
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2787,7 +2787,7 @@
       <c r="E12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>0</v>
       </c>
       <c r="G12" s="1">
@@ -2805,13 +2805,13 @@
       <c r="K12" s="1">
         <v>21</v>
       </c>
-      <c r="L12" s="5" t="str">
+      <c r="L12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:12">
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2820,31 +2820,31 @@
       <c r="E13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>13</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>14</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>15</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>16</v>
       </c>
-      <c r="L13" s="5" t="str">
+      <c r="L13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="3:12">
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2853,7 +2853,7 @@
       <c r="E14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="1">
@@ -2871,13 +2871,13 @@
       <c r="K14" s="1">
         <v>21</v>
       </c>
-      <c r="L14" s="5" t="str">
+      <c r="L14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="3:12">
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2886,31 +2886,31 @@
       <c r="E15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>12</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>13</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>14</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="6">
         <v>15</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>16</v>
       </c>
-      <c r="L15" s="5" t="str">
+      <c r="L15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="3:12">
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2919,7 +2919,7 @@
       <c r="E16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>0</v>
       </c>
       <c r="G16" s="1">
@@ -2937,13 +2937,13 @@
       <c r="K16" s="1">
         <v>21</v>
       </c>
-      <c r="L16" s="5" t="str">
+      <c r="L16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="3:12">
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2952,31 +2952,31 @@
       <c r="E17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
         <v>12</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>13</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>14</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <v>15</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <v>16</v>
       </c>
-      <c r="L17" s="5" t="str">
+      <c r="L17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="3:12">
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2985,7 +2985,7 @@
       <c r="E18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
       <c r="G18" s="1">
@@ -3003,13 +3003,13 @@
       <c r="K18" s="1">
         <v>21</v>
       </c>
-      <c r="L18" s="5" t="str">
+      <c r="L18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:12">
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3018,31 +3018,31 @@
       <c r="E19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
         <v>12</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>13</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>14</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="6">
         <v>15</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <v>16</v>
       </c>
-      <c r="L19" s="5" t="str">
+      <c r="L19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:12">
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3051,7 +3051,7 @@
       <c r="E20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>0</v>
       </c>
       <c r="G20" s="1">
@@ -3069,13 +3069,13 @@
       <c r="K20" s="1">
         <v>21</v>
       </c>
-      <c r="L20" s="5" t="str">
+      <c r="L20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="3:12">
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3084,31 +3084,31 @@
       <c r="E21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
         <v>12</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>13</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>14</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="6">
         <v>15</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="6">
         <v>16</v>
       </c>
-      <c r="L21" s="5" t="str">
+      <c r="L21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="3:12">
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3117,7 +3117,7 @@
       <c r="E22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>0</v>
       </c>
       <c r="G22" s="1">
@@ -3135,13 +3135,13 @@
       <c r="K22" s="1">
         <v>21</v>
       </c>
-      <c r="L22" s="5" t="str">
+      <c r="L22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="3:12">
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3150,31 +3150,31 @@
       <c r="E23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
         <v>12</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>13</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>14</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="6">
         <v>15</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="6">
         <v>16</v>
       </c>
-      <c r="L23" s="5" t="str">
+      <c r="L23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="3:12">
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3183,7 +3183,7 @@
       <c r="E24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>0</v>
       </c>
       <c r="G24" s="1">
@@ -3201,13 +3201,13 @@
       <c r="K24" s="1">
         <v>21</v>
       </c>
-      <c r="L24" s="5" t="str">
+      <c r="L24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="3:12">
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3216,31 +3216,31 @@
       <c r="E25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
         <v>12</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <v>13</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="6">
         <v>14</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="6">
         <v>15</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="6">
         <v>16</v>
       </c>
-      <c r="L25" s="5" t="str">
+      <c r="L25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="3:12">
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3249,7 +3249,7 @@
       <c r="E26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="1">
@@ -3267,13 +3267,13 @@
       <c r="K26" s="1">
         <v>21</v>
       </c>
-      <c r="L26" s="5" t="str">
+      <c r="L26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="3:12">
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3282,31 +3282,31 @@
       <c r="E27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
         <v>12</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>13</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="6">
         <v>14</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="6">
         <v>15</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <v>16</v>
       </c>
-      <c r="L27" s="5" t="str">
+      <c r="L27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="3:12">
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3315,7 +3315,7 @@
       <c r="E28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="6">
         <v>0</v>
       </c>
       <c r="G28" s="1">
@@ -3333,13 +3333,13 @@
       <c r="K28" s="1">
         <v>21</v>
       </c>
-      <c r="L28" s="5" t="str">
+      <c r="L28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="3:12">
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3348,31 +3348,31 @@
       <c r="E29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
         <v>12</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="6">
         <v>13</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="6">
         <v>14</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="6">
         <v>15</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <v>16</v>
       </c>
-      <c r="L29" s="5" t="str">
+      <c r="L29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="3:12">
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3381,7 +3381,7 @@
       <c r="E30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <v>0</v>
       </c>
       <c r="G30" s="1">
@@ -3399,13 +3399,13 @@
       <c r="K30" s="1">
         <v>21</v>
       </c>
-      <c r="L30" s="5" t="str">
+      <c r="L30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="3:12">
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3414,31 +3414,31 @@
       <c r="E31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
         <v>12</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="6">
         <v>13</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="6">
         <v>14</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="6">
         <v>15</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="6">
         <v>16</v>
       </c>
-      <c r="L31" s="5" t="str">
+      <c r="L31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="3:12">
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3447,7 +3447,7 @@
       <c r="E32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="6">
         <v>0</v>
       </c>
       <c r="G32" s="1">
@@ -3465,13 +3465,13 @@
       <c r="K32" s="1">
         <v>21</v>
       </c>
-      <c r="L32" s="5" t="str">
+      <c r="L32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="3:12">
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3480,31 +3480,31 @@
       <c r="E33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
         <v>12</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="6">
         <v>13</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="6">
         <v>14</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="6">
         <v>15</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="6">
         <v>16</v>
       </c>
-      <c r="L33" s="5" t="str">
+      <c r="L33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="3:12">
-      <c r="C34" s="5">
+      <c r="C34" s="6">
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3513,7 +3513,7 @@
       <c r="E34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="6">
         <v>0</v>
       </c>
       <c r="G34" s="1">
@@ -3531,13 +3531,13 @@
       <c r="K34" s="1">
         <v>21</v>
       </c>
-      <c r="L34" s="5" t="str">
+      <c r="L34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="3:12">
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3546,31 +3546,31 @@
       <c r="E35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6">
         <v>12</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="6">
         <v>13</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="6">
         <v>14</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="6">
         <v>15</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="6">
         <v>16</v>
       </c>
-      <c r="L35" s="5" t="str">
+      <c r="L35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="3:12">
-      <c r="C36" s="5">
+      <c r="C36" s="6">
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3579,7 +3579,7 @@
       <c r="E36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="6">
         <v>0</v>
       </c>
       <c r="G36" s="1">
@@ -3597,13 +3597,13 @@
       <c r="K36" s="1">
         <v>21</v>
       </c>
-      <c r="L36" s="5" t="str">
+      <c r="L36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:12">
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3612,31 +3612,31 @@
       <c r="E37" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6">
         <v>12</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="6">
         <v>13</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="6">
         <v>14</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="6">
         <v>15</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="6">
         <v>16</v>
       </c>
-      <c r="L37" s="5" t="str">
+      <c r="L37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:12">
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3645,7 +3645,7 @@
       <c r="E38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="6">
         <v>0</v>
       </c>
       <c r="G38" s="1">
@@ -3663,13 +3663,13 @@
       <c r="K38" s="1">
         <v>21</v>
       </c>
-      <c r="L38" s="5" t="str">
+      <c r="L38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:12">
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3678,31 +3678,31 @@
       <c r="E39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
         <v>12</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>13</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="6">
         <v>14</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="6">
         <v>15</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <v>16</v>
       </c>
-      <c r="L39" s="5" t="str">
+      <c r="L39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:12">
-      <c r="C40" s="5">
+      <c r="C40" s="6">
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3711,7 +3711,7 @@
       <c r="E40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="6">
         <v>0</v>
       </c>
       <c r="G40" s="1">
@@ -3729,13 +3729,13 @@
       <c r="K40" s="1">
         <v>21</v>
       </c>
-      <c r="L40" s="5" t="str">
+      <c r="L40" s="6" t="str">
         <f t="shared" ref="L40:L71" si="1">G40&amp;","&amp;H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40</f>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="3:12">
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3744,31 +3744,31 @@
       <c r="E41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6">
         <v>12</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="6">
         <v>13</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="6">
         <v>14</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="6">
         <v>15</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="6">
         <v>16</v>
       </c>
-      <c r="L41" s="5" t="str">
+      <c r="L41" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="3:12">
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3777,7 +3777,7 @@
       <c r="E42" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="6">
         <v>0</v>
       </c>
       <c r="G42" s="1">
@@ -3795,13 +3795,13 @@
       <c r="K42" s="1">
         <v>21</v>
       </c>
-      <c r="L42" s="5" t="str">
+      <c r="L42" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="3:12">
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3810,31 +3810,31 @@
       <c r="E43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
         <v>12</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="6">
         <v>13</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="6">
         <v>14</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="6">
         <v>15</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="6">
         <v>16</v>
       </c>
-      <c r="L43" s="5" t="str">
+      <c r="L43" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="3:12">
-      <c r="C44" s="5">
+      <c r="C44" s="6">
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3843,7 +3843,7 @@
       <c r="E44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="6">
         <v>0</v>
       </c>
       <c r="G44" s="1">
@@ -3861,13 +3861,13 @@
       <c r="K44" s="1">
         <v>21</v>
       </c>
-      <c r="L44" s="5" t="str">
+      <c r="L44" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="3:12">
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3876,31 +3876,31 @@
       <c r="E45" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
         <v>12</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="6">
         <v>13</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="6">
         <v>14</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="6">
         <v>15</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="6">
         <v>16</v>
       </c>
-      <c r="L45" s="5" t="str">
+      <c r="L45" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="3:12">
-      <c r="C46" s="5">
+      <c r="C46" s="6">
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3909,7 +3909,7 @@
       <c r="E46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="6">
         <v>0</v>
       </c>
       <c r="G46" s="1">
@@ -3927,13 +3927,13 @@
       <c r="K46" s="1">
         <v>21</v>
       </c>
-      <c r="L46" s="5" t="str">
+      <c r="L46" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="3:12">
-      <c r="C47" s="5">
+      <c r="C47" s="6">
         <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3942,31 +3942,31 @@
       <c r="E47" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6">
         <v>12</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="6">
         <v>13</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="6">
         <v>14</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="6">
         <v>15</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="6">
         <v>16</v>
       </c>
-      <c r="L47" s="5" t="str">
+      <c r="L47" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="3:12">
-      <c r="C48" s="5">
+      <c r="C48" s="6">
         <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3975,7 +3975,7 @@
       <c r="E48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="6">
         <v>0</v>
       </c>
       <c r="G48" s="1">
@@ -3993,13 +3993,13 @@
       <c r="K48" s="1">
         <v>21</v>
       </c>
-      <c r="L48" s="5" t="str">
+      <c r="L48" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="3:12">
-      <c r="C49" s="5">
+      <c r="C49" s="6">
         <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -4008,31 +4008,31 @@
       <c r="E49" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
         <v>12</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="6">
         <v>13</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="6">
         <v>14</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="6">
         <v>15</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="6">
         <v>16</v>
       </c>
-      <c r="L49" s="5" t="str">
+      <c r="L49" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:12">
-      <c r="C50" s="5">
+      <c r="C50" s="6">
         <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4041,7 +4041,7 @@
       <c r="E50" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="6">
         <v>0</v>
       </c>
       <c r="G50" s="1">
@@ -4059,13 +4059,13 @@
       <c r="K50" s="1">
         <v>21</v>
       </c>
-      <c r="L50" s="5" t="str">
+      <c r="L50" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:12">
-      <c r="C51" s="5">
+      <c r="C51" s="6">
         <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4074,31 +4074,31 @@
       <c r="E51" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="F51" s="6">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6">
         <v>12</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="6">
         <v>13</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="6">
         <v>14</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="6">
         <v>15</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="6">
         <v>16</v>
       </c>
-      <c r="L51" s="5" t="str">
+      <c r="L51" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:12">
-      <c r="C52" s="5">
+      <c r="C52" s="6">
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -4107,7 +4107,7 @@
       <c r="E52" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="6">
         <v>0</v>
       </c>
       <c r="G52" s="1">
@@ -4125,13 +4125,13 @@
       <c r="K52" s="1">
         <v>21</v>
       </c>
-      <c r="L52" s="5" t="str">
+      <c r="L52" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:12">
-      <c r="C53" s="5">
+      <c r="C53" s="6">
         <v>47</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4140,31 +4140,31 @@
       <c r="E53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
-      <c r="G53" s="5">
+      <c r="F53" s="6">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6">
         <v>12</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="6">
         <v>13</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="6">
         <v>14</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="6">
         <v>15</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="6">
         <v>16</v>
       </c>
-      <c r="L53" s="5" t="str">
+      <c r="L53" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:12">
-      <c r="C54" s="5">
+      <c r="C54" s="6">
         <v>48</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4173,7 +4173,7 @@
       <c r="E54" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="6">
         <v>0</v>
       </c>
       <c r="G54" s="1">
@@ -4191,13 +4191,13 @@
       <c r="K54" s="1">
         <v>21</v>
       </c>
-      <c r="L54" s="5" t="str">
+      <c r="L54" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:12">
-      <c r="C55" s="5">
+      <c r="C55" s="6">
         <v>49</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4206,31 +4206,31 @@
       <c r="E55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
+      <c r="F55" s="6">
+        <v>0</v>
+      </c>
+      <c r="G55" s="6">
         <v>12</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="6">
         <v>13</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="6">
         <v>14</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="6">
         <v>15</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="6">
         <v>16</v>
       </c>
-      <c r="L55" s="5" t="str">
+      <c r="L55" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="3:12">
-      <c r="C56" s="5">
+      <c r="C56" s="6">
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4239,7 +4239,7 @@
       <c r="E56" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="6">
         <v>0</v>
       </c>
       <c r="G56" s="1">
@@ -4257,13 +4257,13 @@
       <c r="K56" s="1">
         <v>21</v>
       </c>
-      <c r="L56" s="5" t="str">
+      <c r="L56" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="3:12">
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <v>51</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4272,31 +4272,31 @@
       <c r="E57" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
-      <c r="G57" s="5">
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
         <v>12</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="6">
         <v>13</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="6">
         <v>14</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="6">
         <v>15</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="6">
         <v>16</v>
       </c>
-      <c r="L57" s="5" t="str">
+      <c r="L57" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="3:12">
-      <c r="C58" s="5">
+      <c r="C58" s="6">
         <v>52</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4305,7 +4305,7 @@
       <c r="E58" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="6">
         <v>0</v>
       </c>
       <c r="G58" s="1">
@@ -4323,13 +4323,13 @@
       <c r="K58" s="1">
         <v>21</v>
       </c>
-      <c r="L58" s="5" t="str">
+      <c r="L58" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="3:12">
-      <c r="C59" s="5">
+      <c r="C59" s="6">
         <v>53</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4338,31 +4338,31 @@
       <c r="E59" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F59" s="5">
-        <v>0</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
         <v>12</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="6">
         <v>13</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="6">
         <v>14</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="6">
         <v>15</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="6">
         <v>16</v>
       </c>
-      <c r="L59" s="5" t="str">
+      <c r="L59" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="3:12">
-      <c r="C60" s="5">
+      <c r="C60" s="6">
         <v>54</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4371,7 +4371,7 @@
       <c r="E60" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="6">
         <v>0</v>
       </c>
       <c r="G60" s="1">
@@ -4389,13 +4389,13 @@
       <c r="K60" s="1">
         <v>21</v>
       </c>
-      <c r="L60" s="5" t="str">
+      <c r="L60" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="3:12">
-      <c r="C61" s="5">
+      <c r="C61" s="6">
         <v>55</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4404,31 +4404,31 @@
       <c r="E61" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
         <v>12</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="6">
         <v>13</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="6">
         <v>14</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="6">
         <v>15</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="6">
         <v>16</v>
       </c>
-      <c r="L61" s="5" t="str">
+      <c r="L61" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:12">
-      <c r="C62" s="5">
+      <c r="C62" s="6">
         <v>56</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4437,7 +4437,7 @@
       <c r="E62" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="6">
         <v>0</v>
       </c>
       <c r="G62" s="1">
@@ -4455,13 +4455,13 @@
       <c r="K62" s="1">
         <v>21</v>
       </c>
-      <c r="L62" s="5" t="str">
+      <c r="L62" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:12">
-      <c r="C63" s="5">
+      <c r="C63" s="6">
         <v>57</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4470,31 +4470,31 @@
       <c r="E63" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="5">
-        <v>0</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
         <v>12</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="6">
         <v>13</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="6">
         <v>14</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="6">
         <v>15</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="6">
         <v>16</v>
       </c>
-      <c r="L63" s="5" t="str">
+      <c r="L63" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:12">
-      <c r="C64" s="5">
+      <c r="C64" s="6">
         <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4503,7 +4503,7 @@
       <c r="E64" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="6">
         <v>0</v>
       </c>
       <c r="G64" s="1">
@@ -4521,13 +4521,13 @@
       <c r="K64" s="1">
         <v>21</v>
       </c>
-      <c r="L64" s="5" t="str">
+      <c r="L64" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:12">
-      <c r="C65" s="5">
+      <c r="C65" s="6">
         <v>59</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4536,31 +4536,31 @@
       <c r="E65" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="5">
-        <v>0</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="F65" s="6">
+        <v>0</v>
+      </c>
+      <c r="G65" s="6">
         <v>12</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="6">
         <v>13</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="6">
         <v>14</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65" s="6">
         <v>15</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="6">
         <v>16</v>
       </c>
-      <c r="L65" s="5" t="str">
+      <c r="L65" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:12">
-      <c r="C66" s="5">
+      <c r="C66" s="6">
         <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4569,7 +4569,7 @@
       <c r="E66" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="6">
         <v>0</v>
       </c>
       <c r="G66" s="1">
@@ -4587,13 +4587,13 @@
       <c r="K66" s="1">
         <v>21</v>
       </c>
-      <c r="L66" s="5" t="str">
+      <c r="L66" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:12">
-      <c r="C67" s="5">
+      <c r="C67" s="6">
         <v>61</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4602,31 +4602,31 @@
       <c r="E67" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="6">
         <v>1</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="6">
         <v>12</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="6">
         <v>13</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="6">
         <v>14</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="6">
         <v>15</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="6">
         <v>16</v>
       </c>
-      <c r="L67" s="5" t="str">
+      <c r="L67" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="3:12">
-      <c r="C68" s="5">
+      <c r="C68" s="6">
         <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4635,7 +4635,7 @@
       <c r="E68" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="6">
         <v>1</v>
       </c>
       <c r="G68" s="1">
@@ -4653,13 +4653,13 @@
       <c r="K68" s="1">
         <v>21</v>
       </c>
-      <c r="L68" s="5" t="str">
+      <c r="L68" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="3:12">
-      <c r="C69" s="5">
+      <c r="C69" s="6">
         <v>63</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4668,31 +4668,31 @@
       <c r="E69" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="6">
         <v>1</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="6">
         <v>12</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="6">
         <v>13</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="6">
         <v>14</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="6">
         <v>15</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="6">
         <v>16</v>
       </c>
-      <c r="L69" s="5" t="str">
+      <c r="L69" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:12">
-      <c r="C70" s="5">
+      <c r="C70" s="6">
         <v>64</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4701,7 +4701,7 @@
       <c r="E70" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="6">
         <v>1</v>
       </c>
       <c r="G70" s="1">
@@ -4719,13 +4719,13 @@
       <c r="K70" s="1">
         <v>21</v>
       </c>
-      <c r="L70" s="5" t="str">
+      <c r="L70" s="6" t="str">
         <f t="shared" si="1"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:12">
-      <c r="C71" s="5">
+      <c r="C71" s="6">
         <v>65</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -4734,31 +4734,31 @@
       <c r="E71" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="6">
         <v>1</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="6">
         <v>12</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="6">
         <v>13</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="6">
         <v>14</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="6">
         <v>15</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="6">
         <v>16</v>
       </c>
-      <c r="L71" s="5" t="str">
+      <c r="L71" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="3:12">
-      <c r="C72" s="5">
+      <c r="C72" s="6">
         <v>66</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4767,7 +4767,7 @@
       <c r="E72" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="6">
         <v>1</v>
       </c>
       <c r="G72" s="1">
@@ -4785,13 +4785,13 @@
       <c r="K72" s="1">
         <v>21</v>
       </c>
-      <c r="L72" s="5" t="str">
+      <c r="L72" s="6" t="str">
         <f t="shared" ref="L72:L96" si="2">G72&amp;","&amp;H72&amp;","&amp;I72&amp;","&amp;J72&amp;","&amp;K72</f>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:12">
-      <c r="C73" s="5">
+      <c r="C73" s="6">
         <v>67</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4800,31 +4800,31 @@
       <c r="E73" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="6">
         <v>1</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="6">
         <v>12</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="6">
         <v>13</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="6">
         <v>14</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73" s="6">
         <v>15</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="6">
         <v>16</v>
       </c>
-      <c r="L73" s="5" t="str">
+      <c r="L73" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:12">
-      <c r="C74" s="5">
+      <c r="C74" s="6">
         <v>68</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4833,7 +4833,7 @@
       <c r="E74" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="6">
         <v>1</v>
       </c>
       <c r="G74" s="1">
@@ -4851,13 +4851,13 @@
       <c r="K74" s="1">
         <v>21</v>
       </c>
-      <c r="L74" s="5" t="str">
+      <c r="L74" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="3:12">
-      <c r="C75" s="5">
+      <c r="C75" s="6">
         <v>69</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -4866,31 +4866,31 @@
       <c r="E75" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="6">
         <v>1</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="6">
         <v>12</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="6">
         <v>13</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="6">
         <v>14</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="6">
         <v>15</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="6">
         <v>16</v>
       </c>
-      <c r="L75" s="5" t="str">
+      <c r="L75" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:12">
-      <c r="C76" s="5">
+      <c r="C76" s="6">
         <v>70</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -4899,7 +4899,7 @@
       <c r="E76" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="6">
         <v>1</v>
       </c>
       <c r="G76" s="1">
@@ -4917,13 +4917,13 @@
       <c r="K76" s="1">
         <v>21</v>
       </c>
-      <c r="L76" s="5" t="str">
+      <c r="L76" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:12">
-      <c r="C77" s="5">
+      <c r="C77" s="6">
         <v>71</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4935,28 +4935,28 @@
       <c r="F77" s="1">
         <v>2</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="6">
         <v>12</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="6">
         <v>13</v>
       </c>
-      <c r="I77" s="5">
+      <c r="I77" s="6">
         <v>14</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77" s="6">
         <v>15</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="6">
         <v>16</v>
       </c>
-      <c r="L77" s="5" t="str">
+      <c r="L77" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="3:12">
-      <c r="C78" s="5">
+      <c r="C78" s="6">
         <v>72</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4983,13 +4983,13 @@
       <c r="K78" s="1">
         <v>21</v>
       </c>
-      <c r="L78" s="5" t="str">
+      <c r="L78" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="3:12">
-      <c r="C79" s="5">
+      <c r="C79" s="6">
         <v>73</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5001,28 +5001,28 @@
       <c r="F79" s="1">
         <v>2</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="6">
         <v>12</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="6">
         <v>13</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I79" s="6">
         <v>14</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79" s="6">
         <v>15</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="6">
         <v>16</v>
       </c>
-      <c r="L79" s="5" t="str">
+      <c r="L79" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:12">
-      <c r="C80" s="5">
+      <c r="C80" s="6">
         <v>74</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5049,13 +5049,13 @@
       <c r="K80" s="1">
         <v>21</v>
       </c>
-      <c r="L80" s="5" t="str">
+      <c r="L80" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:12">
-      <c r="C81" s="5">
+      <c r="C81" s="6">
         <v>75</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5067,28 +5067,28 @@
       <c r="F81" s="1">
         <v>2</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="6">
         <v>12</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="6">
         <v>13</v>
       </c>
-      <c r="I81" s="5">
+      <c r="I81" s="6">
         <v>14</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81" s="6">
         <v>15</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="6">
         <v>16</v>
       </c>
-      <c r="L81" s="5" t="str">
+      <c r="L81" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:12">
-      <c r="C82" s="5">
+      <c r="C82" s="6">
         <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5115,13 +5115,13 @@
       <c r="K82" s="1">
         <v>21</v>
       </c>
-      <c r="L82" s="5" t="str">
+      <c r="L82" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:12">
-      <c r="C83" s="5">
+      <c r="C83" s="6">
         <v>77</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5133,28 +5133,28 @@
       <c r="F83" s="1">
         <v>2</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="6">
         <v>12</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="6">
         <v>13</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I83" s="6">
         <v>14</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83" s="6">
         <v>15</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="6">
         <v>16</v>
       </c>
-      <c r="L83" s="5" t="str">
+      <c r="L83" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:12">
-      <c r="C84" s="5">
+      <c r="C84" s="6">
         <v>78</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5181,13 +5181,13 @@
       <c r="K84" s="1">
         <v>21</v>
       </c>
-      <c r="L84" s="5" t="str">
+      <c r="L84" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:12">
-      <c r="C85" s="5">
+      <c r="C85" s="6">
         <v>79</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5199,28 +5199,28 @@
       <c r="F85" s="1">
         <v>2</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="6">
         <v>12</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="6">
         <v>13</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I85" s="6">
         <v>14</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85" s="6">
         <v>15</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="6">
         <v>16</v>
       </c>
-      <c r="L85" s="5" t="str">
+      <c r="L85" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="3:12">
-      <c r="C86" s="5">
+      <c r="C86" s="6">
         <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5247,13 +5247,13 @@
       <c r="K86" s="1">
         <v>21</v>
       </c>
-      <c r="L86" s="5" t="str">
+      <c r="L86" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="3:12">
-      <c r="C87" s="5">
+      <c r="C87" s="6">
         <v>81</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -5265,28 +5265,28 @@
       <c r="F87" s="1">
         <v>3</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="6">
         <v>12</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="6">
         <v>13</v>
       </c>
-      <c r="I87" s="5">
+      <c r="I87" s="6">
         <v>14</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87" s="6">
         <v>15</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="6">
         <v>16</v>
       </c>
-      <c r="L87" s="5" t="str">
+      <c r="L87" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:12">
-      <c r="C88" s="5">
+      <c r="C88" s="6">
         <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -5313,13 +5313,13 @@
       <c r="K88" s="1">
         <v>21</v>
       </c>
-      <c r="L88" s="5" t="str">
+      <c r="L88" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:12">
-      <c r="C89" s="5">
+      <c r="C89" s="6">
         <v>83</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -5331,28 +5331,28 @@
       <c r="F89" s="1">
         <v>3</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="6">
         <v>12</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="6">
         <v>13</v>
       </c>
-      <c r="I89" s="5">
+      <c r="I89" s="6">
         <v>14</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89" s="6">
         <v>15</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89" s="6">
         <v>16</v>
       </c>
-      <c r="L89" s="5" t="str">
+      <c r="L89" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="3:12">
-      <c r="C90" s="5">
+      <c r="C90" s="6">
         <v>84</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -5379,13 +5379,13 @@
       <c r="K90" s="1">
         <v>21</v>
       </c>
-      <c r="L90" s="5" t="str">
+      <c r="L90" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="3:12">
-      <c r="C91" s="5">
+      <c r="C91" s="6">
         <v>85</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -5397,28 +5397,28 @@
       <c r="F91" s="1">
         <v>3</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="6">
         <v>12</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="6">
         <v>13</v>
       </c>
-      <c r="I91" s="5">
+      <c r="I91" s="6">
         <v>14</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91" s="6">
         <v>15</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="6">
         <v>16</v>
       </c>
-      <c r="L91" s="5" t="str">
+      <c r="L91" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="3:12">
-      <c r="C92" s="5">
+      <c r="C92" s="6">
         <v>86</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -5445,13 +5445,13 @@
       <c r="K92" s="1">
         <v>21</v>
       </c>
-      <c r="L92" s="5" t="str">
+      <c r="L92" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="3:12">
-      <c r="C93" s="5">
+      <c r="C93" s="6">
         <v>87</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -5463,28 +5463,28 @@
       <c r="F93" s="1">
         <v>3</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="6">
         <v>12</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="6">
         <v>13</v>
       </c>
-      <c r="I93" s="5">
+      <c r="I93" s="6">
         <v>14</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93" s="6">
         <v>15</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93" s="6">
         <v>16</v>
       </c>
-      <c r="L93" s="5" t="str">
+      <c r="L93" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="3:12">
-      <c r="C94" s="5">
+      <c r="C94" s="6">
         <v>88</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5511,13 +5511,13 @@
       <c r="K94" s="1">
         <v>21</v>
       </c>
-      <c r="L94" s="5" t="str">
+      <c r="L94" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="3:12">
-      <c r="C95" s="5">
+      <c r="C95" s="6">
         <v>89</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5529,28 +5529,28 @@
       <c r="F95" s="1">
         <v>3</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="6">
         <v>12</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="6">
         <v>13</v>
       </c>
-      <c r="I95" s="5">
+      <c r="I95" s="6">
         <v>14</v>
       </c>
-      <c r="J95" s="5">
+      <c r="J95" s="6">
         <v>15</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95" s="6">
         <v>16</v>
       </c>
-      <c r="L95" s="5" t="str">
+      <c r="L95" s="6" t="str">
         <f t="shared" si="2"/>
         <v>12,13,14,15,16</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="3:12">
-      <c r="C96" s="5">
+      <c r="C96" s="6">
         <v>90</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5577,7 +5577,7 @@
       <c r="K96" s="1">
         <v>21</v>
       </c>
-      <c r="L96" s="5" t="str">
+      <c r="L96" s="6" t="str">
         <f t="shared" si="2"/>
         <v>17,18,19,20,21</v>
       </c>

--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -422,10 +422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -447,14 +447,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -462,40 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,46 +468,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,22 +493,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,7 +530,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +631,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,19 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +691,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,43 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,43 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,25 +805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,15 +834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -854,21 +845,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,18 +868,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,6 +914,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -934,148 +934,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2297,8 +2297,8 @@
   <sheetPr/>
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2307,7 +2307,8 @@
     <col min="2" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.54166666666667" style="1" customWidth="1"/>
-    <col min="7" max="12" width="12.925" style="1" customWidth="1"/>
+    <col min="7" max="11" width="12.925" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.75" style="1" customWidth="1"/>
     <col min="13" max="17" width="15.3833333333333" style="1" customWidth="1"/>
     <col min="18" max="18" width="24.15" style="1" customWidth="1"/>
     <col min="19" max="23" width="11.4583333333333" style="1" customWidth="1"/>
@@ -2576,7 +2577,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="6">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
@@ -2647,7 +2648,7 @@
     </row>
     <row r="8" customHeight="1" spans="3:12">
       <c r="C8" s="6">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
@@ -2680,7 +2681,7 @@
     </row>
     <row r="9" customHeight="1" spans="3:12">
       <c r="C9" s="6">
-        <v>3</v>
+        <v>1002</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
@@ -2713,7 +2714,7 @@
     </row>
     <row r="10" customHeight="1" spans="3:12">
       <c r="C10" s="6">
-        <v>4</v>
+        <v>1003</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>42</v>
@@ -2746,7 +2747,7 @@
     </row>
     <row r="11" customHeight="1" spans="3:12">
       <c r="C11" s="6">
-        <v>5</v>
+        <v>1004</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>43</v>
@@ -2779,7 +2780,7 @@
     </row>
     <row r="12" customHeight="1" spans="3:12">
       <c r="C12" s="6">
-        <v>6</v>
+        <v>1005</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
@@ -2812,7 +2813,7 @@
     </row>
     <row r="13" customHeight="1" spans="3:12">
       <c r="C13" s="6">
-        <v>7</v>
+        <v>1006</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>45</v>
@@ -2845,7 +2846,7 @@
     </row>
     <row r="14" customHeight="1" spans="3:12">
       <c r="C14" s="6">
-        <v>8</v>
+        <v>1007</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>46</v>
@@ -2878,7 +2879,7 @@
     </row>
     <row r="15" customHeight="1" spans="3:12">
       <c r="C15" s="6">
-        <v>9</v>
+        <v>1008</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>47</v>
@@ -2911,7 +2912,7 @@
     </row>
     <row r="16" customHeight="1" spans="3:12">
       <c r="C16" s="6">
-        <v>10</v>
+        <v>1009</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
@@ -2944,7 +2945,7 @@
     </row>
     <row r="17" customHeight="1" spans="3:12">
       <c r="C17" s="6">
-        <v>11</v>
+        <v>1010</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
@@ -2977,7 +2978,7 @@
     </row>
     <row r="18" customHeight="1" spans="3:12">
       <c r="C18" s="6">
-        <v>12</v>
+        <v>1011</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>50</v>
@@ -3010,7 +3011,7 @@
     </row>
     <row r="19" customHeight="1" spans="3:12">
       <c r="C19" s="6">
-        <v>13</v>
+        <v>1012</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
@@ -3043,7 +3044,7 @@
     </row>
     <row r="20" customHeight="1" spans="3:12">
       <c r="C20" s="6">
-        <v>14</v>
+        <v>1013</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>52</v>
@@ -3076,7 +3077,7 @@
     </row>
     <row r="21" customHeight="1" spans="3:12">
       <c r="C21" s="6">
-        <v>15</v>
+        <v>1014</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>53</v>
@@ -3109,7 +3110,7 @@
     </row>
     <row r="22" customHeight="1" spans="3:12">
       <c r="C22" s="6">
-        <v>16</v>
+        <v>1015</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>54</v>
@@ -3142,7 +3143,7 @@
     </row>
     <row r="23" customHeight="1" spans="3:12">
       <c r="C23" s="6">
-        <v>17</v>
+        <v>1016</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>55</v>
@@ -3175,7 +3176,7 @@
     </row>
     <row r="24" customHeight="1" spans="3:12">
       <c r="C24" s="6">
-        <v>18</v>
+        <v>1017</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>56</v>
@@ -3208,7 +3209,7 @@
     </row>
     <row r="25" customHeight="1" spans="3:12">
       <c r="C25" s="6">
-        <v>19</v>
+        <v>1018</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>57</v>
@@ -3241,7 +3242,7 @@
     </row>
     <row r="26" customHeight="1" spans="3:12">
       <c r="C26" s="6">
-        <v>20</v>
+        <v>1019</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>58</v>
@@ -3274,7 +3275,7 @@
     </row>
     <row r="27" customHeight="1" spans="3:12">
       <c r="C27" s="6">
-        <v>21</v>
+        <v>1020</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>59</v>
@@ -3307,7 +3308,7 @@
     </row>
     <row r="28" customHeight="1" spans="3:12">
       <c r="C28" s="6">
-        <v>22</v>
+        <v>1021</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>60</v>
@@ -3340,7 +3341,7 @@
     </row>
     <row r="29" customHeight="1" spans="3:12">
       <c r="C29" s="6">
-        <v>23</v>
+        <v>1022</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>61</v>
@@ -3373,7 +3374,7 @@
     </row>
     <row r="30" customHeight="1" spans="3:12">
       <c r="C30" s="6">
-        <v>24</v>
+        <v>1023</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>62</v>
@@ -3406,7 +3407,7 @@
     </row>
     <row r="31" customHeight="1" spans="3:12">
       <c r="C31" s="6">
-        <v>25</v>
+        <v>1024</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>63</v>
@@ -3439,7 +3440,7 @@
     </row>
     <row r="32" customHeight="1" spans="3:12">
       <c r="C32" s="6">
-        <v>26</v>
+        <v>1025</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>64</v>
@@ -3472,7 +3473,7 @@
     </row>
     <row r="33" customHeight="1" spans="3:12">
       <c r="C33" s="6">
-        <v>27</v>
+        <v>1026</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>65</v>
@@ -3505,7 +3506,7 @@
     </row>
     <row r="34" customHeight="1" spans="3:12">
       <c r="C34" s="6">
-        <v>28</v>
+        <v>1027</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>66</v>
@@ -3538,7 +3539,7 @@
     </row>
     <row r="35" customHeight="1" spans="3:12">
       <c r="C35" s="6">
-        <v>29</v>
+        <v>1028</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>67</v>
@@ -3571,7 +3572,7 @@
     </row>
     <row r="36" customHeight="1" spans="3:12">
       <c r="C36" s="6">
-        <v>30</v>
+        <v>1029</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>68</v>
@@ -3604,7 +3605,7 @@
     </row>
     <row r="37" customHeight="1" spans="3:12">
       <c r="C37" s="6">
-        <v>31</v>
+        <v>1030</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>69</v>
@@ -3637,7 +3638,7 @@
     </row>
     <row r="38" customHeight="1" spans="3:12">
       <c r="C38" s="6">
-        <v>32</v>
+        <v>1031</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>70</v>
@@ -3670,7 +3671,7 @@
     </row>
     <row r="39" customHeight="1" spans="3:12">
       <c r="C39" s="6">
-        <v>33</v>
+        <v>1032</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>71</v>
@@ -3703,7 +3704,7 @@
     </row>
     <row r="40" customHeight="1" spans="3:12">
       <c r="C40" s="6">
-        <v>34</v>
+        <v>1033</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>72</v>
@@ -3736,7 +3737,7 @@
     </row>
     <row r="41" customHeight="1" spans="3:12">
       <c r="C41" s="6">
-        <v>35</v>
+        <v>1034</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>73</v>
@@ -3769,7 +3770,7 @@
     </row>
     <row r="42" customHeight="1" spans="3:12">
       <c r="C42" s="6">
-        <v>36</v>
+        <v>1035</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>74</v>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="43" customHeight="1" spans="3:12">
       <c r="C43" s="6">
-        <v>37</v>
+        <v>1036</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>75</v>
@@ -3835,7 +3836,7 @@
     </row>
     <row r="44" customHeight="1" spans="3:12">
       <c r="C44" s="6">
-        <v>38</v>
+        <v>1037</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>76</v>
@@ -3868,7 +3869,7 @@
     </row>
     <row r="45" customHeight="1" spans="3:12">
       <c r="C45" s="6">
-        <v>39</v>
+        <v>1038</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>77</v>
@@ -3901,7 +3902,7 @@
     </row>
     <row r="46" customHeight="1" spans="3:12">
       <c r="C46" s="6">
-        <v>40</v>
+        <v>1039</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>78</v>
@@ -3934,7 +3935,7 @@
     </row>
     <row r="47" customHeight="1" spans="3:12">
       <c r="C47" s="6">
-        <v>41</v>
+        <v>1040</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>79</v>
@@ -3967,7 +3968,7 @@
     </row>
     <row r="48" customHeight="1" spans="3:12">
       <c r="C48" s="6">
-        <v>42</v>
+        <v>1041</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>80</v>
@@ -4000,7 +4001,7 @@
     </row>
     <row r="49" customHeight="1" spans="3:12">
       <c r="C49" s="6">
-        <v>43</v>
+        <v>1042</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="50" customHeight="1" spans="3:12">
       <c r="C50" s="6">
-        <v>44</v>
+        <v>1043</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>82</v>
@@ -4066,7 +4067,7 @@
     </row>
     <row r="51" customHeight="1" spans="3:12">
       <c r="C51" s="6">
-        <v>45</v>
+        <v>1044</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>83</v>
@@ -4099,7 +4100,7 @@
     </row>
     <row r="52" customHeight="1" spans="3:12">
       <c r="C52" s="6">
-        <v>46</v>
+        <v>1045</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>84</v>
@@ -4132,7 +4133,7 @@
     </row>
     <row r="53" customHeight="1" spans="3:12">
       <c r="C53" s="6">
-        <v>47</v>
+        <v>1046</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>85</v>
@@ -4165,7 +4166,7 @@
     </row>
     <row r="54" customHeight="1" spans="3:12">
       <c r="C54" s="6">
-        <v>48</v>
+        <v>1047</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>86</v>
@@ -4198,7 +4199,7 @@
     </row>
     <row r="55" customHeight="1" spans="3:12">
       <c r="C55" s="6">
-        <v>49</v>
+        <v>1048</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>87</v>
@@ -4231,7 +4232,7 @@
     </row>
     <row r="56" customHeight="1" spans="3:12">
       <c r="C56" s="6">
-        <v>50</v>
+        <v>1049</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>88</v>
@@ -4264,7 +4265,7 @@
     </row>
     <row r="57" customHeight="1" spans="3:12">
       <c r="C57" s="6">
-        <v>51</v>
+        <v>1050</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>89</v>
@@ -4297,7 +4298,7 @@
     </row>
     <row r="58" customHeight="1" spans="3:12">
       <c r="C58" s="6">
-        <v>52</v>
+        <v>1051</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>90</v>
@@ -4330,7 +4331,7 @@
     </row>
     <row r="59" customHeight="1" spans="3:12">
       <c r="C59" s="6">
-        <v>53</v>
+        <v>1052</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>91</v>
@@ -4363,7 +4364,7 @@
     </row>
     <row r="60" customHeight="1" spans="3:12">
       <c r="C60" s="6">
-        <v>54</v>
+        <v>1053</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>92</v>
@@ -4396,7 +4397,7 @@
     </row>
     <row r="61" customHeight="1" spans="3:12">
       <c r="C61" s="6">
-        <v>55</v>
+        <v>1054</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>93</v>
@@ -4429,7 +4430,7 @@
     </row>
     <row r="62" customHeight="1" spans="3:12">
       <c r="C62" s="6">
-        <v>56</v>
+        <v>1055</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>94</v>
@@ -4462,7 +4463,7 @@
     </row>
     <row r="63" customHeight="1" spans="3:12">
       <c r="C63" s="6">
-        <v>57</v>
+        <v>1056</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>95</v>
@@ -4495,7 +4496,7 @@
     </row>
     <row r="64" customHeight="1" spans="3:12">
       <c r="C64" s="6">
-        <v>58</v>
+        <v>1057</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>96</v>
@@ -4528,7 +4529,7 @@
     </row>
     <row r="65" customHeight="1" spans="3:12">
       <c r="C65" s="6">
-        <v>59</v>
+        <v>1058</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>97</v>
@@ -4561,7 +4562,7 @@
     </row>
     <row r="66" customHeight="1" spans="3:12">
       <c r="C66" s="6">
-        <v>60</v>
+        <v>1059</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>98</v>
@@ -4594,7 +4595,7 @@
     </row>
     <row r="67" customHeight="1" spans="3:12">
       <c r="C67" s="6">
-        <v>61</v>
+        <v>1060</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>99</v>
@@ -4627,7 +4628,7 @@
     </row>
     <row r="68" customHeight="1" spans="3:12">
       <c r="C68" s="6">
-        <v>62</v>
+        <v>1061</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>101</v>
@@ -4660,7 +4661,7 @@
     </row>
     <row r="69" customHeight="1" spans="3:12">
       <c r="C69" s="6">
-        <v>63</v>
+        <v>1062</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>102</v>
@@ -4693,7 +4694,7 @@
     </row>
     <row r="70" customHeight="1" spans="3:12">
       <c r="C70" s="6">
-        <v>64</v>
+        <v>1063</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>103</v>
@@ -4726,7 +4727,7 @@
     </row>
     <row r="71" customHeight="1" spans="3:12">
       <c r="C71" s="6">
-        <v>65</v>
+        <v>1064</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>104</v>
@@ -4759,7 +4760,7 @@
     </row>
     <row r="72" customHeight="1" spans="3:12">
       <c r="C72" s="6">
-        <v>66</v>
+        <v>1065</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>105</v>
@@ -4792,7 +4793,7 @@
     </row>
     <row r="73" customHeight="1" spans="3:12">
       <c r="C73" s="6">
-        <v>67</v>
+        <v>1066</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>106</v>
@@ -4825,7 +4826,7 @@
     </row>
     <row r="74" customHeight="1" spans="3:12">
       <c r="C74" s="6">
-        <v>68</v>
+        <v>1067</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>107</v>
@@ -4858,7 +4859,7 @@
     </row>
     <row r="75" customHeight="1" spans="3:12">
       <c r="C75" s="6">
-        <v>69</v>
+        <v>1068</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>108</v>
@@ -4891,7 +4892,7 @@
     </row>
     <row r="76" customHeight="1" spans="3:12">
       <c r="C76" s="6">
-        <v>70</v>
+        <v>1069</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>109</v>
@@ -4924,7 +4925,7 @@
     </row>
     <row r="77" customHeight="1" spans="3:12">
       <c r="C77" s="6">
-        <v>71</v>
+        <v>1070</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>110</v>
@@ -4957,7 +4958,7 @@
     </row>
     <row r="78" customHeight="1" spans="3:12">
       <c r="C78" s="6">
-        <v>72</v>
+        <v>1071</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>112</v>
@@ -4990,7 +4991,7 @@
     </row>
     <row r="79" customHeight="1" spans="3:12">
       <c r="C79" s="6">
-        <v>73</v>
+        <v>1072</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>113</v>
@@ -5023,7 +5024,7 @@
     </row>
     <row r="80" customHeight="1" spans="3:12">
       <c r="C80" s="6">
-        <v>74</v>
+        <v>1073</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>114</v>
@@ -5056,7 +5057,7 @@
     </row>
     <row r="81" customHeight="1" spans="3:12">
       <c r="C81" s="6">
-        <v>75</v>
+        <v>1074</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>115</v>
@@ -5089,7 +5090,7 @@
     </row>
     <row r="82" customHeight="1" spans="3:12">
       <c r="C82" s="6">
-        <v>76</v>
+        <v>1075</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>116</v>
@@ -5122,7 +5123,7 @@
     </row>
     <row r="83" customHeight="1" spans="3:12">
       <c r="C83" s="6">
-        <v>77</v>
+        <v>1076</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>117</v>
@@ -5155,7 +5156,7 @@
     </row>
     <row r="84" customHeight="1" spans="3:12">
       <c r="C84" s="6">
-        <v>78</v>
+        <v>1077</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>118</v>
@@ -5188,7 +5189,7 @@
     </row>
     <row r="85" customHeight="1" spans="3:12">
       <c r="C85" s="6">
-        <v>79</v>
+        <v>1078</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>119</v>
@@ -5221,7 +5222,7 @@
     </row>
     <row r="86" customHeight="1" spans="3:12">
       <c r="C86" s="6">
-        <v>80</v>
+        <v>1079</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>120</v>
@@ -5254,7 +5255,7 @@
     </row>
     <row r="87" customHeight="1" spans="3:12">
       <c r="C87" s="6">
-        <v>81</v>
+        <v>1080</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>121</v>
@@ -5287,7 +5288,7 @@
     </row>
     <row r="88" customHeight="1" spans="3:12">
       <c r="C88" s="6">
-        <v>82</v>
+        <v>1081</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>123</v>
@@ -5320,7 +5321,7 @@
     </row>
     <row r="89" customHeight="1" spans="3:12">
       <c r="C89" s="6">
-        <v>83</v>
+        <v>1082</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>124</v>
@@ -5353,7 +5354,7 @@
     </row>
     <row r="90" customHeight="1" spans="3:12">
       <c r="C90" s="6">
-        <v>84</v>
+        <v>1083</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>125</v>
@@ -5386,7 +5387,7 @@
     </row>
     <row r="91" customHeight="1" spans="3:12">
       <c r="C91" s="6">
-        <v>85</v>
+        <v>1084</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>126</v>
@@ -5419,7 +5420,7 @@
     </row>
     <row r="92" customHeight="1" spans="3:12">
       <c r="C92" s="6">
-        <v>86</v>
+        <v>1085</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>127</v>
@@ -5452,7 +5453,7 @@
     </row>
     <row r="93" customHeight="1" spans="3:12">
       <c r="C93" s="6">
-        <v>87</v>
+        <v>1086</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>128</v>
@@ -5485,7 +5486,7 @@
     </row>
     <row r="94" customHeight="1" spans="3:12">
       <c r="C94" s="6">
-        <v>88</v>
+        <v>1087</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>129</v>
@@ -5518,7 +5519,7 @@
     </row>
     <row r="95" customHeight="1" spans="3:12">
       <c r="C95" s="6">
-        <v>89</v>
+        <v>1088</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>130</v>
@@ -5551,7 +5552,7 @@
     </row>
     <row r="96" customHeight="1" spans="3:12">
       <c r="C96" s="6">
-        <v>90</v>
+        <v>1089</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>131</v>

--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -13,8 +13,63 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目前需要等于item物品表id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+此处是1级的属性
+装备成长用公式做。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="134">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -22,7 +77,8 @@
     <t>装备id</t>
   </si>
   <si>
-    <t>对应att表id</t>
+    <t>1级的属性
+对应att表id</t>
   </si>
   <si>
     <t>0: 武器 @@ -33,9 +89,15 @@
 3: 饰品</t>
   </si>
   <si>
+    <t>对应att表id</t>
+  </si>
+  <si>
     <t>此列由前5列自动生成，不用填写</t>
   </si>
   <si>
+    <t>对应CostLoot表</t>
+  </si>
+  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -138,7 +200,7 @@
     <t>单手剑1</t>
   </si>
   <si>
-    <t>8</t>
+    <t>2001</t>
   </si>
   <si>
     <t>单手剑2</t>
@@ -321,7 +383,7 @@
     <t>衣服1</t>
   </si>
   <si>
-    <t>9</t>
+    <t>2002</t>
   </si>
   <si>
     <t>衣服2</t>
@@ -354,7 +416,7 @@
     <t>裤子1</t>
   </si>
   <si>
-    <t>10</t>
+    <t>2003</t>
   </si>
   <si>
     <t>裤子2</t>
@@ -387,7 +449,7 @@
     <t>饰品1</t>
   </si>
   <si>
-    <t>11</t>
+    <t>2004</t>
   </si>
   <si>
     <t>饰品2</t>
@@ -422,12 +484,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -448,16 +510,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,9 +537,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,11 +551,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,18 +574,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,39 +590,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,8 +614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,7 +624,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,6 +650,25 @@
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -625,13 +698,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,13 +776,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,43 +824,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,67 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,6 +908,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -849,17 +937,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,11 +966,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,32 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -934,148 +1007,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2297,18 +2370,20 @@
   <sheetPr/>
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C96"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:W96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.85" style="1" customWidth="1"/>
-    <col min="2" max="4" width="19.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.54166666666667" style="1" customWidth="1"/>
     <col min="7" max="11" width="12.925" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="1" customWidth="1"/>
     <col min="13" max="17" width="15.3833333333333" style="1" customWidth="1"/>
     <col min="18" max="18" width="24.15" style="1" customWidth="1"/>
     <col min="19" max="23" width="11.4583333333333" style="1" customWidth="1"/>
@@ -2348,7 +2423,7 @@
     <row r="2" ht="57" spans="1:24">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -2359,14 +2434,14 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -2374,33 +2449,35 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:24">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2408,7 +2485,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2416,7 +2493,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -2424,89 +2501,89 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:24">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:24">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2532,19 +2609,19 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:24">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -2552,7 +2629,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2560,7 +2637,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
@@ -2568,44 +2645,44 @@
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:24">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6">
         <v>1000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6">
         <v>0</v>
       </c>
       <c r="G7" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H7" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I7" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J7" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K7" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L7" s="6" t="str">
         <f>G7&amp;","&amp;H7&amp;","&amp;I7&amp;","&amp;J7&amp;","&amp;K7</f>
-        <v>12,13,14,15,16</v>
+        <v>2010,2011,2012,2013,2014</v>
       </c>
       <c r="M7" s="6">
         <v>1100011</v>
@@ -2627,2960 +2704,6342 @@
         <v>1100011,1100012,-1,-1,-1</v>
       </c>
       <c r="S7" s="6">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="T7" s="6">
-        <v>2</v>
+        <v>1201</v>
       </c>
       <c r="U7" s="6">
-        <v>-1</v>
+        <v>1202</v>
       </c>
       <c r="V7" s="6">
-        <v>-1</v>
+        <v>1203</v>
       </c>
       <c r="W7" s="6">
-        <v>-1</v>
+        <v>1204</v>
       </c>
       <c r="X7" s="6" t="str">
         <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
-        <v>1,2,-1,-1,-1</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:12">
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:24">
       <c r="C8" s="6">
         <v>1001</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H8" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I8" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J8" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K8" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L8" s="6" t="str">
         <f t="shared" ref="L8:L39" si="0">G8&amp;","&amp;H8&amp;","&amp;I8&amp;","&amp;J8&amp;","&amp;K8</f>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N8" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="6" t="str">
+        <f t="shared" ref="R8:R39" si="1">M8&amp;","&amp;N8&amp;","&amp;O8&amp;","&amp;P8&amp;","&amp;Q8</f>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S8" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T8" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U8" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V8" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X8" s="6" t="str">
+        <f t="shared" ref="X8:X39" si="2">S8&amp;","&amp;T8&amp;","&amp;U8&amp;","&amp;V8&amp;","&amp;W8</f>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:24">
       <c r="C9" s="6">
         <v>1002</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
       <c r="G9" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H9" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I9" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J9" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K9" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U9" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V9" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:24">
       <c r="C10" s="6">
         <v>1003</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H10" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I10" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J10" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K10" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V10" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W10" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:24">
       <c r="C11" s="6">
         <v>1004</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
       <c r="G11" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H11" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I11" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J11" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K11" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S11" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T11" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U11" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V11" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X11" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:24">
       <c r="C12" s="6">
         <v>1005</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H12" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I12" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J12" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K12" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S12" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T12" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U12" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V12" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W12" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X12" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:24">
       <c r="C13" s="6">
         <v>1006</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="G13" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H13" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I13" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J13" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K13" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T13" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U13" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V13" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W13" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:24">
       <c r="C14" s="6">
         <v>1007</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H14" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I14" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J14" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K14" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T14" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V14" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W14" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:24">
       <c r="C15" s="6">
         <v>1008</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="6">
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H15" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I15" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J15" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K15" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S15" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T15" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U15" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V15" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W15" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:24">
       <c r="C16" s="6">
         <v>1009</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H16" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I16" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J16" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K16" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U16" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V16" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W16" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:24">
       <c r="C17" s="6">
         <v>1010</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
       </c>
       <c r="G17" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H17" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I17" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J17" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K17" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N17" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U17" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V17" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W17" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:24">
       <c r="C18" s="6">
         <v>1011</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H18" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I18" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J18" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K18" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T18" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U18" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V18" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W18" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:24">
       <c r="C19" s="6">
         <v>1012</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H19" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I19" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J19" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K19" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S19" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T19" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U19" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W19" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:24">
       <c r="C20" s="6">
         <v>1013</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H20" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I20" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J20" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K20" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S20" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U20" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X20" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:24">
       <c r="C21" s="6">
         <v>1014</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H21" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I21" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J21" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K21" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T21" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U21" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V21" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W21" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X21" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:24">
       <c r="C22" s="6">
         <v>1015</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H22" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I22" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J22" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K22" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T22" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U22" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V22" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W22" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X22" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:24">
       <c r="C23" s="6">
         <v>1016</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H23" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I23" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J23" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K23" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U23" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V23" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X23" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:24">
       <c r="C24" s="6">
         <v>1017</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H24" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I24" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J24" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K24" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U24" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V24" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X24" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:24">
       <c r="C25" s="6">
         <v>1018</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H25" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I25" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J25" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K25" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T25" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U25" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V25" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W25" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:24">
       <c r="C26" s="6">
         <v>1019</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H26" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I26" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J26" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K26" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S26" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T26" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U26" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V26" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W26" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X26" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:24">
       <c r="C27" s="6">
         <v>1020</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
       </c>
       <c r="G27" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H27" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I27" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J27" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K27" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M27" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N27" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S27" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T27" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U27" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V27" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W27" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X27" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="3:24">
       <c r="C28" s="6">
         <v>1021</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H28" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I28" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J28" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K28" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M28" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N28" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T28" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U28" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V28" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W28" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X28" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="3:24">
       <c r="C29" s="6">
         <v>1022</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H29" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I29" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J29" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K29" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M29" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N29" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S29" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T29" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U29" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V29" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W29" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X29" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="3:24">
       <c r="C30" s="6">
         <v>1023</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H30" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I30" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J30" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K30" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M30" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N30" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S30" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T30" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U30" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V30" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W30" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X30" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="3:24">
       <c r="C31" s="6">
         <v>1024</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H31" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I31" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J31" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K31" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M31" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N31" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S31" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T31" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U31" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V31" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W31" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="3:24">
       <c r="C32" s="6">
         <v>1025</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H32" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I32" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J32" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K32" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M32" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N32" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S32" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T32" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U32" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V32" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W32" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X32" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:24">
       <c r="C33" s="6">
         <v>1026</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
       <c r="G33" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H33" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I33" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J33" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K33" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M33" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N33" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S33" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T33" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U33" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V33" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W33" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X33" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:24">
       <c r="C34" s="6">
         <v>1027</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H34" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I34" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J34" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K34" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M34" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N34" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S34" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T34" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U34" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V34" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W34" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X34" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:24">
       <c r="C35" s="6">
         <v>1028</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35" s="6">
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H35" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I35" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J35" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K35" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M35" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N35" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S35" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T35" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U35" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V35" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W35" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X35" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:24">
       <c r="C36" s="6">
         <v>1029</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F36" s="6">
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H36" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I36" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J36" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K36" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M36" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S36" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T36" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U36" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V36" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W36" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X36" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:24">
       <c r="C37" s="6">
         <v>1030</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
       </c>
       <c r="G37" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H37" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I37" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J37" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K37" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M37" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N37" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S37" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T37" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U37" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V37" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W37" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X37" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:24">
       <c r="C38" s="6">
         <v>1031</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H38" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I38" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J38" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K38" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:12">
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N38" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S38" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T38" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U38" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V38" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W38" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X38" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:24">
       <c r="C39" s="6">
         <v>1032</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
       <c r="G39" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H39" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I39" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J39" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K39" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:12">
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M39" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N39" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S39" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T39" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U39" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V39" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W39" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X39" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:24">
       <c r="C40" s="6">
         <v>1033</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F40" s="6">
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H40" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I40" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J40" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K40" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L40" s="6" t="str">
-        <f t="shared" ref="L40:L71" si="1">G40&amp;","&amp;H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40</f>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:12">
+        <f t="shared" ref="L40:L71" si="3">G40&amp;","&amp;H40&amp;","&amp;I40&amp;","&amp;J40&amp;","&amp;K40</f>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M40" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N40" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="6" t="str">
+        <f t="shared" ref="R40:R71" si="4">M40&amp;","&amp;N40&amp;","&amp;O40&amp;","&amp;P40&amp;","&amp;Q40</f>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S40" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T40" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U40" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V40" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W40" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X40" s="6" t="str">
+        <f t="shared" ref="X40:X71" si="5">S40&amp;","&amp;T40&amp;","&amp;U40&amp;","&amp;V40&amp;","&amp;W40</f>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:24">
       <c r="C41" s="6">
         <v>1034</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" s="6">
         <v>0</v>
       </c>
       <c r="G41" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H41" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I41" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J41" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K41" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N41" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S41" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T41" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U41" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V41" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W41" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X41" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:24">
       <c r="C42" s="6">
         <v>1035</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H42" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I42" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J42" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K42" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M42" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N42" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S42" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T42" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U42" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V42" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W42" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X42" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="3:24">
       <c r="C43" s="6">
         <v>1036</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
       </c>
       <c r="G43" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H43" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I43" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J43" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K43" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M43" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N43" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R43" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S43" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T43" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U43" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V43" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W43" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X43" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="3:24">
       <c r="C44" s="6">
         <v>1037</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H44" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I44" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J44" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K44" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M44" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N44" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R44" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S44" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T44" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U44" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V44" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W44" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X44" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="3:24">
       <c r="C45" s="6">
         <v>1038</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F45" s="6">
         <v>0</v>
       </c>
       <c r="G45" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H45" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I45" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J45" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K45" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M45" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N45" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S45" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T45" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U45" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V45" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W45" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X45" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:24">
       <c r="C46" s="6">
         <v>1039</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F46" s="6">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H46" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I46" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J46" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K46" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M46" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N46" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S46" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T46" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U46" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V46" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W46" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X46" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:24">
       <c r="C47" s="6">
         <v>1040</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
       </c>
       <c r="G47" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H47" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I47" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J47" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K47" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M47" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R47" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S47" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T47" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U47" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V47" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W47" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X47" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:24">
       <c r="C48" s="6">
         <v>1041</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F48" s="6">
         <v>0</v>
       </c>
       <c r="G48" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H48" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I48" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J48" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K48" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M48" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N48" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R48" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S48" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T48" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U48" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V48" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W48" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X48" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:24">
       <c r="C49" s="6">
         <v>1042</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H49" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I49" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J49" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K49" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M49" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N49" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R49" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S49" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T49" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U49" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V49" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W49" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X49" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:24">
       <c r="C50" s="6">
         <v>1043</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F50" s="6">
         <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H50" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I50" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J50" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K50" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M50" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R50" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S50" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T50" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U50" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V50" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W50" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X50" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:24">
       <c r="C51" s="6">
         <v>1044</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
       </c>
       <c r="G51" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H51" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I51" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J51" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K51" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M51" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N51" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R51" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S51" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T51" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U51" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V51" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W51" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X51" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:24">
       <c r="C52" s="6">
         <v>1045</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F52" s="6">
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H52" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I52" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J52" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K52" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M52" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N52" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R52" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S52" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T52" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U52" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V52" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W52" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X52" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:24">
       <c r="C53" s="6">
         <v>1046</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F53" s="6">
         <v>0</v>
       </c>
       <c r="G53" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H53" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I53" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J53" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K53" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N53" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q53" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R53" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S53" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T53" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U53" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V53" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W53" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X53" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:24">
       <c r="C54" s="6">
         <v>1047</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F54" s="6">
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H54" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I54" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J54" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K54" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M54" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N54" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q54" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R54" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S54" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T54" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U54" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V54" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W54" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X54" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:24">
       <c r="C55" s="6">
         <v>1048</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
       </c>
       <c r="G55" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H55" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I55" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J55" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K55" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N55" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R55" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S55" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T55" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U55" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V55" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W55" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X55" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:24">
       <c r="C56" s="6">
         <v>1049</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H56" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I56" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J56" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K56" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M56" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N56" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q56" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R56" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S56" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T56" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U56" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V56" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W56" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X56" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:24">
       <c r="C57" s="6">
         <v>1050</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
       </c>
       <c r="G57" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H57" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I57" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J57" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K57" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M57" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N57" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q57" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R57" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S57" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T57" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U57" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V57" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W57" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X57" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="3:24">
       <c r="C58" s="6">
         <v>1051</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F58" s="6">
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H58" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I58" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J58" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K58" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M58" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R58" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S58" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T58" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U58" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V58" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W58" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X58" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="3:24">
       <c r="C59" s="6">
         <v>1052</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
       </c>
       <c r="G59" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H59" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I59" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J59" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K59" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M59" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N59" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R59" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S59" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T59" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U59" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V59" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W59" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X59" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:24">
       <c r="C60" s="6">
         <v>1053</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60" s="6">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H60" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I60" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J60" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K60" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M60" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N60" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R60" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S60" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T60" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U60" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V60" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W60" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X60" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:24">
       <c r="C61" s="6">
         <v>1054</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
       </c>
       <c r="G61" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H61" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I61" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J61" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K61" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M61" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N61" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R61" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S61" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T61" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U61" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V61" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W61" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X61" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:24">
       <c r="C62" s="6">
         <v>1055</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F62" s="6">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H62" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I62" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J62" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K62" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M62" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R62" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S62" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T62" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U62" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V62" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W62" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X62" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:24">
       <c r="C63" s="6">
         <v>1056</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F63" s="6">
         <v>0</v>
       </c>
       <c r="G63" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H63" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I63" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J63" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K63" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L63" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M63" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N63" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q63" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R63" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S63" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T63" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U63" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V63" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W63" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X63" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:24">
       <c r="C64" s="6">
         <v>1057</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F64" s="6">
         <v>0</v>
       </c>
       <c r="G64" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H64" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I64" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J64" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K64" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L64" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M64" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N64" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R64" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S64" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T64" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U64" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V64" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W64" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X64" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:24">
       <c r="C65" s="6">
         <v>1058</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F65" s="6">
         <v>0</v>
       </c>
       <c r="G65" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H65" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I65" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J65" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K65" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L65" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M65" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N65" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R65" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S65" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T65" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U65" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V65" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W65" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X65" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:24">
       <c r="C66" s="6">
         <v>1059</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F66" s="6">
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H66" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I66" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J66" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K66" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L66" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M66" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N66" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R66" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S66" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T66" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U66" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V66" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W66" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X66" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:24">
       <c r="C67" s="6">
         <v>1060</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F67" s="6">
         <v>1</v>
       </c>
       <c r="G67" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H67" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I67" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J67" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K67" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L67" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M67" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N67" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q67" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R67" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S67" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T67" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U67" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V67" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W67" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X67" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:24">
       <c r="C68" s="6">
         <v>1061</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F68" s="6">
         <v>1</v>
       </c>
       <c r="G68" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H68" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I68" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J68" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K68" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L68" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M68" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N68" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R68" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S68" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T68" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U68" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V68" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W68" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X68" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:24">
       <c r="C69" s="6">
         <v>1062</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
       </c>
       <c r="G69" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H69" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I69" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J69" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K69" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L69" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M69" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N69" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R69" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S69" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T69" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U69" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V69" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W69" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X69" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:24">
       <c r="C70" s="6">
         <v>1063</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F70" s="6">
         <v>1</v>
       </c>
       <c r="G70" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H70" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I70" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J70" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K70" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L70" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M70" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R70" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S70" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T70" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U70" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V70" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W70" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X70" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:24">
       <c r="C71" s="6">
         <v>1064</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F71" s="6">
         <v>1</v>
       </c>
       <c r="G71" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H71" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I71" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J71" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K71" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L71" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:12">
+        <f t="shared" si="3"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M71" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N71" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R71" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S71" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T71" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U71" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V71" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W71" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X71" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:24">
       <c r="C72" s="6">
         <v>1065</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F72" s="6">
         <v>1</v>
       </c>
       <c r="G72" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H72" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I72" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J72" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K72" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L72" s="6" t="str">
-        <f t="shared" ref="L72:L96" si="2">G72&amp;","&amp;H72&amp;","&amp;I72&amp;","&amp;J72&amp;","&amp;K72</f>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:12">
+        <f t="shared" ref="L72:L96" si="6">G72&amp;","&amp;H72&amp;","&amp;I72&amp;","&amp;J72&amp;","&amp;K72</f>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M72" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R72" s="6" t="str">
+        <f t="shared" ref="R72:R96" si="7">M72&amp;","&amp;N72&amp;","&amp;O72&amp;","&amp;P72&amp;","&amp;Q72</f>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S72" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T72" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U72" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V72" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W72" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X72" s="6" t="str">
+        <f t="shared" ref="X72:X96" si="8">S72&amp;","&amp;T72&amp;","&amp;U72&amp;","&amp;V72&amp;","&amp;W72</f>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:24">
       <c r="C73" s="6">
         <v>1066</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F73" s="6">
         <v>1</v>
       </c>
       <c r="G73" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H73" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I73" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J73" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K73" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L73" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M73" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N73" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R73" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S73" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T73" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U73" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V73" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W73" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X73" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:24">
       <c r="C74" s="6">
         <v>1067</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F74" s="6">
         <v>1</v>
       </c>
       <c r="G74" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H74" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I74" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J74" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K74" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L74" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M74" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R74" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S74" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T74" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U74" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V74" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W74" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X74" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:24">
       <c r="C75" s="6">
         <v>1068</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F75" s="6">
         <v>1</v>
       </c>
       <c r="G75" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H75" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I75" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J75" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K75" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L75" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M75" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N75" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R75" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S75" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T75" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U75" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V75" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W75" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X75" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:24">
       <c r="C76" s="6">
         <v>1069</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F76" s="6">
         <v>1</v>
       </c>
       <c r="G76" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H76" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I76" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J76" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K76" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L76" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M76" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N76" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q76" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R76" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S76" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T76" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U76" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V76" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W76" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X76" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:24">
       <c r="C77" s="6">
         <v>1070</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F77" s="1">
         <v>2</v>
       </c>
       <c r="G77" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H77" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I77" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J77" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K77" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L77" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M77" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N77" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q77" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R77" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S77" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T77" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U77" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V77" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W77" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X77" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:24">
       <c r="C78" s="6">
         <v>1071</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F78" s="1">
         <v>2</v>
       </c>
       <c r="G78" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H78" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I78" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J78" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K78" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L78" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M78" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N78" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q78" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R78" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S78" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T78" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U78" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V78" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W78" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X78" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:24">
       <c r="C79" s="6">
         <v>1072</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H79" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I79" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J79" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K79" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L79" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M79" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N79" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q79" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R79" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S79" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T79" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U79" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V79" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W79" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X79" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:24">
       <c r="C80" s="6">
         <v>1073</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
       </c>
       <c r="G80" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H80" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I80" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J80" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K80" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L80" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M80" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q80" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R80" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S80" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T80" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U80" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V80" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W80" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X80" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:24">
       <c r="C81" s="6">
         <v>1074</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F81" s="1">
         <v>2</v>
       </c>
       <c r="G81" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H81" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I81" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J81" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K81" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L81" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M81" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N81" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R81" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S81" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T81" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U81" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V81" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W81" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X81" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:24">
       <c r="C82" s="6">
         <v>1075</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F82" s="1">
         <v>2</v>
       </c>
       <c r="G82" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H82" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I82" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J82" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K82" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L82" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M82" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N82" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R82" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S82" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T82" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U82" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V82" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W82" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X82" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:24">
       <c r="C83" s="6">
         <v>1076</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F83" s="1">
         <v>2</v>
       </c>
       <c r="G83" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H83" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I83" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J83" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K83" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L83" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M83" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N83" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R83" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S83" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T83" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U83" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V83" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W83" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X83" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:24">
       <c r="C84" s="6">
         <v>1077</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F84" s="1">
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H84" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I84" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J84" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K84" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L84" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M84" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N84" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q84" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R84" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S84" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T84" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U84" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V84" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W84" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X84" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:24">
       <c r="C85" s="6">
         <v>1078</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F85" s="1">
         <v>2</v>
       </c>
       <c r="G85" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H85" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I85" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J85" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K85" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L85" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M85" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N85" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R85" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S85" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T85" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U85" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V85" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W85" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X85" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:24">
       <c r="C86" s="6">
         <v>1079</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F86" s="1">
         <v>2</v>
       </c>
       <c r="G86" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H86" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I86" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J86" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K86" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L86" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M86" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N86" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R86" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S86" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T86" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U86" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V86" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W86" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X86" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:24">
       <c r="C87" s="6">
         <v>1080</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F87" s="1">
         <v>3</v>
       </c>
       <c r="G87" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H87" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I87" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J87" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K87" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L87" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M87" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N87" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R87" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S87" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T87" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U87" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V87" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W87" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X87" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:24">
       <c r="C88" s="6">
         <v>1081</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F88" s="1">
         <v>3</v>
       </c>
       <c r="G88" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H88" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I88" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J88" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K88" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L88" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M88" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N88" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R88" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S88" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T88" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U88" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V88" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W88" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X88" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:24">
       <c r="C89" s="6">
         <v>1082</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="F89" s="1">
         <v>3</v>
       </c>
       <c r="G89" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H89" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I89" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J89" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K89" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L89" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M89" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N89" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R89" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S89" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T89" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U89" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V89" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W89" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X89" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:24">
       <c r="C90" s="6">
         <v>1083</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F90" s="1">
         <v>3</v>
       </c>
       <c r="G90" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H90" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I90" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J90" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K90" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L90" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M90" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N90" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q90" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R90" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S90" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T90" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U90" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V90" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W90" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X90" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:24">
       <c r="C91" s="6">
         <v>1084</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F91" s="1">
         <v>3</v>
       </c>
       <c r="G91" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H91" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I91" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J91" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K91" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L91" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M91" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N91" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q91" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R91" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S91" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T91" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U91" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V91" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W91" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X91" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="3:24">
       <c r="C92" s="6">
         <v>1085</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F92" s="1">
         <v>3</v>
       </c>
       <c r="G92" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H92" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I92" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J92" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K92" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L92" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M92" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N92" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R92" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S92" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T92" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U92" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V92" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W92" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X92" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="3:24">
       <c r="C93" s="6">
         <v>1086</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F93" s="1">
         <v>3</v>
       </c>
       <c r="G93" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H93" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I93" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J93" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K93" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L93" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M93" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N93" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q93" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R93" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S93" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T93" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U93" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V93" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W93" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X93" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:24">
       <c r="C94" s="6">
         <v>1087</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F94" s="1">
         <v>3</v>
       </c>
       <c r="G94" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H94" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I94" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J94" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K94" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L94" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M94" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N94" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q94" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R94" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S94" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T94" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U94" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V94" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W94" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X94" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:24">
       <c r="C95" s="6">
         <v>1088</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F95" s="1">
         <v>3</v>
       </c>
       <c r="G95" s="6">
-        <v>12</v>
+        <v>2010</v>
       </c>
       <c r="H95" s="6">
-        <v>13</v>
+        <v>2011</v>
       </c>
       <c r="I95" s="6">
-        <v>14</v>
+        <v>2012</v>
       </c>
       <c r="J95" s="6">
-        <v>15</v>
+        <v>2013</v>
       </c>
       <c r="K95" s="6">
-        <v>16</v>
+        <v>2014</v>
       </c>
       <c r="L95" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>12,13,14,15,16</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:12">
+        <f t="shared" si="6"/>
+        <v>2010,2011,2012,2013,2014</v>
+      </c>
+      <c r="M95" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N95" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q95" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R95" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S95" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T95" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U95" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V95" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W95" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X95" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:24">
       <c r="C96" s="6">
         <v>1089</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F96" s="1">
         <v>3</v>
       </c>
       <c r="G96" s="1">
-        <v>17</v>
+        <v>2020</v>
       </c>
       <c r="H96" s="1">
-        <v>18</v>
+        <v>2021</v>
       </c>
       <c r="I96" s="1">
-        <v>19</v>
+        <v>2022</v>
       </c>
       <c r="J96" s="1">
-        <v>20</v>
+        <v>2023</v>
       </c>
       <c r="K96" s="1">
-        <v>21</v>
+        <v>2024</v>
       </c>
       <c r="L96" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>17,18,19,20,21</v>
+        <f t="shared" si="6"/>
+        <v>2020,2021,2022,2023,2024</v>
+      </c>
+      <c r="M96" s="6">
+        <v>1100011</v>
+      </c>
+      <c r="N96" s="6">
+        <v>1100012</v>
+      </c>
+      <c r="O96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="P96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Q96" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R96" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="S96" s="6">
+        <v>1200</v>
+      </c>
+      <c r="T96" s="6">
+        <v>1201</v>
+      </c>
+      <c r="U96" s="6">
+        <v>1202</v>
+      </c>
+      <c r="V96" s="6">
+        <v>1203</v>
+      </c>
+      <c r="W96" s="6">
+        <v>1204</v>
+      </c>
+      <c r="X96" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>1200,1201,1202,1203,1204</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="5:5">
@@ -5604,5 +9063,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/global/EquipEnchant.xlsx
+++ b/global/EquipEnchant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="EquipEnchant" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -144,12 +144,15 @@
 3: 饰品</t>
   </si>
   <si>
+    <t>此列由前7列自动生成，不用填写</t>
+  </si>
+  <si>
+    <t>对应CostLoot表</t>
+  </si>
+  <si>
     <t>此列由前6列自动生成，不用填写</t>
   </si>
   <si>
-    <t>对应CostLoot表</t>
-  </si>
-  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -171,7 +174,7 @@
     <t>equipPos</t>
   </si>
   <si>
-    <t>promoteSpellId</t>
+    <t>starupSkillId</t>
   </si>
   <si>
     <t>promoteCostId</t>
@@ -195,25 +198,28 @@
     <t>装备位置</t>
   </si>
   <si>
-    <t>突破0被动技能id</t>
-  </si>
-  <si>
-    <t>突破1被动技能id</t>
-  </si>
-  <si>
-    <t>突破2被动技能id</t>
-  </si>
-  <si>
-    <t>突破3被动技能id</t>
-  </si>
-  <si>
-    <t>突破4被动技能id</t>
-  </si>
-  <si>
-    <t>突破5被动技能id</t>
-  </si>
-  <si>
-    <t>装备突破被动技能</t>
+    <t>升星0被动技能id</t>
+  </si>
+  <si>
+    <t>升星1被动技能id</t>
+  </si>
+  <si>
+    <t>升星2被动技能id</t>
+  </si>
+  <si>
+    <t>升星3被动技能id</t>
+  </si>
+  <si>
+    <t>升星4被动技能id</t>
+  </si>
+  <si>
+    <t>升星5被动技能id</t>
+  </si>
+  <si>
+    <t>升星6被动技能id</t>
+  </si>
+  <si>
+    <t>装备升星被动技能</t>
   </si>
   <si>
     <t>突破1次消耗id</t>
@@ -836,12 +842,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -889,11 +895,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,44 +917,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,19 +933,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -979,24 +955,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,30 +979,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -1077,37 +1072,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,79 +1132,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,7 +1156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,7 +1174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,31 +1198,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,17 +1351,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,15 +1375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1410,13 +1390,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,157 +1431,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1609,9 +1604,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1630,6 +1622,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1645,54 +1640,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2840,12 +2835,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I22" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57:V66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.25" defaultRowHeight="13.35" customHeight="1"/>
@@ -2855,18 +2850,18 @@
     <col min="3" max="3" width="19.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.3833333333333" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.2333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.54166666666667" style="2" customWidth="1"/>
-    <col min="9" max="14" width="15.3833333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.15" style="2" customWidth="1"/>
-    <col min="16" max="22" width="11.4583333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="24.15" style="2" customWidth="1"/>
-    <col min="24" max="16368" width="19.25" style="2" customWidth="1"/>
-    <col min="16369" max="16384" width="19.25" style="2"/>
+    <col min="6" max="6" width="20.3846153846154" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.2307692307692" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.53846153846154" style="2" customWidth="1"/>
+    <col min="9" max="15" width="15.3846153846154" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.1538461538462" style="2" customWidth="1"/>
+    <col min="17" max="23" width="11.4615384615385" style="2" customWidth="1"/>
+    <col min="24" max="24" width="24.1538461538462" style="2" customWidth="1"/>
+    <col min="25" max="16369" width="19.25" style="2" customWidth="1"/>
+    <col min="16370" max="16384" width="19.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:23">
+    <row r="1" ht="16.8" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2892,8 +2887,9 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
     </row>
-    <row r="2" ht="54" spans="1:23">
+    <row r="2" ht="68" spans="1:24">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -2920,44 +2916,45 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="5"/>
+      <c r="P2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="18" t="s">
-        <v>6</v>
+      <c r="W2" s="5"/>
+      <c r="X2" s="18" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:23">
+    <row r="3" ht="16.15" customHeight="1" spans="1:24">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -2965,97 +2962,101 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
-        <v>16</v>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:23">
+    <row r="4" ht="16.15" customHeight="1" spans="1:24">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:23">
+    <row r="5" ht="16.15" customHeight="1" spans="1:24">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -3076,29 +3077,30 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:23">
+    <row r="6" ht="16.15" customHeight="1" spans="1:24">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -3106,23 +3108,24 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="6" t="s">
-        <v>43</v>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1" spans="1:23">
+    <row r="7" ht="16" customHeight="1" spans="1:24">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="8">
         <v>-1</v>
@@ -3131,16 +3134,16 @@
         <v>2000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="16" t="s">
         <v>48</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -3149,71 +3152,74 @@
         <v>-1</v>
       </c>
       <c r="J7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="9">
         <v>1100011</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="9">
         <v>1100012</v>
       </c>
-      <c r="L7" s="9">
-        <v>-1</v>
-      </c>
       <c r="M7" s="9">
         <v>-1</v>
       </c>
       <c r="N7" s="9">
         <v>-1</v>
       </c>
-      <c r="O7" s="9" t="str">
-        <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7</f>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P7" s="9">
+      <c r="O7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="9" t="str">
+        <f>I7&amp;","&amp;J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7&amp;","&amp;N7&amp;","&amp;O7</f>
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q7" s="9">
         <v>2010</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="R7" s="9">
         <v>2011</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <v>2012</v>
       </c>
-      <c r="S7" s="9">
+      <c r="T7" s="9">
         <v>2013</v>
       </c>
-      <c r="T7" s="9">
+      <c r="U7" s="9">
         <v>2014</v>
       </c>
-      <c r="U7" s="9">
+      <c r="V7" s="9">
         <v>2015</v>
       </c>
-      <c r="V7" s="9">
+      <c r="W7" s="9">
         <v>2016</v>
       </c>
-      <c r="W7" s="9" t="str">
-        <f>P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7</f>
+      <c r="X7" s="9" t="str">
+        <f>Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
         <v>2010,2011,2012,2013,2014,2015,2016</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:23">
-      <c r="A8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>50</v>
+    <row r="8" customHeight="1" spans="1:24">
+      <c r="A8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="9">
         <v>2001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="10" t="s">
         <v>53</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -3222,71 +3228,74 @@
         <v>-1</v>
       </c>
       <c r="J8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="9">
         <v>1100011</v>
       </c>
-      <c r="K8" s="9">
+      <c r="L8" s="9">
         <v>1100012</v>
       </c>
-      <c r="L8" s="9">
-        <v>-1</v>
-      </c>
       <c r="M8" s="9">
         <v>-1</v>
       </c>
       <c r="N8" s="9">
         <v>-1</v>
       </c>
-      <c r="O8" s="9" t="str">
-        <f t="shared" ref="O8:O39" si="0">I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8&amp;","&amp;N8</f>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P8" s="9">
+      <c r="O8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="9" t="str">
+        <f t="shared" ref="P8:P39" si="0">I8&amp;","&amp;J8&amp;","&amp;K8&amp;","&amp;L8&amp;","&amp;M8&amp;","&amp;N8&amp;","&amp;O8</f>
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q8" s="9">
         <v>2020</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="R8" s="9">
         <v>2021</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <v>2022</v>
       </c>
-      <c r="S8" s="9">
+      <c r="T8" s="9">
         <v>2023</v>
       </c>
-      <c r="T8" s="9">
+      <c r="U8" s="9">
         <v>2024</v>
       </c>
-      <c r="U8" s="9">
+      <c r="V8" s="9">
         <v>2025</v>
       </c>
-      <c r="V8" s="9">
+      <c r="W8" s="9">
         <v>2026</v>
       </c>
-      <c r="W8" s="9" t="str">
-        <f t="shared" ref="W8:W39" si="1">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8&amp;","&amp;U8&amp;","&amp;V8</f>
+      <c r="X8" s="9" t="str">
+        <f t="shared" ref="X8:X39" si="1">Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8&amp;","&amp;U8&amp;","&amp;V8&amp;","&amp;W8</f>
         <v>2020,2021,2022,2023,2024,2025,2026</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:23">
-      <c r="A9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>50</v>
+    <row r="9" customHeight="1" spans="1:24">
+      <c r="A9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C9" s="9">
         <v>2002</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="10" t="s">
         <v>56</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -3295,71 +3304,74 @@
         <v>-1</v>
       </c>
       <c r="J9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="9">
         <v>1100011</v>
       </c>
-      <c r="K9" s="9">
+      <c r="L9" s="9">
         <v>1100012</v>
       </c>
-      <c r="L9" s="9">
-        <v>-1</v>
-      </c>
       <c r="M9" s="9">
         <v>-1</v>
       </c>
       <c r="N9" s="9">
         <v>-1</v>
       </c>
-      <c r="O9" s="9" t="str">
+      <c r="O9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P9" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q9" s="9">
         <v>2020</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="R9" s="9">
         <v>2021</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S9" s="9">
         <v>2022</v>
       </c>
-      <c r="S9" s="9">
+      <c r="T9" s="9">
         <v>2023</v>
       </c>
-      <c r="T9" s="9">
+      <c r="U9" s="9">
         <v>2024</v>
       </c>
-      <c r="U9" s="9">
+      <c r="V9" s="9">
         <v>2025</v>
       </c>
-      <c r="V9" s="9">
+      <c r="W9" s="9">
         <v>2026</v>
       </c>
-      <c r="W9" s="9" t="str">
+      <c r="X9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2020,2021,2022,2023,2024,2025,2026</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:23">
-      <c r="A10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>50</v>
+    <row r="10" customHeight="1" spans="1:24">
+      <c r="A10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C10" s="9">
         <v>2003</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="10" t="s">
         <v>60</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -3368,71 +3380,74 @@
         <v>-1</v>
       </c>
       <c r="J10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="9">
         <v>1100011</v>
       </c>
-      <c r="K10" s="9">
+      <c r="L10" s="9">
         <v>1100012</v>
       </c>
-      <c r="L10" s="9">
-        <v>-1</v>
-      </c>
       <c r="M10" s="9">
         <v>-1</v>
       </c>
       <c r="N10" s="9">
         <v>-1</v>
       </c>
-      <c r="O10" s="9" t="str">
+      <c r="O10" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P10" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q10" s="9">
         <v>2030</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="R10" s="9">
         <v>2031</v>
       </c>
-      <c r="R10" s="9">
+      <c r="S10" s="9">
         <v>2032</v>
       </c>
-      <c r="S10" s="9">
+      <c r="T10" s="9">
         <v>2033</v>
       </c>
-      <c r="T10" s="9">
+      <c r="U10" s="9">
         <v>2034</v>
       </c>
-      <c r="U10" s="9">
+      <c r="V10" s="9">
         <v>2035</v>
       </c>
-      <c r="V10" s="9">
+      <c r="W10" s="9">
         <v>2036</v>
       </c>
-      <c r="W10" s="9" t="str">
+      <c r="X10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2030,2031,2032,2033,2034,2035,2036</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:23">
-      <c r="A11" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>61</v>
+    <row r="11" customHeight="1" spans="1:24">
+      <c r="A11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C11" s="9">
         <v>2004</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="10" t="s">
         <v>64</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
@@ -3441,71 +3456,74 @@
         <v>-1</v>
       </c>
       <c r="J11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="9">
         <v>1100011</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="9">
         <v>1100012</v>
       </c>
-      <c r="L11" s="9">
-        <v>-1</v>
-      </c>
       <c r="M11" s="9">
         <v>-1</v>
       </c>
       <c r="N11" s="9">
         <v>-1</v>
       </c>
-      <c r="O11" s="9" t="str">
+      <c r="O11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P11" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q11" s="9">
         <v>2030</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="R11" s="9">
         <v>2031</v>
       </c>
-      <c r="R11" s="9">
+      <c r="S11" s="9">
         <v>2032</v>
       </c>
-      <c r="S11" s="9">
+      <c r="T11" s="9">
         <v>2033</v>
       </c>
-      <c r="T11" s="9">
+      <c r="U11" s="9">
         <v>2034</v>
       </c>
-      <c r="U11" s="9">
+      <c r="V11" s="9">
         <v>2035</v>
       </c>
-      <c r="V11" s="9">
+      <c r="W11" s="9">
         <v>2036</v>
       </c>
-      <c r="W11" s="9" t="str">
+      <c r="X11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2030,2031,2032,2033,2034,2035,2036</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:23">
-      <c r="A12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>65</v>
+    <row r="12" customHeight="1" spans="1:24">
+      <c r="A12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="9">
         <v>2005</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="10" t="s">
         <v>68</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
@@ -3514,71 +3532,74 @@
         <v>-1</v>
       </c>
       <c r="J12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="9">
         <v>1100011</v>
       </c>
-      <c r="K12" s="9">
+      <c r="L12" s="9">
         <v>1100012</v>
       </c>
-      <c r="L12" s="9">
-        <v>-1</v>
-      </c>
       <c r="M12" s="9">
         <v>-1</v>
       </c>
       <c r="N12" s="9">
         <v>-1</v>
       </c>
-      <c r="O12" s="9" t="str">
+      <c r="O12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P12" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q12" s="9">
         <v>2030</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="R12" s="9">
         <v>2031</v>
       </c>
-      <c r="R12" s="9">
+      <c r="S12" s="9">
         <v>2032</v>
       </c>
-      <c r="S12" s="9">
+      <c r="T12" s="9">
         <v>2033</v>
       </c>
-      <c r="T12" s="9">
+      <c r="U12" s="9">
         <v>2034</v>
       </c>
-      <c r="U12" s="9">
+      <c r="V12" s="9">
         <v>2035</v>
       </c>
-      <c r="V12" s="9">
+      <c r="W12" s="9">
         <v>2036</v>
       </c>
-      <c r="W12" s="9" t="str">
+      <c r="X12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2030,2031,2032,2033,2034,2035,2036</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:23">
-      <c r="A13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>50</v>
+    <row r="13" customHeight="1" spans="1:24">
+      <c r="A13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="9">
         <v>2006</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="10" t="s">
         <v>71</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -3587,71 +3608,74 @@
         <v>-1</v>
       </c>
       <c r="J13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="9">
         <v>1100011</v>
       </c>
-      <c r="K13" s="9">
+      <c r="L13" s="9">
         <v>1100012</v>
       </c>
-      <c r="L13" s="9">
-        <v>-1</v>
-      </c>
       <c r="M13" s="9">
         <v>-1</v>
       </c>
       <c r="N13" s="9">
         <v>-1</v>
       </c>
-      <c r="O13" s="9" t="str">
+      <c r="O13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P13" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q13" s="9">
         <v>2030</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="R13" s="9">
         <v>2031</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S13" s="9">
         <v>2032</v>
       </c>
-      <c r="S13" s="9">
+      <c r="T13" s="9">
         <v>2033</v>
       </c>
-      <c r="T13" s="9">
+      <c r="U13" s="9">
         <v>2034</v>
       </c>
-      <c r="U13" s="9">
+      <c r="V13" s="9">
         <v>2035</v>
       </c>
-      <c r="V13" s="9">
+      <c r="W13" s="9">
         <v>2036</v>
       </c>
-      <c r="W13" s="9" t="str">
+      <c r="X13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2030,2031,2032,2033,2034,2035,2036</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:23">
-      <c r="A14" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>50</v>
+    <row r="14" customHeight="1" spans="1:24">
+      <c r="A14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="9">
         <v>2007</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="10" t="s">
         <v>75</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -3660,71 +3684,74 @@
         <v>-1</v>
       </c>
       <c r="J14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="9">
         <v>1100011</v>
       </c>
-      <c r="K14" s="9">
+      <c r="L14" s="9">
         <v>1100012</v>
       </c>
-      <c r="L14" s="9">
-        <v>-1</v>
-      </c>
       <c r="M14" s="9">
         <v>-1</v>
       </c>
       <c r="N14" s="9">
         <v>-1</v>
       </c>
-      <c r="O14" s="9" t="str">
+      <c r="O14" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P14" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q14" s="9">
         <v>2040</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="R14" s="9">
         <v>2041</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="9">
         <v>2042</v>
       </c>
-      <c r="S14" s="9">
+      <c r="T14" s="9">
         <v>2043</v>
       </c>
-      <c r="T14" s="9">
+      <c r="U14" s="9">
         <v>2044</v>
       </c>
-      <c r="U14" s="9">
+      <c r="V14" s="9">
         <v>2045</v>
       </c>
-      <c r="V14" s="9">
+      <c r="W14" s="9">
         <v>2046</v>
       </c>
-      <c r="W14" s="9" t="str">
+      <c r="X14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2040,2041,2042,2043,2044,2045,2046</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:23">
-      <c r="A15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>61</v>
+    <row r="15" customHeight="1" spans="1:24">
+      <c r="A15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="9">
         <v>2008</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="10" t="s">
         <v>78</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
@@ -3733,71 +3760,74 @@
         <v>-1</v>
       </c>
       <c r="J15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="9">
         <v>1100011</v>
       </c>
-      <c r="K15" s="9">
+      <c r="L15" s="9">
         <v>1100012</v>
       </c>
-      <c r="L15" s="9">
-        <v>-1</v>
-      </c>
       <c r="M15" s="9">
         <v>-1</v>
       </c>
       <c r="N15" s="9">
         <v>-1</v>
       </c>
-      <c r="O15" s="9" t="str">
+      <c r="O15" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P15" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q15" s="9">
         <v>2040</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="R15" s="9">
         <v>2041</v>
       </c>
-      <c r="R15" s="9">
+      <c r="S15" s="9">
         <v>2042</v>
       </c>
-      <c r="S15" s="9">
+      <c r="T15" s="9">
         <v>2043</v>
       </c>
-      <c r="T15" s="9">
+      <c r="U15" s="9">
         <v>2044</v>
       </c>
-      <c r="U15" s="9">
+      <c r="V15" s="9">
         <v>2045</v>
       </c>
-      <c r="V15" s="9">
+      <c r="W15" s="9">
         <v>2046</v>
       </c>
-      <c r="W15" s="9" t="str">
+      <c r="X15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2040,2041,2042,2043,2044,2045,2046</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:23">
-      <c r="A16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>79</v>
+    <row r="16" customHeight="1" spans="1:24">
+      <c r="A16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="9">
         <v>2009</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="10" t="s">
         <v>82</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -3806,71 +3836,74 @@
         <v>-1</v>
       </c>
       <c r="J16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="9">
         <v>1100011</v>
       </c>
-      <c r="K16" s="9">
+      <c r="L16" s="9">
         <v>1100012</v>
       </c>
-      <c r="L16" s="9">
-        <v>-1</v>
-      </c>
       <c r="M16" s="9">
         <v>-1</v>
       </c>
       <c r="N16" s="9">
         <v>-1</v>
       </c>
-      <c r="O16" s="9" t="str">
+      <c r="O16" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P16" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q16" s="9">
         <v>2040</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="R16" s="9">
         <v>2041</v>
       </c>
-      <c r="R16" s="9">
+      <c r="S16" s="9">
         <v>2042</v>
       </c>
-      <c r="S16" s="9">
+      <c r="T16" s="9">
         <v>2043</v>
       </c>
-      <c r="T16" s="9">
+      <c r="U16" s="9">
         <v>2044</v>
       </c>
-      <c r="U16" s="9">
+      <c r="V16" s="9">
         <v>2045</v>
       </c>
-      <c r="V16" s="9">
+      <c r="W16" s="9">
         <v>2046</v>
       </c>
-      <c r="W16" s="9" t="str">
+      <c r="X16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2040,2041,2042,2043,2044,2045,2046</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="16">
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="15">
         <v>-1</v>
       </c>
       <c r="C17" s="1">
         <v>2010</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>85</v>
+        <v>48</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -3879,71 +3912,74 @@
         <v>-1</v>
       </c>
       <c r="J17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="1">
         <v>1100011</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>1100012</v>
       </c>
-      <c r="L17" s="1">
-        <v>-1</v>
-      </c>
       <c r="M17" s="1">
         <v>-1</v>
       </c>
       <c r="N17" s="1">
         <v>-1</v>
       </c>
-      <c r="O17" s="1" t="str">
+      <c r="O17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P17" s="1">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q17" s="1">
         <v>2060</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>2061</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>2062</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>2063</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>2064</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>2065</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>2066</v>
       </c>
-      <c r="W17" s="9" t="str">
+      <c r="X17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2060,2061,2062,2063,2064,2065,2066</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:23">
-      <c r="A18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>50</v>
+    <row r="18" customHeight="1" spans="1:24">
+      <c r="A18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="9">
         <v>2011</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="10" t="s">
         <v>88</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -3952,71 +3988,74 @@
         <v>-1</v>
       </c>
       <c r="J18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="9">
         <v>1100011</v>
       </c>
-      <c r="K18" s="9">
+      <c r="L18" s="9">
         <v>1100012</v>
       </c>
-      <c r="L18" s="9">
-        <v>-1</v>
-      </c>
       <c r="M18" s="9">
         <v>-1</v>
       </c>
       <c r="N18" s="9">
         <v>-1</v>
       </c>
-      <c r="O18" s="9" t="str">
+      <c r="O18" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P18" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q18" s="9">
         <v>2070</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="R18" s="9">
         <v>2071</v>
       </c>
-      <c r="R18" s="9">
+      <c r="S18" s="9">
         <v>2072</v>
       </c>
-      <c r="S18" s="9">
+      <c r="T18" s="9">
         <v>2073</v>
       </c>
-      <c r="T18" s="9">
+      <c r="U18" s="9">
         <v>2074</v>
       </c>
-      <c r="U18" s="9">
+      <c r="V18" s="9">
         <v>2075</v>
       </c>
-      <c r="V18" s="9">
+      <c r="W18" s="9">
         <v>2076</v>
       </c>
-      <c r="W18" s="9" t="str">
+      <c r="X18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2070,2071,2072,2073,2074,2075,2076</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:23">
-      <c r="A19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>50</v>
+    <row r="19" customHeight="1" spans="1:24">
+      <c r="A19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C19" s="9">
         <v>2012</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="10" t="s">
         <v>91</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -4025,71 +4064,74 @@
         <v>-1</v>
       </c>
       <c r="J19" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="9">
         <v>1100011</v>
       </c>
-      <c r="K19" s="9">
+      <c r="L19" s="9">
         <v>1100012</v>
       </c>
-      <c r="L19" s="9">
-        <v>-1</v>
-      </c>
       <c r="M19" s="9">
         <v>-1</v>
       </c>
       <c r="N19" s="9">
         <v>-1</v>
       </c>
-      <c r="O19" s="9" t="str">
+      <c r="O19" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P19" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q19" s="9">
         <v>2070</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="R19" s="9">
         <v>2071</v>
       </c>
-      <c r="R19" s="9">
+      <c r="S19" s="9">
         <v>2072</v>
       </c>
-      <c r="S19" s="9">
+      <c r="T19" s="9">
         <v>2073</v>
       </c>
-      <c r="T19" s="9">
+      <c r="U19" s="9">
         <v>2074</v>
       </c>
-      <c r="U19" s="9">
+      <c r="V19" s="9">
         <v>2075</v>
       </c>
-      <c r="V19" s="9">
+      <c r="W19" s="9">
         <v>2076</v>
       </c>
-      <c r="W19" s="9" t="str">
+      <c r="X19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2070,2071,2072,2073,2074,2075,2076</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:23">
-      <c r="A20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>50</v>
+    <row r="20" customHeight="1" spans="1:24">
+      <c r="A20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="9">
         <v>2013</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="10" t="s">
         <v>94</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -4098,71 +4140,74 @@
         <v>-1</v>
       </c>
       <c r="J20" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="9">
         <v>1100011</v>
       </c>
-      <c r="K20" s="9">
+      <c r="L20" s="9">
         <v>1100012</v>
       </c>
-      <c r="L20" s="9">
-        <v>-1</v>
-      </c>
       <c r="M20" s="9">
         <v>-1</v>
       </c>
       <c r="N20" s="9">
         <v>-1</v>
       </c>
-      <c r="O20" s="9" t="str">
+      <c r="O20" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P20" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q20" s="9">
         <v>2080</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="R20" s="9">
         <v>2081</v>
       </c>
-      <c r="R20" s="9">
+      <c r="S20" s="9">
         <v>2082</v>
       </c>
-      <c r="S20" s="9">
+      <c r="T20" s="9">
         <v>2083</v>
       </c>
-      <c r="T20" s="9">
+      <c r="U20" s="9">
         <v>2084</v>
       </c>
-      <c r="U20" s="9">
+      <c r="V20" s="9">
         <v>2085</v>
       </c>
-      <c r="V20" s="9">
+      <c r="W20" s="9">
         <v>2086</v>
       </c>
-      <c r="W20" s="9" t="str">
+      <c r="X20" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2080,2081,2082,2083,2084,2085,2086</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:23">
-      <c r="A21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>61</v>
+    <row r="21" customHeight="1" spans="1:24">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="9">
         <v>2014</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="10" t="s">
         <v>97</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
@@ -4171,71 +4216,74 @@
         <v>-1</v>
       </c>
       <c r="J21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="9">
         <v>1100011</v>
       </c>
-      <c r="K21" s="9">
+      <c r="L21" s="9">
         <v>1100012</v>
       </c>
-      <c r="L21" s="9">
-        <v>-1</v>
-      </c>
       <c r="M21" s="9">
         <v>-1</v>
       </c>
       <c r="N21" s="9">
         <v>-1</v>
       </c>
-      <c r="O21" s="9" t="str">
+      <c r="O21" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P21" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q21" s="9">
         <v>2080</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="R21" s="9">
         <v>2081</v>
       </c>
-      <c r="R21" s="9">
+      <c r="S21" s="9">
         <v>2082</v>
       </c>
-      <c r="S21" s="9">
+      <c r="T21" s="9">
         <v>2083</v>
       </c>
-      <c r="T21" s="9">
+      <c r="U21" s="9">
         <v>2084</v>
       </c>
-      <c r="U21" s="9">
+      <c r="V21" s="9">
         <v>2085</v>
       </c>
-      <c r="V21" s="9">
+      <c r="W21" s="9">
         <v>2086</v>
       </c>
-      <c r="W21" s="9" t="str">
+      <c r="X21" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2080,2081,2082,2083,2084,2085,2086</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:23">
-      <c r="A22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>65</v>
+    <row r="22" customHeight="1" spans="1:24">
+      <c r="A22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C22" s="9">
         <v>2015</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="10" t="s">
         <v>100</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -4244,71 +4292,74 @@
         <v>-1</v>
       </c>
       <c r="J22" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="9">
         <v>1100011</v>
       </c>
-      <c r="K22" s="9">
+      <c r="L22" s="9">
         <v>1100012</v>
       </c>
-      <c r="L22" s="9">
-        <v>-1</v>
-      </c>
       <c r="M22" s="9">
         <v>-1</v>
       </c>
       <c r="N22" s="9">
         <v>-1</v>
       </c>
-      <c r="O22" s="9" t="str">
+      <c r="O22" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P22" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q22" s="9">
         <v>2080</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="R22" s="9">
         <v>2081</v>
       </c>
-      <c r="R22" s="9">
+      <c r="S22" s="9">
         <v>2082</v>
       </c>
-      <c r="S22" s="9">
+      <c r="T22" s="9">
         <v>2083</v>
       </c>
-      <c r="T22" s="9">
+      <c r="U22" s="9">
         <v>2084</v>
       </c>
-      <c r="U22" s="9">
+      <c r="V22" s="9">
         <v>2085</v>
       </c>
-      <c r="V22" s="9">
+      <c r="W22" s="9">
         <v>2086</v>
       </c>
-      <c r="W22" s="9" t="str">
+      <c r="X22" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2080,2081,2082,2083,2084,2085,2086</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:23">
-      <c r="A23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>50</v>
+    <row r="23" customHeight="1" spans="1:24">
+      <c r="A23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="9">
         <v>2016</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="10" t="s">
         <v>103</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
@@ -4317,71 +4368,74 @@
         <v>-1</v>
       </c>
       <c r="J23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="9">
         <v>1100011</v>
       </c>
-      <c r="K23" s="9">
+      <c r="L23" s="9">
         <v>1100012</v>
       </c>
-      <c r="L23" s="9">
-        <v>-1</v>
-      </c>
       <c r="M23" s="9">
         <v>-1</v>
       </c>
       <c r="N23" s="9">
         <v>-1</v>
       </c>
-      <c r="O23" s="9" t="str">
+      <c r="O23" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P23" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q23" s="9">
         <v>2080</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="R23" s="9">
         <v>2081</v>
       </c>
-      <c r="R23" s="9">
+      <c r="S23" s="9">
         <v>2082</v>
       </c>
-      <c r="S23" s="9">
+      <c r="T23" s="9">
         <v>2083</v>
       </c>
-      <c r="T23" s="9">
+      <c r="U23" s="9">
         <v>2084</v>
       </c>
-      <c r="U23" s="9">
+      <c r="V23" s="9">
         <v>2085</v>
       </c>
-      <c r="V23" s="9">
+      <c r="W23" s="9">
         <v>2086</v>
       </c>
-      <c r="W23" s="9" t="str">
+      <c r="X23" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2080,2081,2082,2083,2084,2085,2086</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:23">
-      <c r="A24" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>50</v>
+    <row r="24" customHeight="1" spans="1:24">
+      <c r="A24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="9">
         <v>2017</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="10" t="s">
         <v>106</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
@@ -4390,71 +4444,74 @@
         <v>-1</v>
       </c>
       <c r="J24" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="9">
         <v>1100011</v>
       </c>
-      <c r="K24" s="9">
+      <c r="L24" s="9">
         <v>1100012</v>
       </c>
-      <c r="L24" s="9">
-        <v>-1</v>
-      </c>
       <c r="M24" s="9">
         <v>-1</v>
       </c>
       <c r="N24" s="9">
         <v>-1</v>
       </c>
-      <c r="O24" s="9" t="str">
+      <c r="O24" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P24" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q24" s="9">
         <v>2090</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="R24" s="9">
         <v>2091</v>
       </c>
-      <c r="R24" s="9">
+      <c r="S24" s="9">
         <v>2092</v>
       </c>
-      <c r="S24" s="9">
+      <c r="T24" s="9">
         <v>2093</v>
       </c>
-      <c r="T24" s="9">
+      <c r="U24" s="9">
         <v>2094</v>
       </c>
-      <c r="U24" s="9">
+      <c r="V24" s="9">
         <v>2095</v>
       </c>
-      <c r="V24" s="9">
+      <c r="W24" s="9">
         <v>2096</v>
       </c>
-      <c r="W24" s="9" t="str">
+      <c r="X24" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2090,2091,2092,2093,2094,2095,2096</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:23">
-      <c r="A25" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>61</v>
+    <row r="25" customHeight="1" spans="1:24">
+      <c r="A25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="9">
         <v>2018</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="10" t="s">
         <v>109</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
@@ -4463,71 +4520,74 @@
         <v>-1</v>
       </c>
       <c r="J25" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="9">
         <v>1100011</v>
       </c>
-      <c r="K25" s="9">
+      <c r="L25" s="9">
         <v>1100012</v>
       </c>
-      <c r="L25" s="9">
-        <v>-1</v>
-      </c>
       <c r="M25" s="9">
         <v>-1</v>
       </c>
       <c r="N25" s="9">
         <v>-1</v>
       </c>
-      <c r="O25" s="9" t="str">
+      <c r="O25" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P25" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q25" s="9">
         <v>2090</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="R25" s="9">
         <v>2091</v>
       </c>
-      <c r="R25" s="9">
+      <c r="S25" s="9">
         <v>2092</v>
       </c>
-      <c r="S25" s="9">
+      <c r="T25" s="9">
         <v>2093</v>
       </c>
-      <c r="T25" s="9">
+      <c r="U25" s="9">
         <v>2094</v>
       </c>
-      <c r="U25" s="9">
+      <c r="V25" s="9">
         <v>2095</v>
       </c>
-      <c r="V25" s="9">
+      <c r="W25" s="9">
         <v>2096</v>
       </c>
-      <c r="W25" s="9" t="str">
+      <c r="X25" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2090,2091,2092,2093,2094,2095,2096</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:23">
-      <c r="A26" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>79</v>
+    <row r="26" customHeight="1" spans="1:24">
+      <c r="A26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="9">
         <v>2019</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="10" t="s">
         <v>112</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="H26" s="9">
         <v>0</v>
@@ -4536,71 +4596,74 @@
         <v>-1</v>
       </c>
       <c r="J26" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="9">
         <v>1100011</v>
       </c>
-      <c r="K26" s="9">
+      <c r="L26" s="9">
         <v>1100012</v>
       </c>
-      <c r="L26" s="9">
-        <v>-1</v>
-      </c>
       <c r="M26" s="9">
         <v>-1</v>
       </c>
       <c r="N26" s="9">
         <v>-1</v>
       </c>
-      <c r="O26" s="9" t="str">
+      <c r="O26" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P26" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q26" s="9">
         <v>2090</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="R26" s="9">
         <v>2091</v>
       </c>
-      <c r="R26" s="9">
+      <c r="S26" s="9">
         <v>2092</v>
       </c>
-      <c r="S26" s="9">
+      <c r="T26" s="9">
         <v>2093</v>
       </c>
-      <c r="T26" s="9">
+      <c r="U26" s="9">
         <v>2094</v>
       </c>
-      <c r="U26" s="9">
+      <c r="V26" s="9">
         <v>2095</v>
       </c>
-      <c r="V26" s="9">
+      <c r="W26" s="9">
         <v>2096</v>
       </c>
-      <c r="W26" s="9" t="str">
+      <c r="X26" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2090,2091,2092,2093,2094,2095,2096</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="16">
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="15">
         <v>-1</v>
       </c>
       <c r="C27" s="1">
         <v>2020</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>115</v>
+        <v>48</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -4609,71 +4672,74 @@
         <v>-1</v>
       </c>
       <c r="J27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="1">
         <v>1100011</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>1100012</v>
       </c>
-      <c r="L27" s="1">
-        <v>-1</v>
-      </c>
       <c r="M27" s="1">
         <v>-1</v>
       </c>
       <c r="N27" s="1">
         <v>-1</v>
       </c>
-      <c r="O27" s="1" t="str">
+      <c r="O27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P27" s="1">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q27" s="1">
         <v>2110</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>2111</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="1">
         <v>2112</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>2113</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>2114</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <v>2115</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>2116</v>
       </c>
-      <c r="W27" s="9" t="str">
+      <c r="X27" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2110,2111,2112,2113,2114,2115,2116</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:23">
-      <c r="A28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>50</v>
+    <row r="28" customHeight="1" spans="1:24">
+      <c r="A28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C28" s="9">
         <v>2021</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="10" t="s">
         <v>118</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="H28" s="9">
         <v>0</v>
@@ -4682,71 +4748,74 @@
         <v>-1</v>
       </c>
       <c r="J28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="9">
         <v>1100011</v>
       </c>
-      <c r="K28" s="9">
+      <c r="L28" s="9">
         <v>1100012</v>
       </c>
-      <c r="L28" s="9">
-        <v>-1</v>
-      </c>
       <c r="M28" s="9">
         <v>-1</v>
       </c>
       <c r="N28" s="9">
         <v>-1</v>
       </c>
-      <c r="O28" s="9" t="str">
+      <c r="O28" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P28" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q28" s="9">
         <v>2120</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="R28" s="9">
         <v>2121</v>
       </c>
-      <c r="R28" s="9">
+      <c r="S28" s="9">
         <v>2122</v>
       </c>
-      <c r="S28" s="9">
+      <c r="T28" s="9">
         <v>2123</v>
       </c>
-      <c r="T28" s="9">
+      <c r="U28" s="9">
         <v>2124</v>
       </c>
-      <c r="U28" s="9">
+      <c r="V28" s="9">
         <v>2125</v>
       </c>
-      <c r="V28" s="9">
+      <c r="W28" s="9">
         <v>2126</v>
       </c>
-      <c r="W28" s="9" t="str">
+      <c r="X28" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2120,2121,2122,2123,2124,2125,2126</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:23">
-      <c r="A29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>50</v>
+    <row r="29" customHeight="1" spans="1:24">
+      <c r="A29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C29" s="9">
         <v>2022</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="10" t="s">
         <v>121</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
@@ -4755,71 +4824,74 @@
         <v>-1</v>
       </c>
       <c r="J29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K29" s="9">
         <v>1100011</v>
       </c>
-      <c r="K29" s="9">
+      <c r="L29" s="9">
         <v>1100012</v>
       </c>
-      <c r="L29" s="9">
-        <v>-1</v>
-      </c>
       <c r="M29" s="9">
         <v>-1</v>
       </c>
       <c r="N29" s="9">
         <v>-1</v>
       </c>
-      <c r="O29" s="9" t="str">
+      <c r="O29" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P29" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q29" s="9">
         <v>2120</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="R29" s="9">
         <v>2121</v>
       </c>
-      <c r="R29" s="9">
+      <c r="S29" s="9">
         <v>2122</v>
       </c>
-      <c r="S29" s="9">
+      <c r="T29" s="9">
         <v>2123</v>
       </c>
-      <c r="T29" s="9">
+      <c r="U29" s="9">
         <v>2124</v>
       </c>
-      <c r="U29" s="9">
+      <c r="V29" s="9">
         <v>2125</v>
       </c>
-      <c r="V29" s="9">
+      <c r="W29" s="9">
         <v>2126</v>
       </c>
-      <c r="W29" s="9" t="str">
+      <c r="X29" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2120,2121,2122,2123,2124,2125,2126</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:23">
-      <c r="A30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>50</v>
+    <row r="30" customHeight="1" spans="1:24">
+      <c r="A30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C30" s="9">
         <v>2023</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="10" t="s">
         <v>124</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="H30" s="9">
         <v>0</v>
@@ -4828,71 +4900,74 @@
         <v>-1</v>
       </c>
       <c r="J30" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="9">
         <v>1100011</v>
       </c>
-      <c r="K30" s="9">
+      <c r="L30" s="9">
         <v>1100012</v>
       </c>
-      <c r="L30" s="9">
-        <v>-1</v>
-      </c>
       <c r="M30" s="9">
         <v>-1</v>
       </c>
       <c r="N30" s="9">
         <v>-1</v>
       </c>
-      <c r="O30" s="9" t="str">
+      <c r="O30" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P30" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q30" s="9">
         <v>2130</v>
       </c>
-      <c r="Q30" s="9">
+      <c r="R30" s="9">
         <v>2131</v>
       </c>
-      <c r="R30" s="9">
+      <c r="S30" s="9">
         <v>2132</v>
       </c>
-      <c r="S30" s="9">
+      <c r="T30" s="9">
         <v>2133</v>
       </c>
-      <c r="T30" s="9">
+      <c r="U30" s="9">
         <v>2134</v>
       </c>
-      <c r="U30" s="9">
+      <c r="V30" s="9">
         <v>2135</v>
       </c>
-      <c r="V30" s="9">
+      <c r="W30" s="9">
         <v>2136</v>
       </c>
-      <c r="W30" s="9" t="str">
+      <c r="X30" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2130,2131,2132,2133,2134,2135,2136</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:23">
-      <c r="A31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>61</v>
+    <row r="31" customHeight="1" spans="1:24">
+      <c r="A31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="9">
         <v>2024</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="10" t="s">
         <v>127</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="H31" s="9">
         <v>0</v>
@@ -4901,71 +4976,74 @@
         <v>-1</v>
       </c>
       <c r="J31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="9">
         <v>1100011</v>
       </c>
-      <c r="K31" s="9">
+      <c r="L31" s="9">
         <v>1100012</v>
       </c>
-      <c r="L31" s="9">
-        <v>-1</v>
-      </c>
       <c r="M31" s="9">
         <v>-1</v>
       </c>
       <c r="N31" s="9">
         <v>-1</v>
       </c>
-      <c r="O31" s="9" t="str">
+      <c r="O31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P31" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q31" s="9">
         <v>2130</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="R31" s="9">
         <v>2131</v>
       </c>
-      <c r="R31" s="9">
+      <c r="S31" s="9">
         <v>2132</v>
       </c>
-      <c r="S31" s="9">
+      <c r="T31" s="9">
         <v>2133</v>
       </c>
-      <c r="T31" s="9">
+      <c r="U31" s="9">
         <v>2134</v>
       </c>
-      <c r="U31" s="9">
+      <c r="V31" s="9">
         <v>2135</v>
       </c>
-      <c r="V31" s="9">
+      <c r="W31" s="9">
         <v>2136</v>
       </c>
-      <c r="W31" s="9" t="str">
+      <c r="X31" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2130,2131,2132,2133,2134,2135,2136</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:23">
-      <c r="A32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>65</v>
+    <row r="32" customHeight="1" spans="1:24">
+      <c r="A32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C32" s="9">
         <v>2025</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G32" s="10" t="s">
         <v>130</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="H32" s="9">
         <v>0</v>
@@ -4974,71 +5052,74 @@
         <v>-1</v>
       </c>
       <c r="J32" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="9">
         <v>1100011</v>
       </c>
-      <c r="K32" s="9">
+      <c r="L32" s="9">
         <v>1100012</v>
       </c>
-      <c r="L32" s="9">
-        <v>-1</v>
-      </c>
       <c r="M32" s="9">
         <v>-1</v>
       </c>
       <c r="N32" s="9">
         <v>-1</v>
       </c>
-      <c r="O32" s="9" t="str">
+      <c r="O32" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P32" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q32" s="9">
         <v>2130</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="R32" s="9">
         <v>2131</v>
       </c>
-      <c r="R32" s="9">
+      <c r="S32" s="9">
         <v>2132</v>
       </c>
-      <c r="S32" s="9">
+      <c r="T32" s="9">
         <v>2133</v>
       </c>
-      <c r="T32" s="9">
+      <c r="U32" s="9">
         <v>2134</v>
       </c>
-      <c r="U32" s="9">
+      <c r="V32" s="9">
         <v>2135</v>
       </c>
-      <c r="V32" s="9">
+      <c r="W32" s="9">
         <v>2136</v>
       </c>
-      <c r="W32" s="9" t="str">
+      <c r="X32" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2130,2131,2132,2133,2134,2135,2136</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:23">
-      <c r="A33" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>50</v>
+    <row r="33" customHeight="1" spans="1:24">
+      <c r="A33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C33" s="9">
         <v>2026</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="10" t="s">
         <v>133</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="H33" s="9">
         <v>0</v>
@@ -5047,71 +5128,74 @@
         <v>-1</v>
       </c>
       <c r="J33" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="9">
         <v>1100011</v>
       </c>
-      <c r="K33" s="9">
+      <c r="L33" s="9">
         <v>1100012</v>
       </c>
-      <c r="L33" s="9">
-        <v>-1</v>
-      </c>
       <c r="M33" s="9">
         <v>-1</v>
       </c>
       <c r="N33" s="9">
         <v>-1</v>
       </c>
-      <c r="O33" s="9" t="str">
+      <c r="O33" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P33" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q33" s="9">
         <v>2130</v>
       </c>
-      <c r="Q33" s="9">
+      <c r="R33" s="9">
         <v>2131</v>
       </c>
-      <c r="R33" s="9">
+      <c r="S33" s="9">
         <v>2132</v>
       </c>
-      <c r="S33" s="9">
+      <c r="T33" s="9">
         <v>2133</v>
       </c>
-      <c r="T33" s="9">
+      <c r="U33" s="9">
         <v>2134</v>
       </c>
-      <c r="U33" s="9">
+      <c r="V33" s="9">
         <v>2135</v>
       </c>
-      <c r="V33" s="9">
+      <c r="W33" s="9">
         <v>2136</v>
       </c>
-      <c r="W33" s="9" t="str">
+      <c r="X33" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2130,2131,2132,2133,2134,2135,2136</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:23">
-      <c r="A34" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>50</v>
+    <row r="34" customHeight="1" spans="1:24">
+      <c r="A34" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C34" s="9">
         <v>2027</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="10" t="s">
         <v>136</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="H34" s="9">
         <v>0</v>
@@ -5120,71 +5204,74 @@
         <v>-1</v>
       </c>
       <c r="J34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="9">
         <v>1100011</v>
       </c>
-      <c r="K34" s="9">
+      <c r="L34" s="9">
         <v>1100012</v>
       </c>
-      <c r="L34" s="9">
-        <v>-1</v>
-      </c>
       <c r="M34" s="9">
         <v>-1</v>
       </c>
       <c r="N34" s="9">
         <v>-1</v>
       </c>
-      <c r="O34" s="9" t="str">
+      <c r="O34" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P34" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q34" s="9">
         <v>2140</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="R34" s="9">
         <v>2141</v>
       </c>
-      <c r="R34" s="9">
+      <c r="S34" s="9">
         <v>2142</v>
       </c>
-      <c r="S34" s="9">
+      <c r="T34" s="9">
         <v>2143</v>
       </c>
-      <c r="T34" s="9">
+      <c r="U34" s="9">
         <v>2144</v>
       </c>
-      <c r="U34" s="9">
+      <c r="V34" s="9">
         <v>2145</v>
       </c>
-      <c r="V34" s="9">
+      <c r="W34" s="9">
         <v>2146</v>
       </c>
-      <c r="W34" s="9" t="str">
+      <c r="X34" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2140,2141,2142,2143,2144,2145,2146</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:23">
-      <c r="A35" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>65</v>
+    <row r="35" customHeight="1" spans="1:24">
+      <c r="A35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C35" s="9">
         <v>2028</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="10" t="s">
         <v>139</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="H35" s="9">
         <v>0</v>
@@ -5193,71 +5280,74 @@
         <v>-1</v>
       </c>
       <c r="J35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="9">
         <v>1100011</v>
       </c>
-      <c r="K35" s="9">
+      <c r="L35" s="9">
         <v>1100012</v>
       </c>
-      <c r="L35" s="9">
-        <v>-1</v>
-      </c>
       <c r="M35" s="9">
         <v>-1</v>
       </c>
       <c r="N35" s="9">
         <v>-1</v>
       </c>
-      <c r="O35" s="9" t="str">
+      <c r="O35" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P35" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q35" s="9">
         <v>2140</v>
       </c>
-      <c r="Q35" s="9">
+      <c r="R35" s="9">
         <v>2141</v>
       </c>
-      <c r="R35" s="9">
+      <c r="S35" s="9">
         <v>2142</v>
       </c>
-      <c r="S35" s="9">
+      <c r="T35" s="9">
         <v>2143</v>
       </c>
-      <c r="T35" s="9">
+      <c r="U35" s="9">
         <v>2144</v>
       </c>
-      <c r="U35" s="9">
+      <c r="V35" s="9">
         <v>2145</v>
       </c>
-      <c r="V35" s="9">
+      <c r="W35" s="9">
         <v>2146</v>
       </c>
-      <c r="W35" s="9" t="str">
+      <c r="X35" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2140,2141,2142,2143,2144,2145,2146</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:23">
-      <c r="A36" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>61</v>
+    <row r="36" customHeight="1" spans="1:24">
+      <c r="A36" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C36" s="9">
         <v>2029</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="10" t="s">
         <v>142</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="H36" s="9">
         <v>0</v>
@@ -5266,71 +5356,74 @@
         <v>-1</v>
       </c>
       <c r="J36" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="9">
         <v>1100011</v>
       </c>
-      <c r="K36" s="9">
+      <c r="L36" s="9">
         <v>1100012</v>
       </c>
-      <c r="L36" s="9">
-        <v>-1</v>
-      </c>
       <c r="M36" s="9">
         <v>-1</v>
       </c>
       <c r="N36" s="9">
         <v>-1</v>
       </c>
-      <c r="O36" s="9" t="str">
+      <c r="O36" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P36" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q36" s="9">
         <v>2140</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="R36" s="9">
         <v>2141</v>
       </c>
-      <c r="R36" s="9">
+      <c r="S36" s="9">
         <v>2142</v>
       </c>
-      <c r="S36" s="9">
+      <c r="T36" s="9">
         <v>2143</v>
       </c>
-      <c r="T36" s="9">
+      <c r="U36" s="9">
         <v>2144</v>
       </c>
-      <c r="U36" s="9">
+      <c r="V36" s="9">
         <v>2145</v>
       </c>
-      <c r="V36" s="9">
+      <c r="W36" s="9">
         <v>2146</v>
       </c>
-      <c r="W36" s="9" t="str">
+      <c r="X36" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2140,2141,2142,2143,2144,2145,2146</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A37" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="16">
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="15">
         <v>-1</v>
       </c>
       <c r="C37" s="1">
         <v>2030</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>145</v>
+        <v>48</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -5339,71 +5432,74 @@
         <v>-1</v>
       </c>
       <c r="J37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="1">
         <v>1100011</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>1100012</v>
       </c>
-      <c r="L37" s="1">
-        <v>-1</v>
-      </c>
       <c r="M37" s="1">
         <v>-1</v>
       </c>
       <c r="N37" s="1">
         <v>-1</v>
       </c>
-      <c r="O37" s="1" t="str">
+      <c r="O37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P37" s="1">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q37" s="1">
         <v>2160</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R37" s="1">
         <v>2161</v>
       </c>
-      <c r="R37" s="1">
+      <c r="S37" s="1">
         <v>2162</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <v>2163</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="1">
         <v>2164</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V37" s="1">
         <v>2165</v>
       </c>
-      <c r="V37" s="1">
+      <c r="W37" s="1">
         <v>2166</v>
       </c>
-      <c r="W37" s="9" t="str">
+      <c r="X37" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2160,2161,2162,2163,2164,2165,2166</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:23">
-      <c r="A38" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>50</v>
+    <row r="38" customHeight="1" spans="1:24">
+      <c r="A38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="9">
         <v>2031</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" s="10" t="s">
         <v>148</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="H38" s="9">
         <v>0</v>
@@ -5412,71 +5508,74 @@
         <v>-1</v>
       </c>
       <c r="J38" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K38" s="9">
         <v>1100011</v>
       </c>
-      <c r="K38" s="9">
+      <c r="L38" s="9">
         <v>1100012</v>
       </c>
-      <c r="L38" s="9">
-        <v>-1</v>
-      </c>
       <c r="M38" s="9">
         <v>-1</v>
       </c>
       <c r="N38" s="9">
         <v>-1</v>
       </c>
-      <c r="O38" s="9" t="str">
+      <c r="O38" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P38" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q38" s="9">
         <v>2170</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="R38" s="9">
         <v>2171</v>
       </c>
-      <c r="R38" s="9">
+      <c r="S38" s="9">
         <v>2172</v>
       </c>
-      <c r="S38" s="9">
+      <c r="T38" s="9">
         <v>2173</v>
       </c>
-      <c r="T38" s="9">
+      <c r="U38" s="9">
         <v>2174</v>
       </c>
-      <c r="U38" s="9">
+      <c r="V38" s="9">
         <v>2175</v>
       </c>
-      <c r="V38" s="9">
+      <c r="W38" s="9">
         <v>2176</v>
       </c>
-      <c r="W38" s="9" t="str">
+      <c r="X38" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2170,2171,2172,2173,2174,2175,2176</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:23">
-      <c r="A39" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>50</v>
+    <row r="39" customHeight="1" spans="1:24">
+      <c r="A39" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C39" s="9">
         <v>2032</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" s="10" t="s">
         <v>151</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="H39" s="9">
         <v>0</v>
@@ -5485,71 +5584,74 @@
         <v>-1</v>
       </c>
       <c r="J39" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K39" s="9">
         <v>1100011</v>
       </c>
-      <c r="K39" s="9">
+      <c r="L39" s="9">
         <v>1100012</v>
       </c>
-      <c r="L39" s="9">
-        <v>-1</v>
-      </c>
       <c r="M39" s="9">
         <v>-1</v>
       </c>
       <c r="N39" s="9">
         <v>-1</v>
       </c>
-      <c r="O39" s="9" t="str">
+      <c r="O39" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P39" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q39" s="9">
         <v>2170</v>
       </c>
-      <c r="Q39" s="9">
+      <c r="R39" s="9">
         <v>2171</v>
       </c>
-      <c r="R39" s="9">
+      <c r="S39" s="9">
         <v>2172</v>
       </c>
-      <c r="S39" s="9">
+      <c r="T39" s="9">
         <v>2173</v>
       </c>
-      <c r="T39" s="9">
+      <c r="U39" s="9">
         <v>2174</v>
       </c>
-      <c r="U39" s="9">
+      <c r="V39" s="9">
         <v>2175</v>
       </c>
-      <c r="V39" s="9">
+      <c r="W39" s="9">
         <v>2176</v>
       </c>
-      <c r="W39" s="9" t="str">
+      <c r="X39" s="9" t="str">
         <f t="shared" si="1"/>
         <v>2170,2171,2172,2173,2174,2175,2176</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:23">
-      <c r="A40" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>50</v>
+    <row r="40" customHeight="1" spans="1:24">
+      <c r="A40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="9">
         <v>2033</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" s="10" t="s">
         <v>154</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="H40" s="9">
         <v>0</v>
@@ -5558,71 +5660,74 @@
         <v>-1</v>
       </c>
       <c r="J40" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="9">
         <v>1100011</v>
       </c>
-      <c r="K40" s="9">
+      <c r="L40" s="9">
         <v>1100012</v>
       </c>
-      <c r="L40" s="9">
-        <v>-1</v>
-      </c>
       <c r="M40" s="9">
         <v>-1</v>
       </c>
       <c r="N40" s="9">
         <v>-1</v>
       </c>
-      <c r="O40" s="9" t="str">
-        <f t="shared" ref="O40:O71" si="2">I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40&amp;","&amp;M40&amp;","&amp;N40</f>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P40" s="9">
+      <c r="O40" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="9" t="str">
+        <f t="shared" ref="P40:P66" si="2">I40&amp;","&amp;J40&amp;","&amp;K40&amp;","&amp;L40&amp;","&amp;M40&amp;","&amp;N40&amp;","&amp;O40</f>
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q40" s="9">
         <v>2180</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="R40" s="9">
         <v>2181</v>
       </c>
-      <c r="R40" s="9">
+      <c r="S40" s="9">
         <v>2182</v>
       </c>
-      <c r="S40" s="9">
+      <c r="T40" s="9">
         <v>2183</v>
       </c>
-      <c r="T40" s="9">
+      <c r="U40" s="9">
         <v>2184</v>
       </c>
-      <c r="U40" s="9">
+      <c r="V40" s="9">
         <v>2185</v>
       </c>
-      <c r="V40" s="9">
+      <c r="W40" s="9">
         <v>2186</v>
       </c>
-      <c r="W40" s="9" t="str">
-        <f t="shared" ref="W40:W66" si="3">P40&amp;","&amp;Q40&amp;","&amp;R40&amp;","&amp;S40&amp;","&amp;T40&amp;","&amp;U40&amp;","&amp;V40</f>
+      <c r="X40" s="9" t="str">
+        <f t="shared" ref="X40:X66" si="3">Q40&amp;","&amp;R40&amp;","&amp;S40&amp;","&amp;T40&amp;","&amp;U40&amp;","&amp;V40&amp;","&amp;W40</f>
         <v>2180,2181,2182,2183,2184,2185,2186</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:23">
-      <c r="A41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>61</v>
+    <row r="41" customHeight="1" spans="1:24">
+      <c r="A41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C41" s="9">
         <v>2034</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="10" t="s">
         <v>157</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="H41" s="9">
         <v>0</v>
@@ -5631,71 +5736,74 @@
         <v>-1</v>
       </c>
       <c r="J41" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K41" s="9">
         <v>1100011</v>
       </c>
-      <c r="K41" s="9">
+      <c r="L41" s="9">
         <v>1100012</v>
       </c>
-      <c r="L41" s="9">
-        <v>-1</v>
-      </c>
       <c r="M41" s="9">
         <v>-1</v>
       </c>
       <c r="N41" s="9">
         <v>-1</v>
       </c>
-      <c r="O41" s="9" t="str">
+      <c r="O41" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P41" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q41" s="9">
         <v>2180</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="R41" s="9">
         <v>2181</v>
       </c>
-      <c r="R41" s="9">
+      <c r="S41" s="9">
         <v>2182</v>
       </c>
-      <c r="S41" s="9">
+      <c r="T41" s="9">
         <v>2183</v>
       </c>
-      <c r="T41" s="9">
+      <c r="U41" s="9">
         <v>2184</v>
       </c>
-      <c r="U41" s="9">
+      <c r="V41" s="9">
         <v>2185</v>
       </c>
-      <c r="V41" s="9">
+      <c r="W41" s="9">
         <v>2186</v>
       </c>
-      <c r="W41" s="9" t="str">
+      <c r="X41" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2180,2181,2182,2183,2184,2185,2186</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:23">
-      <c r="A42" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>65</v>
+    <row r="42" customHeight="1" spans="1:24">
+      <c r="A42" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C42" s="9">
         <v>2035</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="10" t="s">
         <v>160</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="H42" s="9">
         <v>0</v>
@@ -5704,71 +5812,74 @@
         <v>-1</v>
       </c>
       <c r="J42" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="9">
         <v>1100011</v>
       </c>
-      <c r="K42" s="9">
+      <c r="L42" s="9">
         <v>1100012</v>
       </c>
-      <c r="L42" s="9">
-        <v>-1</v>
-      </c>
       <c r="M42" s="9">
         <v>-1</v>
       </c>
       <c r="N42" s="9">
         <v>-1</v>
       </c>
-      <c r="O42" s="9" t="str">
+      <c r="O42" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P42" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q42" s="9">
         <v>2180</v>
       </c>
-      <c r="Q42" s="9">
+      <c r="R42" s="9">
         <v>2181</v>
       </c>
-      <c r="R42" s="9">
+      <c r="S42" s="9">
         <v>2182</v>
       </c>
-      <c r="S42" s="9">
+      <c r="T42" s="9">
         <v>2183</v>
       </c>
-      <c r="T42" s="9">
+      <c r="U42" s="9">
         <v>2184</v>
       </c>
-      <c r="U42" s="9">
+      <c r="V42" s="9">
         <v>2185</v>
       </c>
-      <c r="V42" s="9">
+      <c r="W42" s="9">
         <v>2186</v>
       </c>
-      <c r="W42" s="9" t="str">
+      <c r="X42" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2180,2181,2182,2183,2184,2185,2186</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:23">
-      <c r="A43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>50</v>
+    <row r="43" customHeight="1" spans="1:24">
+      <c r="A43" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C43" s="9">
         <v>2036</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="10" t="s">
         <v>163</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="H43" s="9">
         <v>0</v>
@@ -5777,71 +5888,74 @@
         <v>-1</v>
       </c>
       <c r="J43" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K43" s="9">
         <v>1100011</v>
       </c>
-      <c r="K43" s="9">
+      <c r="L43" s="9">
         <v>1100012</v>
       </c>
-      <c r="L43" s="9">
-        <v>-1</v>
-      </c>
       <c r="M43" s="9">
         <v>-1</v>
       </c>
       <c r="N43" s="9">
         <v>-1</v>
       </c>
-      <c r="O43" s="9" t="str">
+      <c r="O43" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P43" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q43" s="9">
         <v>2180</v>
       </c>
-      <c r="Q43" s="9">
+      <c r="R43" s="9">
         <v>2181</v>
       </c>
-      <c r="R43" s="9">
+      <c r="S43" s="9">
         <v>2182</v>
       </c>
-      <c r="S43" s="9">
+      <c r="T43" s="9">
         <v>2183</v>
       </c>
-      <c r="T43" s="9">
+      <c r="U43" s="9">
         <v>2184</v>
       </c>
-      <c r="U43" s="9">
+      <c r="V43" s="9">
         <v>2185</v>
       </c>
-      <c r="V43" s="9">
+      <c r="W43" s="9">
         <v>2186</v>
       </c>
-      <c r="W43" s="9" t="str">
+      <c r="X43" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2180,2181,2182,2183,2184,2185,2186</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:23">
-      <c r="A44" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>50</v>
+    <row r="44" customHeight="1" spans="1:24">
+      <c r="A44" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C44" s="9">
         <v>2037</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" s="10" t="s">
         <v>166</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="H44" s="9">
         <v>0</v>
@@ -5850,71 +5964,74 @@
         <v>-1</v>
       </c>
       <c r="J44" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K44" s="9">
         <v>1100011</v>
       </c>
-      <c r="K44" s="9">
+      <c r="L44" s="9">
         <v>1100012</v>
       </c>
-      <c r="L44" s="9">
-        <v>-1</v>
-      </c>
       <c r="M44" s="9">
         <v>-1</v>
       </c>
       <c r="N44" s="9">
         <v>-1</v>
       </c>
-      <c r="O44" s="9" t="str">
+      <c r="O44" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P44" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q44" s="9">
         <v>2190</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="R44" s="9">
         <v>2191</v>
       </c>
-      <c r="R44" s="9">
+      <c r="S44" s="9">
         <v>2192</v>
       </c>
-      <c r="S44" s="9">
+      <c r="T44" s="9">
         <v>2193</v>
       </c>
-      <c r="T44" s="9">
+      <c r="U44" s="9">
         <v>2194</v>
       </c>
-      <c r="U44" s="9">
+      <c r="V44" s="9">
         <v>2195</v>
       </c>
-      <c r="V44" s="9">
+      <c r="W44" s="9">
         <v>2196</v>
       </c>
-      <c r="W44" s="9" t="str">
+      <c r="X44" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2190,2191,2192,2193,2194,2195,2196</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:23">
-      <c r="A45" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>65</v>
+    <row r="45" customHeight="1" spans="1:24">
+      <c r="A45" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C45" s="9">
         <v>2038</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="G45" s="10" t="s">
         <v>169</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="H45" s="9">
         <v>0</v>
@@ -5923,71 +6040,74 @@
         <v>-1</v>
       </c>
       <c r="J45" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="9">
         <v>1100011</v>
       </c>
-      <c r="K45" s="9">
+      <c r="L45" s="9">
         <v>1100012</v>
       </c>
-      <c r="L45" s="9">
-        <v>-1</v>
-      </c>
       <c r="M45" s="9">
         <v>-1</v>
       </c>
       <c r="N45" s="9">
         <v>-1</v>
       </c>
-      <c r="O45" s="9" t="str">
+      <c r="O45" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P45" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q45" s="9">
         <v>2190</v>
       </c>
-      <c r="Q45" s="9">
+      <c r="R45" s="9">
         <v>2191</v>
       </c>
-      <c r="R45" s="9">
+      <c r="S45" s="9">
         <v>2192</v>
       </c>
-      <c r="S45" s="9">
+      <c r="T45" s="9">
         <v>2193</v>
       </c>
-      <c r="T45" s="9">
+      <c r="U45" s="9">
         <v>2194</v>
       </c>
-      <c r="U45" s="9">
+      <c r="V45" s="9">
         <v>2195</v>
       </c>
-      <c r="V45" s="9">
+      <c r="W45" s="9">
         <v>2196</v>
       </c>
-      <c r="W45" s="9" t="str">
+      <c r="X45" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2190,2191,2192,2193,2194,2195,2196</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:23">
-      <c r="A46" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>61</v>
+    <row r="46" customHeight="1" spans="1:24">
+      <c r="A46" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C46" s="9">
         <v>2039</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G46" s="10" t="s">
         <v>172</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="H46" s="9">
         <v>0</v>
@@ -5996,71 +6116,74 @@
         <v>-1</v>
       </c>
       <c r="J46" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="9">
         <v>1100011</v>
       </c>
-      <c r="K46" s="9">
+      <c r="L46" s="9">
         <v>1100012</v>
       </c>
-      <c r="L46" s="9">
-        <v>-1</v>
-      </c>
       <c r="M46" s="9">
         <v>-1</v>
       </c>
       <c r="N46" s="9">
         <v>-1</v>
       </c>
-      <c r="O46" s="9" t="str">
+      <c r="O46" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P46" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q46" s="9">
         <v>2190</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="R46" s="9">
         <v>2191</v>
       </c>
-      <c r="R46" s="9">
+      <c r="S46" s="9">
         <v>2192</v>
       </c>
-      <c r="S46" s="9">
+      <c r="T46" s="9">
         <v>2193</v>
       </c>
-      <c r="T46" s="9">
+      <c r="U46" s="9">
         <v>2194</v>
       </c>
-      <c r="U46" s="9">
+      <c r="V46" s="9">
         <v>2195</v>
       </c>
-      <c r="V46" s="9">
+      <c r="W46" s="9">
         <v>2196</v>
       </c>
-      <c r="W46" s="9" t="str">
+      <c r="X46" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2190,2191,2192,2193,2194,2195,2196</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A47" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="16">
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="15">
         <v>-1</v>
       </c>
       <c r="C47" s="1">
         <v>2040</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>175</v>
+        <v>48</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -6069,71 +6192,74 @@
         <v>-1</v>
       </c>
       <c r="J47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K47" s="1">
         <v>1100011</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>1100012</v>
       </c>
-      <c r="L47" s="1">
-        <v>-1</v>
-      </c>
       <c r="M47" s="1">
         <v>-1</v>
       </c>
       <c r="N47" s="1">
         <v>-1</v>
       </c>
-      <c r="O47" s="1" t="str">
+      <c r="O47" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P47" s="1">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q47" s="1">
         <v>2210</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="R47" s="1">
         <v>2211</v>
       </c>
-      <c r="R47" s="1">
+      <c r="S47" s="1">
         <v>2212</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <v>2213</v>
       </c>
-      <c r="T47" s="1">
+      <c r="U47" s="1">
         <v>2214</v>
       </c>
-      <c r="U47" s="1">
+      <c r="V47" s="1">
         <v>2215</v>
       </c>
-      <c r="V47" s="1">
+      <c r="W47" s="1">
         <v>2216</v>
       </c>
-      <c r="W47" s="9" t="str">
+      <c r="X47" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2210,2211,2212,2213,2214,2215,2216</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:23">
-      <c r="A48" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>50</v>
+    <row r="48" customHeight="1" spans="1:24">
+      <c r="A48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C48" s="9">
         <v>2041</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48" s="10" t="s">
         <v>178</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="H48" s="9">
         <v>0</v>
@@ -6142,71 +6268,74 @@
         <v>-1</v>
       </c>
       <c r="J48" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K48" s="9">
         <v>1100011</v>
       </c>
-      <c r="K48" s="9">
+      <c r="L48" s="9">
         <v>1100012</v>
       </c>
-      <c r="L48" s="9">
-        <v>-1</v>
-      </c>
       <c r="M48" s="9">
         <v>-1</v>
       </c>
       <c r="N48" s="9">
         <v>-1</v>
       </c>
-      <c r="O48" s="9" t="str">
+      <c r="O48" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P48" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q48" s="9">
         <v>2220</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="R48" s="9">
         <v>2221</v>
       </c>
-      <c r="R48" s="9">
+      <c r="S48" s="9">
         <v>2222</v>
       </c>
-      <c r="S48" s="9">
+      <c r="T48" s="9">
         <v>2223</v>
       </c>
-      <c r="T48" s="9">
+      <c r="U48" s="9">
         <v>2224</v>
       </c>
-      <c r="U48" s="9">
+      <c r="V48" s="9">
         <v>2225</v>
       </c>
-      <c r="V48" s="9">
+      <c r="W48" s="9">
         <v>2226</v>
       </c>
-      <c r="W48" s="9" t="str">
+      <c r="X48" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2220,2221,2222,2223,2224,2225,2226</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:23">
-      <c r="A49" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>50</v>
+    <row r="49" customHeight="1" spans="1:24">
+      <c r="A49" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C49" s="9">
         <v>2042</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="10" t="s">
         <v>181</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="H49" s="9">
         <v>0</v>
@@ -6215,71 +6344,74 @@
         <v>-1</v>
       </c>
       <c r="J49" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K49" s="9">
         <v>1100011</v>
       </c>
-      <c r="K49" s="9">
+      <c r="L49" s="9">
         <v>1100012</v>
       </c>
-      <c r="L49" s="9">
-        <v>-1</v>
-      </c>
       <c r="M49" s="9">
         <v>-1</v>
       </c>
       <c r="N49" s="9">
         <v>-1</v>
       </c>
-      <c r="O49" s="9" t="str">
+      <c r="O49" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P49" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q49" s="9">
         <v>2220</v>
       </c>
-      <c r="Q49" s="9">
+      <c r="R49" s="9">
         <v>2221</v>
       </c>
-      <c r="R49" s="9">
+      <c r="S49" s="9">
         <v>2222</v>
       </c>
-      <c r="S49" s="9">
+      <c r="T49" s="9">
         <v>2223</v>
       </c>
-      <c r="T49" s="9">
+      <c r="U49" s="9">
         <v>2224</v>
       </c>
-      <c r="U49" s="9">
+      <c r="V49" s="9">
         <v>2225</v>
       </c>
-      <c r="V49" s="9">
+      <c r="W49" s="9">
         <v>2226</v>
       </c>
-      <c r="W49" s="9" t="str">
+      <c r="X49" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2220,2221,2222,2223,2224,2225,2226</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:23">
-      <c r="A50" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>50</v>
+    <row r="50" customHeight="1" spans="1:24">
+      <c r="A50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C50" s="9">
         <v>2043</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G50" s="10" t="s">
         <v>184</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="H50" s="9">
         <v>0</v>
@@ -6288,71 +6420,74 @@
         <v>-1</v>
       </c>
       <c r="J50" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K50" s="9">
         <v>1100011</v>
       </c>
-      <c r="K50" s="9">
+      <c r="L50" s="9">
         <v>1100012</v>
       </c>
-      <c r="L50" s="9">
-        <v>-1</v>
-      </c>
       <c r="M50" s="9">
         <v>-1</v>
       </c>
       <c r="N50" s="9">
         <v>-1</v>
       </c>
-      <c r="O50" s="9" t="str">
+      <c r="O50" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P50" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q50" s="9">
         <v>2230</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="R50" s="9">
         <v>2231</v>
       </c>
-      <c r="R50" s="9">
+      <c r="S50" s="9">
         <v>2232</v>
       </c>
-      <c r="S50" s="9">
+      <c r="T50" s="9">
         <v>2233</v>
       </c>
-      <c r="T50" s="9">
+      <c r="U50" s="9">
         <v>2234</v>
       </c>
-      <c r="U50" s="9">
+      <c r="V50" s="9">
         <v>2235</v>
       </c>
-      <c r="V50" s="9">
+      <c r="W50" s="9">
         <v>2236</v>
       </c>
-      <c r="W50" s="9" t="str">
+      <c r="X50" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2230,2231,2232,2233,2234,2235,2236</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:23">
-      <c r="A51" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>61</v>
+    <row r="51" customHeight="1" spans="1:24">
+      <c r="A51" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C51" s="9">
         <v>2044</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" s="10" t="s">
         <v>187</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="H51" s="9">
         <v>0</v>
@@ -6361,71 +6496,74 @@
         <v>-1</v>
       </c>
       <c r="J51" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K51" s="9">
         <v>1100011</v>
       </c>
-      <c r="K51" s="9">
+      <c r="L51" s="9">
         <v>1100012</v>
       </c>
-      <c r="L51" s="9">
-        <v>-1</v>
-      </c>
       <c r="M51" s="9">
         <v>-1</v>
       </c>
       <c r="N51" s="9">
         <v>-1</v>
       </c>
-      <c r="O51" s="9" t="str">
+      <c r="O51" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P51" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q51" s="9">
         <v>2230</v>
       </c>
-      <c r="Q51" s="9">
+      <c r="R51" s="9">
         <v>2231</v>
       </c>
-      <c r="R51" s="9">
+      <c r="S51" s="9">
         <v>2232</v>
       </c>
-      <c r="S51" s="9">
+      <c r="T51" s="9">
         <v>2233</v>
       </c>
-      <c r="T51" s="9">
+      <c r="U51" s="9">
         <v>2234</v>
       </c>
-      <c r="U51" s="9">
+      <c r="V51" s="9">
         <v>2235</v>
       </c>
-      <c r="V51" s="9">
+      <c r="W51" s="9">
         <v>2236</v>
       </c>
-      <c r="W51" s="9" t="str">
+      <c r="X51" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2230,2231,2232,2233,2234,2235,2236</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:23">
-      <c r="A52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>65</v>
+    <row r="52" customHeight="1" spans="1:24">
+      <c r="A52" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C52" s="9">
         <v>2045</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G52" s="10" t="s">
         <v>190</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="H52" s="9">
         <v>0</v>
@@ -6434,71 +6572,74 @@
         <v>-1</v>
       </c>
       <c r="J52" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K52" s="9">
         <v>1100011</v>
       </c>
-      <c r="K52" s="9">
+      <c r="L52" s="9">
         <v>1100012</v>
       </c>
-      <c r="L52" s="9">
-        <v>-1</v>
-      </c>
       <c r="M52" s="9">
         <v>-1</v>
       </c>
       <c r="N52" s="9">
         <v>-1</v>
       </c>
-      <c r="O52" s="9" t="str">
+      <c r="O52" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P52" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P52" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q52" s="9">
         <v>2230</v>
       </c>
-      <c r="Q52" s="9">
+      <c r="R52" s="9">
         <v>2231</v>
       </c>
-      <c r="R52" s="9">
+      <c r="S52" s="9">
         <v>2232</v>
       </c>
-      <c r="S52" s="9">
+      <c r="T52" s="9">
         <v>2233</v>
       </c>
-      <c r="T52" s="9">
+      <c r="U52" s="9">
         <v>2234</v>
       </c>
-      <c r="U52" s="9">
+      <c r="V52" s="9">
         <v>2235</v>
       </c>
-      <c r="V52" s="9">
+      <c r="W52" s="9">
         <v>2236</v>
       </c>
-      <c r="W52" s="9" t="str">
+      <c r="X52" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2230,2231,2232,2233,2234,2235,2236</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:23">
-      <c r="A53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>50</v>
+    <row r="53" customHeight="1" spans="1:24">
+      <c r="A53" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C53" s="9">
         <v>2046</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G53" s="10" t="s">
         <v>193</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="H53" s="9">
         <v>0</v>
@@ -6507,71 +6648,74 @@
         <v>-1</v>
       </c>
       <c r="J53" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K53" s="9">
         <v>1100011</v>
       </c>
-      <c r="K53" s="9">
+      <c r="L53" s="9">
         <v>1100012</v>
       </c>
-      <c r="L53" s="9">
-        <v>-1</v>
-      </c>
       <c r="M53" s="9">
         <v>-1</v>
       </c>
       <c r="N53" s="9">
         <v>-1</v>
       </c>
-      <c r="O53" s="9" t="str">
+      <c r="O53" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P53" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P53" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q53" s="9">
         <v>2230</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="R53" s="9">
         <v>2231</v>
       </c>
-      <c r="R53" s="9">
+      <c r="S53" s="9">
         <v>2232</v>
       </c>
-      <c r="S53" s="9">
+      <c r="T53" s="9">
         <v>2233</v>
       </c>
-      <c r="T53" s="9">
+      <c r="U53" s="9">
         <v>2234</v>
       </c>
-      <c r="U53" s="9">
+      <c r="V53" s="9">
         <v>2235</v>
       </c>
-      <c r="V53" s="9">
+      <c r="W53" s="9">
         <v>2236</v>
       </c>
-      <c r="W53" s="9" t="str">
+      <c r="X53" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2230,2231,2232,2233,2234,2235,2236</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:23">
-      <c r="A54" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>50</v>
+    <row r="54" customHeight="1" spans="1:24">
+      <c r="A54" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C54" s="9">
         <v>2047</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="10" t="s">
         <v>196</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="H54" s="9">
         <v>0</v>
@@ -6580,71 +6724,74 @@
         <v>-1</v>
       </c>
       <c r="J54" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K54" s="9">
         <v>1100011</v>
       </c>
-      <c r="K54" s="9">
+      <c r="L54" s="9">
         <v>1100012</v>
       </c>
-      <c r="L54" s="9">
-        <v>-1</v>
-      </c>
       <c r="M54" s="9">
         <v>-1</v>
       </c>
       <c r="N54" s="9">
         <v>-1</v>
       </c>
-      <c r="O54" s="9" t="str">
+      <c r="O54" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P54" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P54" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q54" s="9">
         <v>2240</v>
       </c>
-      <c r="Q54" s="9">
+      <c r="R54" s="9">
         <v>2241</v>
       </c>
-      <c r="R54" s="9">
+      <c r="S54" s="9">
         <v>2242</v>
       </c>
-      <c r="S54" s="9">
+      <c r="T54" s="9">
         <v>2243</v>
       </c>
-      <c r="T54" s="9">
+      <c r="U54" s="9">
         <v>2244</v>
       </c>
-      <c r="U54" s="9">
+      <c r="V54" s="9">
         <v>2245</v>
       </c>
-      <c r="V54" s="9">
+      <c r="W54" s="9">
         <v>2246</v>
       </c>
-      <c r="W54" s="9" t="str">
+      <c r="X54" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2240,2241,2242,2243,2244,2245,2246</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:23">
-      <c r="A55" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>61</v>
+    <row r="55" customHeight="1" spans="1:24">
+      <c r="A55" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C55" s="9">
         <v>2048</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G55" s="10" t="s">
         <v>199</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="H55" s="9">
         <v>0</v>
@@ -6653,71 +6800,74 @@
         <v>-1</v>
       </c>
       <c r="J55" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K55" s="9">
         <v>1100011</v>
       </c>
-      <c r="K55" s="9">
+      <c r="L55" s="9">
         <v>1100012</v>
       </c>
-      <c r="L55" s="9">
-        <v>-1</v>
-      </c>
       <c r="M55" s="9">
         <v>-1</v>
       </c>
       <c r="N55" s="9">
         <v>-1</v>
       </c>
-      <c r="O55" s="9" t="str">
+      <c r="O55" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P55" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P55" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q55" s="9">
         <v>2240</v>
       </c>
-      <c r="Q55" s="9">
+      <c r="R55" s="9">
         <v>2241</v>
       </c>
-      <c r="R55" s="9">
+      <c r="S55" s="9">
         <v>2242</v>
       </c>
-      <c r="S55" s="9">
+      <c r="T55" s="9">
         <v>2243</v>
       </c>
-      <c r="T55" s="9">
+      <c r="U55" s="9">
         <v>2244</v>
       </c>
-      <c r="U55" s="9">
+      <c r="V55" s="9">
         <v>2245</v>
       </c>
-      <c r="V55" s="9">
+      <c r="W55" s="9">
         <v>2246</v>
       </c>
-      <c r="W55" s="9" t="str">
+      <c r="X55" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2240,2241,2242,2243,2244,2245,2246</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:23">
-      <c r="A56" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>200</v>
+    <row r="56" customHeight="1" spans="1:24">
+      <c r="A56" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="C56" s="9">
         <v>2049</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G56" s="10" t="s">
         <v>203</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="H56" s="9">
         <v>0</v>
@@ -6726,71 +6876,74 @@
         <v>-1</v>
       </c>
       <c r="J56" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K56" s="9">
         <v>1100011</v>
       </c>
-      <c r="K56" s="9">
+      <c r="L56" s="9">
         <v>1100012</v>
       </c>
-      <c r="L56" s="9">
-        <v>-1</v>
-      </c>
       <c r="M56" s="9">
         <v>-1</v>
       </c>
       <c r="N56" s="9">
         <v>-1</v>
       </c>
-      <c r="O56" s="9" t="str">
+      <c r="O56" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P56" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P56" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q56" s="9">
         <v>2240</v>
       </c>
-      <c r="Q56" s="9">
+      <c r="R56" s="9">
         <v>2241</v>
       </c>
-      <c r="R56" s="9">
+      <c r="S56" s="9">
         <v>2242</v>
       </c>
-      <c r="S56" s="9">
+      <c r="T56" s="9">
         <v>2243</v>
       </c>
-      <c r="T56" s="9">
+      <c r="U56" s="9">
         <v>2244</v>
       </c>
-      <c r="U56" s="9">
+      <c r="V56" s="9">
         <v>2245</v>
       </c>
-      <c r="V56" s="9">
+      <c r="W56" s="9">
         <v>2246</v>
       </c>
-      <c r="W56" s="9" t="str">
+      <c r="X56" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2240,2241,2242,2243,2244,2245,2246</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A57" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="16">
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A57" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="15">
         <v>-1</v>
       </c>
       <c r="C57" s="1">
         <v>2050</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>206</v>
+        <v>48</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -6799,71 +6952,74 @@
         <v>-1</v>
       </c>
       <c r="J57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K57" s="1">
         <v>1100011</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>1100012</v>
       </c>
-      <c r="L57" s="1">
-        <v>-1</v>
-      </c>
       <c r="M57" s="1">
         <v>-1</v>
       </c>
       <c r="N57" s="1">
         <v>-1</v>
       </c>
-      <c r="O57" s="1" t="str">
+      <c r="O57" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P57" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P57" s="1">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q57" s="1">
         <v>2260</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="R57" s="1">
         <v>2261</v>
       </c>
-      <c r="R57" s="1">
+      <c r="S57" s="1">
         <v>2262</v>
       </c>
-      <c r="S57" s="1">
+      <c r="T57" s="1">
         <v>2263</v>
       </c>
-      <c r="T57" s="1">
+      <c r="U57" s="1">
         <v>2264</v>
       </c>
-      <c r="U57" s="1">
+      <c r="V57" s="1">
         <v>2265</v>
       </c>
-      <c r="V57" s="1">
+      <c r="W57" s="1">
         <v>2266</v>
       </c>
-      <c r="W57" s="9" t="str">
+      <c r="X57" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2260,2261,2262,2263,2264,2265,2266</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:23">
-      <c r="A58" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>50</v>
+    <row r="58" customHeight="1" spans="1:24">
+      <c r="A58" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C58" s="9">
         <v>2051</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G58" s="10" t="s">
         <v>209</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="H58" s="9">
         <v>0</v>
@@ -6872,71 +7028,74 @@
         <v>-1</v>
       </c>
       <c r="J58" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K58" s="9">
         <v>1100011</v>
       </c>
-      <c r="K58" s="9">
+      <c r="L58" s="9">
         <v>1100012</v>
       </c>
-      <c r="L58" s="9">
-        <v>-1</v>
-      </c>
       <c r="M58" s="9">
         <v>-1</v>
       </c>
       <c r="N58" s="9">
         <v>-1</v>
       </c>
-      <c r="O58" s="9" t="str">
+      <c r="O58" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P58" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P58" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q58" s="9">
         <v>2270</v>
       </c>
-      <c r="Q58" s="9">
+      <c r="R58" s="9">
         <v>2271</v>
       </c>
-      <c r="R58" s="9">
+      <c r="S58" s="9">
         <v>2272</v>
       </c>
-      <c r="S58" s="9">
+      <c r="T58" s="9">
         <v>2273</v>
       </c>
-      <c r="T58" s="9">
+      <c r="U58" s="9">
         <v>2274</v>
       </c>
-      <c r="U58" s="9">
+      <c r="V58" s="9">
         <v>2275</v>
       </c>
-      <c r="V58" s="9">
+      <c r="W58" s="9">
         <v>2276</v>
       </c>
-      <c r="W58" s="9" t="str">
+      <c r="X58" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2270,2271,2272,2273,2274,2275,2276</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:23">
-      <c r="A59" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>50</v>
+    <row r="59" customHeight="1" spans="1:24">
+      <c r="A59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C59" s="9">
         <v>2052</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G59" s="10" t="s">
         <v>212</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="H59" s="9">
         <v>0</v>
@@ -6945,71 +7104,74 @@
         <v>-1</v>
       </c>
       <c r="J59" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K59" s="9">
         <v>1100011</v>
       </c>
-      <c r="K59" s="9">
+      <c r="L59" s="9">
         <v>1100012</v>
       </c>
-      <c r="L59" s="9">
-        <v>-1</v>
-      </c>
       <c r="M59" s="9">
         <v>-1</v>
       </c>
       <c r="N59" s="9">
         <v>-1</v>
       </c>
-      <c r="O59" s="9" t="str">
+      <c r="O59" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P59" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q59" s="9">
         <v>2270</v>
       </c>
-      <c r="Q59" s="9">
+      <c r="R59" s="9">
         <v>2271</v>
       </c>
-      <c r="R59" s="9">
+      <c r="S59" s="9">
         <v>2272</v>
       </c>
-      <c r="S59" s="9">
+      <c r="T59" s="9">
         <v>2273</v>
       </c>
-      <c r="T59" s="9">
+      <c r="U59" s="9">
         <v>2274</v>
       </c>
-      <c r="U59" s="9">
+      <c r="V59" s="9">
         <v>2275</v>
       </c>
-      <c r="V59" s="9">
+      <c r="W59" s="9">
         <v>2276</v>
       </c>
-      <c r="W59" s="9" t="str">
+      <c r="X59" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2270,2271,2272,2273,2274,2275,2276</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:23">
-      <c r="A60" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>50</v>
+    <row r="60" customHeight="1" spans="1:24">
+      <c r="A60" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C60" s="9">
         <v>2053</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G60" s="10" t="s">
         <v>215</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="H60" s="9">
         <v>0</v>
@@ -7018,71 +7180,74 @@
         <v>-1</v>
       </c>
       <c r="J60" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K60" s="9">
         <v>1100011</v>
       </c>
-      <c r="K60" s="9">
+      <c r="L60" s="9">
         <v>1100012</v>
       </c>
-      <c r="L60" s="9">
-        <v>-1</v>
-      </c>
       <c r="M60" s="9">
         <v>-1</v>
       </c>
       <c r="N60" s="9">
         <v>-1</v>
       </c>
-      <c r="O60" s="9" t="str">
+      <c r="O60" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P60" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P60" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q60" s="9">
         <v>2280</v>
       </c>
-      <c r="Q60" s="9">
+      <c r="R60" s="9">
         <v>2281</v>
       </c>
-      <c r="R60" s="9">
+      <c r="S60" s="9">
         <v>2282</v>
       </c>
-      <c r="S60" s="9">
+      <c r="T60" s="9">
         <v>2283</v>
       </c>
-      <c r="T60" s="9">
+      <c r="U60" s="9">
         <v>2284</v>
       </c>
-      <c r="U60" s="9">
+      <c r="V60" s="9">
         <v>2285</v>
       </c>
-      <c r="V60" s="9">
+      <c r="W60" s="9">
         <v>2286</v>
       </c>
-      <c r="W60" s="9" t="str">
+      <c r="X60" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2280,2281,2282,2283,2284,2285,2286</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:23">
-      <c r="A61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>61</v>
+    <row r="61" customHeight="1" spans="1:24">
+      <c r="A61" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C61" s="9">
         <v>2054</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="10" t="s">
         <v>218</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="H61" s="9">
         <v>0</v>
@@ -7091,71 +7256,74 @@
         <v>-1</v>
       </c>
       <c r="J61" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K61" s="9">
         <v>1100011</v>
       </c>
-      <c r="K61" s="9">
+      <c r="L61" s="9">
         <v>1100012</v>
       </c>
-      <c r="L61" s="9">
-        <v>-1</v>
-      </c>
       <c r="M61" s="9">
         <v>-1</v>
       </c>
       <c r="N61" s="9">
         <v>-1</v>
       </c>
-      <c r="O61" s="9" t="str">
+      <c r="O61" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P61" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P61" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q61" s="9">
         <v>2280</v>
       </c>
-      <c r="Q61" s="9">
+      <c r="R61" s="9">
         <v>2281</v>
       </c>
-      <c r="R61" s="9">
+      <c r="S61" s="9">
         <v>2282</v>
       </c>
-      <c r="S61" s="9">
+      <c r="T61" s="9">
         <v>2283</v>
       </c>
-      <c r="T61" s="9">
+      <c r="U61" s="9">
         <v>2284</v>
       </c>
-      <c r="U61" s="9">
+      <c r="V61" s="9">
         <v>2285</v>
       </c>
-      <c r="V61" s="9">
+      <c r="W61" s="9">
         <v>2286</v>
       </c>
-      <c r="W61" s="9" t="str">
+      <c r="X61" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2280,2281,2282,2283,2284,2285,2286</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:23">
-      <c r="A62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>65</v>
+    <row r="62" customHeight="1" spans="1:24">
+      <c r="A62" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C62" s="9">
         <v>2055</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G62" s="10" t="s">
         <v>221</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="H62" s="9">
         <v>0</v>
@@ -7164,71 +7332,74 @@
         <v>-1</v>
       </c>
       <c r="J62" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K62" s="9">
         <v>1100011</v>
       </c>
-      <c r="K62" s="9">
+      <c r="L62" s="9">
         <v>1100012</v>
       </c>
-      <c r="L62" s="9">
-        <v>-1</v>
-      </c>
       <c r="M62" s="9">
         <v>-1</v>
       </c>
       <c r="N62" s="9">
         <v>-1</v>
       </c>
-      <c r="O62" s="9" t="str">
+      <c r="O62" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P62" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P62" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q62" s="9">
         <v>2280</v>
       </c>
-      <c r="Q62" s="9">
+      <c r="R62" s="9">
         <v>2281</v>
       </c>
-      <c r="R62" s="9">
+      <c r="S62" s="9">
         <v>2282</v>
       </c>
-      <c r="S62" s="9">
+      <c r="T62" s="9">
         <v>2283</v>
       </c>
-      <c r="T62" s="9">
+      <c r="U62" s="9">
         <v>2284</v>
       </c>
-      <c r="U62" s="9">
+      <c r="V62" s="9">
         <v>2285</v>
       </c>
-      <c r="V62" s="9">
+      <c r="W62" s="9">
         <v>2286</v>
       </c>
-      <c r="W62" s="9" t="str">
+      <c r="X62" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2280,2281,2282,2283,2284,2285,2286</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:23">
-      <c r="A63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>50</v>
+    <row r="63" customHeight="1" spans="1:24">
+      <c r="A63" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C63" s="9">
         <v>2056</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G63" s="10" t="s">
         <v>224</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="H63" s="9">
         <v>0</v>
@@ -7237,71 +7408,74 @@
         <v>-1</v>
       </c>
       <c r="J63" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K63" s="9">
         <v>1100011</v>
       </c>
-      <c r="K63" s="9">
+      <c r="L63" s="9">
         <v>1100012</v>
       </c>
-      <c r="L63" s="9">
-        <v>-1</v>
-      </c>
       <c r="M63" s="9">
         <v>-1</v>
       </c>
       <c r="N63" s="9">
         <v>-1</v>
       </c>
-      <c r="O63" s="9" t="str">
+      <c r="O63" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P63" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P63" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q63" s="9">
         <v>2280</v>
       </c>
-      <c r="Q63" s="9">
+      <c r="R63" s="9">
         <v>2281</v>
       </c>
-      <c r="R63" s="9">
+      <c r="S63" s="9">
         <v>2282</v>
       </c>
-      <c r="S63" s="9">
+      <c r="T63" s="9">
         <v>2283</v>
       </c>
-      <c r="T63" s="9">
+      <c r="U63" s="9">
         <v>2284</v>
       </c>
-      <c r="U63" s="9">
+      <c r="V63" s="9">
         <v>2285</v>
       </c>
-      <c r="V63" s="9">
+      <c r="W63" s="9">
         <v>2286</v>
       </c>
-      <c r="W63" s="9" t="str">
+      <c r="X63" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2280,2281,2282,2283,2284,2285,2286</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:23">
-      <c r="A64" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>50</v>
+    <row r="64" customHeight="1" spans="1:24">
+      <c r="A64" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C64" s="9">
         <v>2057</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" s="10" t="s">
         <v>227</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="H64" s="9">
         <v>0</v>
@@ -7310,71 +7484,74 @@
         <v>-1</v>
       </c>
       <c r="J64" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K64" s="9">
         <v>1100011</v>
       </c>
-      <c r="K64" s="9">
+      <c r="L64" s="9">
         <v>1100012</v>
       </c>
-      <c r="L64" s="9">
-        <v>-1</v>
-      </c>
       <c r="M64" s="9">
         <v>-1</v>
       </c>
       <c r="N64" s="9">
         <v>-1</v>
       </c>
-      <c r="O64" s="9" t="str">
+      <c r="O64" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P64" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P64" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q64" s="9">
         <v>2290</v>
       </c>
-      <c r="Q64" s="9">
+      <c r="R64" s="9">
         <v>2291</v>
       </c>
-      <c r="R64" s="9">
+      <c r="S64" s="9">
         <v>2292</v>
       </c>
-      <c r="S64" s="9">
+      <c r="T64" s="9">
         <v>2293</v>
       </c>
-      <c r="T64" s="9">
+      <c r="U64" s="9">
         <v>2294</v>
       </c>
-      <c r="U64" s="9">
+      <c r="V64" s="9">
         <v>2295</v>
       </c>
-      <c r="V64" s="9">
+      <c r="W64" s="9">
         <v>2296</v>
       </c>
-      <c r="W64" s="9" t="str">
+      <c r="X64" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2290,2291,2292,2293,2294,2295,2296</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:23">
-      <c r="A65" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>228</v>
+    <row r="65" customHeight="1" spans="1:24">
+      <c r="A65" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="C65" s="9">
         <v>2058</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G65" s="10" t="s">
         <v>231</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="H65" s="9">
         <v>0</v>
@@ -7383,71 +7560,74 @@
         <v>-1</v>
       </c>
       <c r="J65" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K65" s="9">
         <v>1100011</v>
       </c>
-      <c r="K65" s="9">
+      <c r="L65" s="9">
         <v>1100012</v>
       </c>
-      <c r="L65" s="9">
-        <v>-1</v>
-      </c>
       <c r="M65" s="9">
         <v>-1</v>
       </c>
       <c r="N65" s="9">
         <v>-1</v>
       </c>
-      <c r="O65" s="9" t="str">
+      <c r="O65" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P65" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P65" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q65" s="9">
         <v>2290</v>
       </c>
-      <c r="Q65" s="9">
+      <c r="R65" s="9">
         <v>2291</v>
       </c>
-      <c r="R65" s="9">
+      <c r="S65" s="9">
         <v>2292</v>
       </c>
-      <c r="S65" s="9">
+      <c r="T65" s="9">
         <v>2293</v>
       </c>
-      <c r="T65" s="9">
+      <c r="U65" s="9">
         <v>2294</v>
       </c>
-      <c r="U65" s="9">
+      <c r="V65" s="9">
         <v>2295</v>
       </c>
-      <c r="V65" s="9">
+      <c r="W65" s="9">
         <v>2296</v>
       </c>
-      <c r="W65" s="9" t="str">
+      <c r="X65" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2290,2291,2292,2293,2294,2295,2296</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:23">
+    <row r="66" customHeight="1" spans="1:24">
       <c r="A66" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C66" s="9">
         <v>2059</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G66" s="10" t="s">
         <v>234</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="H66" s="9">
         <v>0</v>
@@ -7456,74 +7636,77 @@
         <v>-1</v>
       </c>
       <c r="J66" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K66" s="9">
         <v>1100011</v>
       </c>
-      <c r="K66" s="9">
+      <c r="L66" s="9">
         <v>1100012</v>
       </c>
-      <c r="L66" s="9">
-        <v>-1</v>
-      </c>
       <c r="M66" s="9">
         <v>-1</v>
       </c>
       <c r="N66" s="9">
         <v>-1</v>
       </c>
-      <c r="O66" s="9" t="str">
+      <c r="O66" s="9">
+        <v>-1</v>
+      </c>
+      <c r="P66" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>-1,1100011,1100012,-1,-1,-1</v>
-      </c>
-      <c r="P66" s="9">
+        <v>-1,-1,1100011,1100012,-1,-1,-1</v>
+      </c>
+      <c r="Q66" s="9">
         <v>2290</v>
       </c>
-      <c r="Q66" s="9">
+      <c r="R66" s="9">
         <v>2291</v>
       </c>
-      <c r="R66" s="9">
+      <c r="S66" s="9">
         <v>2292</v>
       </c>
-      <c r="S66" s="9">
+      <c r="T66" s="9">
         <v>2293</v>
       </c>
-      <c r="T66" s="9">
+      <c r="U66" s="9">
         <v>2294</v>
       </c>
-      <c r="U66" s="9">
+      <c r="V66" s="9">
         <v>2295</v>
       </c>
-      <c r="V66" s="9">
+      <c r="W66" s="9">
         <v>2296</v>
       </c>
-      <c r="W66" s="9" t="str">
+      <c r="X66" s="9" t="str">
         <f t="shared" si="3"/>
         <v>2290,2291,2292,2293,2294,2295,2296</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="5:7">
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" customHeight="1" spans="5:7">
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" customHeight="1" spans="5:7">
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" customHeight="1" spans="5:7">
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" customHeight="1" spans="5:7">
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
